--- a/Template/Template.xlsx
+++ b/Template/Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omerm\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ABS\ABS System\ABS-System-Backend\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0E70A01-0334-49EE-9D7C-F6C97B8D27AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{44D00D9F-BD3C-4F36-AC3A-491061D8B145}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="DeliveryExchange">"{""Delivery"",1;""Exchange"",2}"</definedName>
     <definedName name="lookup_list">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,8 +27,90 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Adham Ahmed</author>
+  </authors>
+  <commentList>
+    <comment ref="T1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adham Ahmed:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
++5 EGP will be added on the fees, if you don't choose Yes or No, the services you chose while registration will be applied</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adham Ahmed:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
++10 EGP will be added on the fees, if you don't choose Yes or No, the services you chose while registration will be applied</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Adham Ahmed:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
++15 EGP will be added on the fees, if you don't choose Yes or No, the services you chose while registration will be applied</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Ref</t>
   </si>
@@ -79,9 +160,6 @@
     <t>latitude</t>
   </si>
   <si>
-    <t>Product</t>
-  </si>
-  <si>
     <t>PackageType</t>
   </si>
   <si>
@@ -89,16 +167,25 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>allowOpenPackages</t>
+  </si>
+  <si>
+    <t>sameDayDelivery</t>
+  </si>
+  <si>
+    <t>feesOnConsignee</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +200,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -455,111 +555,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD15E65C-5D97-4288-8C15-7E06D2500A20}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.77734375" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.6640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="19" max="20" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="15.5546875" customWidth="1"/>
+    <col min="18" max="19" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>15</v>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{BF833203-ECF4-42F5-8BEC-CF9183BAB622}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
       <formula1>"Delivery,Return,Exchange"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{E927A4D1-CEE7-4135-9FDE-52E94E9ECC7A}">
-      <formula1>"COD,Bulk Mail"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{19978039-342B-449F-83E8-A8F818DDFAA6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
       <formula1>"Parcel,Document,Bulk"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q1048576" xr:uid="{70CF2512-C9EC-4C1F-BA68-52B428CF12B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
       <formula1>"Dokki,Giza,October,Maadi"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:V1048576">
+      <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Template/Template.xlsx
+++ b/Template/Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>First Name</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>DELIVERY SHIPMENT SERVICES</t>
+  </si>
+  <si>
+    <t>Hide Shipping Fees?</t>
   </si>
 </sst>
 </file>
@@ -486,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -553,6 +556,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -858,44 +864,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA503"/>
+  <dimension ref="A1:AB503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
-    <col min="5" max="5" width="30.88671875" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.77734375" customWidth="1"/>
-    <col min="13" max="13" width="20.88671875" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" customWidth="1"/>
-    <col min="15" max="15" width="10.88671875" customWidth="1"/>
-    <col min="16" max="16" width="28.44140625" customWidth="1"/>
-    <col min="17" max="17" width="28.6640625" customWidth="1"/>
-    <col min="18" max="18" width="17.5546875" customWidth="1"/>
-    <col min="19" max="19" width="25.77734375" customWidth="1"/>
-    <col min="20" max="20" width="21.33203125" customWidth="1"/>
-    <col min="21" max="21" width="19.109375" customWidth="1"/>
-    <col min="22" max="22" width="25.5546875" customWidth="1"/>
-    <col min="23" max="23" width="32.44140625" customWidth="1"/>
-    <col min="24" max="24" width="25.88671875" customWidth="1"/>
-    <col min="25" max="25" width="26.88671875" customWidth="1"/>
-    <col min="26" max="26" width="24.88671875" customWidth="1"/>
-    <col min="27" max="27" width="25.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.85546875" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.85546875" customWidth="1"/>
+    <col min="16" max="16" width="28.42578125" customWidth="1"/>
+    <col min="17" max="17" width="28.7109375" customWidth="1"/>
+    <col min="18" max="18" width="17.5703125" customWidth="1"/>
+    <col min="19" max="19" width="25.7109375" customWidth="1"/>
+    <col min="20" max="20" width="21.28515625" customWidth="1"/>
+    <col min="21" max="21" width="19.140625" customWidth="1"/>
+    <col min="22" max="22" width="25.5703125" customWidth="1"/>
+    <col min="23" max="23" width="32.42578125" customWidth="1"/>
+    <col min="24" max="24" width="25.85546875" customWidth="1"/>
+    <col min="25" max="25" width="26.85546875" customWidth="1"/>
+    <col min="26" max="26" width="24.85546875" customWidth="1"/>
+    <col min="27" max="27" width="22.140625" customWidth="1"/>
+    <col min="28" max="28" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="10" customFormat="1" ht="50.4" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:28" s="10" customFormat="1" ht="50.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>20</v>
       </c>
@@ -930,9 +937,10 @@
         <v>30</v>
       </c>
       <c r="Z1" s="22"/>
-      <c r="AA1" s="23"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="23"/>
+    </row>
+    <row r="2" spans="1:28" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -1011,11 +1019,14 @@
       <c r="Z2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="AA2" s="9" t="s">
+      <c r="AA2" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AB2" s="27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1042,9 +1053,10 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="11"/>
       <c r="Z3" s="12"/>
-      <c r="AA3" s="13"/>
-    </row>
-    <row r="4" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1071,9 +1083,10 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="11"/>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="13"/>
-    </row>
-    <row r="5" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1100,9 +1113,10 @@
       <c r="X5" s="13"/>
       <c r="Y5" s="11"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="13"/>
-    </row>
-    <row r="6" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1129,9 +1143,10 @@
       <c r="X6" s="13"/>
       <c r="Y6" s="11"/>
       <c r="Z6" s="12"/>
-      <c r="AA6" s="13"/>
-    </row>
-    <row r="7" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="13"/>
+    </row>
+    <row r="7" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1158,9 +1173,10 @@
       <c r="X7" s="13"/>
       <c r="Y7" s="11"/>
       <c r="Z7" s="12"/>
-      <c r="AA7" s="13"/>
-    </row>
-    <row r="8" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="13"/>
+    </row>
+    <row r="8" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1187,9 +1203,10 @@
       <c r="X8" s="13"/>
       <c r="Y8" s="11"/>
       <c r="Z8" s="12"/>
-      <c r="AA8" s="13"/>
-    </row>
-    <row r="9" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="13"/>
+    </row>
+    <row r="9" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1216,9 +1233,10 @@
       <c r="X9" s="13"/>
       <c r="Y9" s="11"/>
       <c r="Z9" s="12"/>
-      <c r="AA9" s="13"/>
-    </row>
-    <row r="10" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="13"/>
+    </row>
+    <row r="10" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1245,9 +1263,10 @@
       <c r="X10" s="13"/>
       <c r="Y10" s="11"/>
       <c r="Z10" s="12"/>
-      <c r="AA10" s="13"/>
-    </row>
-    <row r="11" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="13"/>
+    </row>
+    <row r="11" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -1274,9 +1293,10 @@
       <c r="X11" s="13"/>
       <c r="Y11" s="11"/>
       <c r="Z11" s="12"/>
-      <c r="AA11" s="13"/>
-    </row>
-    <row r="12" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="13"/>
+    </row>
+    <row r="12" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -1303,9 +1323,10 @@
       <c r="X12" s="13"/>
       <c r="Y12" s="11"/>
       <c r="Z12" s="12"/>
-      <c r="AA12" s="13"/>
-    </row>
-    <row r="13" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="13"/>
+    </row>
+    <row r="13" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -1332,9 +1353,10 @@
       <c r="X13" s="13"/>
       <c r="Y13" s="11"/>
       <c r="Z13" s="12"/>
-      <c r="AA13" s="13"/>
-    </row>
-    <row r="14" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="13"/>
+    </row>
+    <row r="14" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -1361,9 +1383,10 @@
       <c r="X14" s="13"/>
       <c r="Y14" s="11"/>
       <c r="Z14" s="12"/>
-      <c r="AA14" s="13"/>
-    </row>
-    <row r="15" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="13"/>
+    </row>
+    <row r="15" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -1390,9 +1413,10 @@
       <c r="X15" s="13"/>
       <c r="Y15" s="11"/>
       <c r="Z15" s="12"/>
-      <c r="AA15" s="13"/>
-    </row>
-    <row r="16" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="13"/>
+    </row>
+    <row r="16" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -1419,9 +1443,10 @@
       <c r="X16" s="13"/>
       <c r="Y16" s="11"/>
       <c r="Z16" s="12"/>
-      <c r="AA16" s="13"/>
-    </row>
-    <row r="17" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="13"/>
+    </row>
+    <row r="17" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -1448,9 +1473,10 @@
       <c r="X17" s="13"/>
       <c r="Y17" s="11"/>
       <c r="Z17" s="12"/>
-      <c r="AA17" s="13"/>
-    </row>
-    <row r="18" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="13"/>
+    </row>
+    <row r="18" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -1477,9 +1503,10 @@
       <c r="X18" s="13"/>
       <c r="Y18" s="11"/>
       <c r="Z18" s="12"/>
-      <c r="AA18" s="13"/>
-    </row>
-    <row r="19" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="13"/>
+    </row>
+    <row r="19" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -1506,9 +1533,10 @@
       <c r="X19" s="13"/>
       <c r="Y19" s="11"/>
       <c r="Z19" s="12"/>
-      <c r="AA19" s="13"/>
-    </row>
-    <row r="20" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="13"/>
+    </row>
+    <row r="20" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -1535,9 +1563,10 @@
       <c r="X20" s="13"/>
       <c r="Y20" s="11"/>
       <c r="Z20" s="12"/>
-      <c r="AA20" s="13"/>
-    </row>
-    <row r="21" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="13"/>
+    </row>
+    <row r="21" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -1564,9 +1593,10 @@
       <c r="X21" s="13"/>
       <c r="Y21" s="11"/>
       <c r="Z21" s="12"/>
-      <c r="AA21" s="13"/>
-    </row>
-    <row r="22" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="13"/>
+    </row>
+    <row r="22" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -1593,9 +1623,10 @@
       <c r="X22" s="13"/>
       <c r="Y22" s="11"/>
       <c r="Z22" s="12"/>
-      <c r="AA22" s="13"/>
-    </row>
-    <row r="23" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="13"/>
+    </row>
+    <row r="23" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -1622,9 +1653,10 @@
       <c r="X23" s="13"/>
       <c r="Y23" s="11"/>
       <c r="Z23" s="12"/>
-      <c r="AA23" s="13"/>
-    </row>
-    <row r="24" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="13"/>
+    </row>
+    <row r="24" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -1651,9 +1683,10 @@
       <c r="X24" s="13"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="12"/>
-      <c r="AA24" s="13"/>
-    </row>
-    <row r="25" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="13"/>
+    </row>
+    <row r="25" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -1680,9 +1713,10 @@
       <c r="X25" s="13"/>
       <c r="Y25" s="11"/>
       <c r="Z25" s="12"/>
-      <c r="AA25" s="13"/>
-    </row>
-    <row r="26" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="13"/>
+    </row>
+    <row r="26" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1709,9 +1743,10 @@
       <c r="X26" s="13"/>
       <c r="Y26" s="11"/>
       <c r="Z26" s="12"/>
-      <c r="AA26" s="13"/>
-    </row>
-    <row r="27" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="13"/>
+    </row>
+    <row r="27" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
@@ -1738,9 +1773,10 @@
       <c r="X27" s="13"/>
       <c r="Y27" s="11"/>
       <c r="Z27" s="12"/>
-      <c r="AA27" s="13"/>
-    </row>
-    <row r="28" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="13"/>
+    </row>
+    <row r="28" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="12"/>
@@ -1767,9 +1803,10 @@
       <c r="X28" s="13"/>
       <c r="Y28" s="11"/>
       <c r="Z28" s="12"/>
-      <c r="AA28" s="13"/>
-    </row>
-    <row r="29" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="13"/>
+    </row>
+    <row r="29" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -1796,9 +1833,10 @@
       <c r="X29" s="13"/>
       <c r="Y29" s="11"/>
       <c r="Z29" s="12"/>
-      <c r="AA29" s="13"/>
-    </row>
-    <row r="30" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA29" s="12"/>
+      <c r="AB29" s="13"/>
+    </row>
+    <row r="30" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -1825,9 +1863,10 @@
       <c r="X30" s="13"/>
       <c r="Y30" s="11"/>
       <c r="Z30" s="12"/>
-      <c r="AA30" s="13"/>
-    </row>
-    <row r="31" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA30" s="12"/>
+      <c r="AB30" s="13"/>
+    </row>
+    <row r="31" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="12"/>
@@ -1854,9 +1893,10 @@
       <c r="X31" s="13"/>
       <c r="Y31" s="11"/>
       <c r="Z31" s="12"/>
-      <c r="AA31" s="13"/>
-    </row>
-    <row r="32" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA31" s="12"/>
+      <c r="AB31" s="13"/>
+    </row>
+    <row r="32" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="12"/>
@@ -1883,9 +1923,10 @@
       <c r="X32" s="13"/>
       <c r="Y32" s="11"/>
       <c r="Z32" s="12"/>
-      <c r="AA32" s="13"/>
-    </row>
-    <row r="33" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA32" s="12"/>
+      <c r="AB32" s="13"/>
+    </row>
+    <row r="33" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="12"/>
       <c r="C33" s="12"/>
@@ -1912,9 +1953,10 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="11"/>
       <c r="Z33" s="12"/>
-      <c r="AA33" s="13"/>
-    </row>
-    <row r="34" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA33" s="12"/>
+      <c r="AB33" s="13"/>
+    </row>
+    <row r="34" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="12"/>
@@ -1941,9 +1983,10 @@
       <c r="X34" s="13"/>
       <c r="Y34" s="11"/>
       <c r="Z34" s="12"/>
-      <c r="AA34" s="13"/>
-    </row>
-    <row r="35" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA34" s="12"/>
+      <c r="AB34" s="13"/>
+    </row>
+    <row r="35" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="12"/>
       <c r="C35" s="12"/>
@@ -1970,9 +2013,10 @@
       <c r="X35" s="13"/>
       <c r="Y35" s="11"/>
       <c r="Z35" s="12"/>
-      <c r="AA35" s="13"/>
-    </row>
-    <row r="36" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA35" s="12"/>
+      <c r="AB35" s="13"/>
+    </row>
+    <row r="36" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -1999,9 +2043,10 @@
       <c r="X36" s="13"/>
       <c r="Y36" s="11"/>
       <c r="Z36" s="12"/>
-      <c r="AA36" s="13"/>
-    </row>
-    <row r="37" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA36" s="12"/>
+      <c r="AB36" s="13"/>
+    </row>
+    <row r="37" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -2028,9 +2073,10 @@
       <c r="X37" s="13"/>
       <c r="Y37" s="11"/>
       <c r="Z37" s="12"/>
-      <c r="AA37" s="13"/>
-    </row>
-    <row r="38" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA37" s="12"/>
+      <c r="AB37" s="13"/>
+    </row>
+    <row r="38" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
@@ -2057,9 +2103,10 @@
       <c r="X38" s="13"/>
       <c r="Y38" s="11"/>
       <c r="Z38" s="12"/>
-      <c r="AA38" s="13"/>
-    </row>
-    <row r="39" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA38" s="12"/>
+      <c r="AB38" s="13"/>
+    </row>
+    <row r="39" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -2086,9 +2133,10 @@
       <c r="X39" s="13"/>
       <c r="Y39" s="11"/>
       <c r="Z39" s="12"/>
-      <c r="AA39" s="13"/>
-    </row>
-    <row r="40" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA39" s="12"/>
+      <c r="AB39" s="13"/>
+    </row>
+    <row r="40" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
@@ -2115,9 +2163,10 @@
       <c r="X40" s="13"/>
       <c r="Y40" s="11"/>
       <c r="Z40" s="12"/>
-      <c r="AA40" s="13"/>
-    </row>
-    <row r="41" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA40" s="12"/>
+      <c r="AB40" s="13"/>
+    </row>
+    <row r="41" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2144,9 +2193,10 @@
       <c r="X41" s="13"/>
       <c r="Y41" s="11"/>
       <c r="Z41" s="12"/>
-      <c r="AA41" s="13"/>
-    </row>
-    <row r="42" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA41" s="12"/>
+      <c r="AB41" s="13"/>
+    </row>
+    <row r="42" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
@@ -2173,9 +2223,10 @@
       <c r="X42" s="13"/>
       <c r="Y42" s="11"/>
       <c r="Z42" s="12"/>
-      <c r="AA42" s="13"/>
-    </row>
-    <row r="43" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA42" s="12"/>
+      <c r="AB42" s="13"/>
+    </row>
+    <row r="43" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="12"/>
       <c r="C43" s="12"/>
@@ -2202,9 +2253,10 @@
       <c r="X43" s="13"/>
       <c r="Y43" s="11"/>
       <c r="Z43" s="12"/>
-      <c r="AA43" s="13"/>
-    </row>
-    <row r="44" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="13"/>
+    </row>
+    <row r="44" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2231,9 +2283,10 @@
       <c r="X44" s="13"/>
       <c r="Y44" s="11"/>
       <c r="Z44" s="12"/>
-      <c r="AA44" s="13"/>
-    </row>
-    <row r="45" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA44" s="12"/>
+      <c r="AB44" s="13"/>
+    </row>
+    <row r="45" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
@@ -2260,9 +2313,10 @@
       <c r="X45" s="13"/>
       <c r="Y45" s="11"/>
       <c r="Z45" s="12"/>
-      <c r="AA45" s="13"/>
-    </row>
-    <row r="46" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA45" s="12"/>
+      <c r="AB45" s="13"/>
+    </row>
+    <row r="46" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -2289,9 +2343,10 @@
       <c r="X46" s="13"/>
       <c r="Y46" s="11"/>
       <c r="Z46" s="12"/>
-      <c r="AA46" s="13"/>
-    </row>
-    <row r="47" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA46" s="12"/>
+      <c r="AB46" s="13"/>
+    </row>
+    <row r="47" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="12"/>
       <c r="C47" s="12"/>
@@ -2318,9 +2373,10 @@
       <c r="X47" s="13"/>
       <c r="Y47" s="11"/>
       <c r="Z47" s="12"/>
-      <c r="AA47" s="13"/>
-    </row>
-    <row r="48" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA47" s="12"/>
+      <c r="AB47" s="13"/>
+    </row>
+    <row r="48" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -2347,9 +2403,10 @@
       <c r="X48" s="13"/>
       <c r="Y48" s="11"/>
       <c r="Z48" s="12"/>
-      <c r="AA48" s="13"/>
-    </row>
-    <row r="49" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA48" s="12"/>
+      <c r="AB48" s="13"/>
+    </row>
+    <row r="49" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="11"/>
       <c r="B49" s="12"/>
       <c r="C49" s="12"/>
@@ -2376,9 +2433,10 @@
       <c r="X49" s="13"/>
       <c r="Y49" s="11"/>
       <c r="Z49" s="12"/>
-      <c r="AA49" s="13"/>
-    </row>
-    <row r="50" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA49" s="12"/>
+      <c r="AB49" s="13"/>
+    </row>
+    <row r="50" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
@@ -2405,9 +2463,10 @@
       <c r="X50" s="13"/>
       <c r="Y50" s="11"/>
       <c r="Z50" s="12"/>
-      <c r="AA50" s="13"/>
-    </row>
-    <row r="51" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA50" s="12"/>
+      <c r="AB50" s="13"/>
+    </row>
+    <row r="51" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="11"/>
       <c r="B51" s="12"/>
       <c r="C51" s="12"/>
@@ -2434,9 +2493,10 @@
       <c r="X51" s="13"/>
       <c r="Y51" s="11"/>
       <c r="Z51" s="12"/>
-      <c r="AA51" s="13"/>
-    </row>
-    <row r="52" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA51" s="12"/>
+      <c r="AB51" s="13"/>
+    </row>
+    <row r="52" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="11"/>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
@@ -2463,9 +2523,10 @@
       <c r="X52" s="13"/>
       <c r="Y52" s="11"/>
       <c r="Z52" s="12"/>
-      <c r="AA52" s="13"/>
-    </row>
-    <row r="53" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA52" s="12"/>
+      <c r="AB52" s="13"/>
+    </row>
+    <row r="53" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="11"/>
       <c r="B53" s="12"/>
       <c r="C53" s="12"/>
@@ -2492,9 +2553,10 @@
       <c r="X53" s="13"/>
       <c r="Y53" s="11"/>
       <c r="Z53" s="12"/>
-      <c r="AA53" s="13"/>
-    </row>
-    <row r="54" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA53" s="12"/>
+      <c r="AB53" s="13"/>
+    </row>
+    <row r="54" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="12"/>
       <c r="C54" s="12"/>
@@ -2521,9 +2583,10 @@
       <c r="X54" s="13"/>
       <c r="Y54" s="11"/>
       <c r="Z54" s="12"/>
-      <c r="AA54" s="13"/>
-    </row>
-    <row r="55" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="13"/>
+    </row>
+    <row r="55" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="11"/>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -2550,9 +2613,10 @@
       <c r="X55" s="13"/>
       <c r="Y55" s="11"/>
       <c r="Z55" s="12"/>
-      <c r="AA55" s="13"/>
-    </row>
-    <row r="56" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="13"/>
+    </row>
+    <row r="56" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="11"/>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -2579,9 +2643,10 @@
       <c r="X56" s="13"/>
       <c r="Y56" s="11"/>
       <c r="Z56" s="12"/>
-      <c r="AA56" s="13"/>
-    </row>
-    <row r="57" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="13"/>
+    </row>
+    <row r="57" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="11"/>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -2608,9 +2673,10 @@
       <c r="X57" s="13"/>
       <c r="Y57" s="11"/>
       <c r="Z57" s="12"/>
-      <c r="AA57" s="13"/>
-    </row>
-    <row r="58" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="13"/>
+    </row>
+    <row r="58" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="12"/>
       <c r="C58" s="12"/>
@@ -2637,9 +2703,10 @@
       <c r="X58" s="13"/>
       <c r="Y58" s="11"/>
       <c r="Z58" s="12"/>
-      <c r="AA58" s="13"/>
-    </row>
-    <row r="59" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="13"/>
+    </row>
+    <row r="59" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="11"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -2666,9 +2733,10 @@
       <c r="X59" s="13"/>
       <c r="Y59" s="11"/>
       <c r="Z59" s="12"/>
-      <c r="AA59" s="13"/>
-    </row>
-    <row r="60" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="13"/>
+    </row>
+    <row r="60" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="11"/>
       <c r="B60" s="12"/>
       <c r="C60" s="12"/>
@@ -2695,9 +2763,10 @@
       <c r="X60" s="13"/>
       <c r="Y60" s="11"/>
       <c r="Z60" s="12"/>
-      <c r="AA60" s="13"/>
-    </row>
-    <row r="61" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="13"/>
+    </row>
+    <row r="61" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="11"/>
       <c r="B61" s="12"/>
       <c r="C61" s="12"/>
@@ -2724,9 +2793,10 @@
       <c r="X61" s="13"/>
       <c r="Y61" s="11"/>
       <c r="Z61" s="12"/>
-      <c r="AA61" s="13"/>
-    </row>
-    <row r="62" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="13"/>
+    </row>
+    <row r="62" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11"/>
       <c r="B62" s="12"/>
       <c r="C62" s="12"/>
@@ -2753,9 +2823,10 @@
       <c r="X62" s="13"/>
       <c r="Y62" s="11"/>
       <c r="Z62" s="12"/>
-      <c r="AA62" s="13"/>
-    </row>
-    <row r="63" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="13"/>
+    </row>
+    <row r="63" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11"/>
       <c r="B63" s="12"/>
       <c r="C63" s="12"/>
@@ -2782,9 +2853,10 @@
       <c r="X63" s="13"/>
       <c r="Y63" s="11"/>
       <c r="Z63" s="12"/>
-      <c r="AA63" s="13"/>
-    </row>
-    <row r="64" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="13"/>
+    </row>
+    <row r="64" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="11"/>
       <c r="B64" s="12"/>
       <c r="C64" s="12"/>
@@ -2811,9 +2883,10 @@
       <c r="X64" s="13"/>
       <c r="Y64" s="11"/>
       <c r="Z64" s="12"/>
-      <c r="AA64" s="13"/>
-    </row>
-    <row r="65" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="13"/>
+    </row>
+    <row r="65" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="11"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -2840,9 +2913,10 @@
       <c r="X65" s="13"/>
       <c r="Y65" s="11"/>
       <c r="Z65" s="12"/>
-      <c r="AA65" s="13"/>
-    </row>
-    <row r="66" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="13"/>
+    </row>
+    <row r="66" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="11"/>
       <c r="B66" s="12"/>
       <c r="C66" s="12"/>
@@ -2869,9 +2943,10 @@
       <c r="X66" s="13"/>
       <c r="Y66" s="11"/>
       <c r="Z66" s="12"/>
-      <c r="AA66" s="13"/>
-    </row>
-    <row r="67" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="13"/>
+    </row>
+    <row r="67" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="11"/>
       <c r="B67" s="12"/>
       <c r="C67" s="12"/>
@@ -2898,9 +2973,10 @@
       <c r="X67" s="13"/>
       <c r="Y67" s="11"/>
       <c r="Z67" s="12"/>
-      <c r="AA67" s="13"/>
-    </row>
-    <row r="68" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="13"/>
+    </row>
+    <row r="68" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="12"/>
       <c r="C68" s="12"/>
@@ -2927,9 +3003,10 @@
       <c r="X68" s="13"/>
       <c r="Y68" s="11"/>
       <c r="Z68" s="12"/>
-      <c r="AA68" s="13"/>
-    </row>
-    <row r="69" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="13"/>
+    </row>
+    <row r="69" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="11"/>
       <c r="B69" s="12"/>
       <c r="C69" s="12"/>
@@ -2956,9 +3033,10 @@
       <c r="X69" s="13"/>
       <c r="Y69" s="11"/>
       <c r="Z69" s="12"/>
-      <c r="AA69" s="13"/>
-    </row>
-    <row r="70" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="13"/>
+    </row>
+    <row r="70" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
@@ -2985,9 +3063,10 @@
       <c r="X70" s="13"/>
       <c r="Y70" s="11"/>
       <c r="Z70" s="12"/>
-      <c r="AA70" s="13"/>
-    </row>
-    <row r="71" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="13"/>
+    </row>
+    <row r="71" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="12"/>
       <c r="C71" s="12"/>
@@ -3014,9 +3093,10 @@
       <c r="X71" s="13"/>
       <c r="Y71" s="11"/>
       <c r="Z71" s="12"/>
-      <c r="AA71" s="13"/>
-    </row>
-    <row r="72" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="13"/>
+    </row>
+    <row r="72" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12"/>
@@ -3043,9 +3123,10 @@
       <c r="X72" s="13"/>
       <c r="Y72" s="11"/>
       <c r="Z72" s="12"/>
-      <c r="AA72" s="13"/>
-    </row>
-    <row r="73" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="13"/>
+    </row>
+    <row r="73" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="11"/>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
@@ -3072,9 +3153,10 @@
       <c r="X73" s="13"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="12"/>
-      <c r="AA73" s="13"/>
-    </row>
-    <row r="74" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="13"/>
+    </row>
+    <row r="74" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
@@ -3101,9 +3183,10 @@
       <c r="X74" s="13"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="12"/>
-      <c r="AA74" s="13"/>
-    </row>
-    <row r="75" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="13"/>
+    </row>
+    <row r="75" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -3130,9 +3213,10 @@
       <c r="X75" s="13"/>
       <c r="Y75" s="11"/>
       <c r="Z75" s="12"/>
-      <c r="AA75" s="13"/>
-    </row>
-    <row r="76" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="13"/>
+    </row>
+    <row r="76" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="12"/>
@@ -3159,9 +3243,10 @@
       <c r="X76" s="13"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="12"/>
-      <c r="AA76" s="13"/>
-    </row>
-    <row r="77" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="13"/>
+    </row>
+    <row r="77" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="12"/>
       <c r="C77" s="12"/>
@@ -3188,9 +3273,10 @@
       <c r="X77" s="13"/>
       <c r="Y77" s="11"/>
       <c r="Z77" s="12"/>
-      <c r="AA77" s="13"/>
-    </row>
-    <row r="78" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA77" s="12"/>
+      <c r="AB77" s="13"/>
+    </row>
+    <row r="78" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="B78" s="12"/>
       <c r="C78" s="12"/>
@@ -3217,9 +3303,10 @@
       <c r="X78" s="13"/>
       <c r="Y78" s="11"/>
       <c r="Z78" s="12"/>
-      <c r="AA78" s="13"/>
-    </row>
-    <row r="79" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="13"/>
+    </row>
+    <row r="79" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="12"/>
       <c r="C79" s="12"/>
@@ -3246,9 +3333,10 @@
       <c r="X79" s="13"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="12"/>
-      <c r="AA79" s="13"/>
-    </row>
-    <row r="80" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="13"/>
+    </row>
+    <row r="80" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="11"/>
       <c r="B80" s="12"/>
       <c r="C80" s="12"/>
@@ -3275,9 +3363,10 @@
       <c r="X80" s="13"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="12"/>
-      <c r="AA80" s="13"/>
-    </row>
-    <row r="81" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="13"/>
+    </row>
+    <row r="81" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="12"/>
       <c r="C81" s="12"/>
@@ -3304,9 +3393,10 @@
       <c r="X81" s="13"/>
       <c r="Y81" s="11"/>
       <c r="Z81" s="12"/>
-      <c r="AA81" s="13"/>
-    </row>
-    <row r="82" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="13"/>
+    </row>
+    <row r="82" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="12"/>
       <c r="C82" s="12"/>
@@ -3333,9 +3423,10 @@
       <c r="X82" s="13"/>
       <c r="Y82" s="11"/>
       <c r="Z82" s="12"/>
-      <c r="AA82" s="13"/>
-    </row>
-    <row r="83" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="13"/>
+    </row>
+    <row r="83" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="11"/>
       <c r="B83" s="12"/>
       <c r="C83" s="12"/>
@@ -3362,9 +3453,10 @@
       <c r="X83" s="13"/>
       <c r="Y83" s="11"/>
       <c r="Z83" s="12"/>
-      <c r="AA83" s="13"/>
-    </row>
-    <row r="84" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="13"/>
+    </row>
+    <row r="84" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="11"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12"/>
@@ -3391,9 +3483,10 @@
       <c r="X84" s="13"/>
       <c r="Y84" s="11"/>
       <c r="Z84" s="12"/>
-      <c r="AA84" s="13"/>
-    </row>
-    <row r="85" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="13"/>
+    </row>
+    <row r="85" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12"/>
@@ -3420,9 +3513,10 @@
       <c r="X85" s="13"/>
       <c r="Y85" s="11"/>
       <c r="Z85" s="12"/>
-      <c r="AA85" s="13"/>
-    </row>
-    <row r="86" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="13"/>
+    </row>
+    <row r="86" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12"/>
@@ -3449,9 +3543,10 @@
       <c r="X86" s="13"/>
       <c r="Y86" s="11"/>
       <c r="Z86" s="12"/>
-      <c r="AA86" s="13"/>
-    </row>
-    <row r="87" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="13"/>
+    </row>
+    <row r="87" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="12"/>
@@ -3478,9 +3573,10 @@
       <c r="X87" s="13"/>
       <c r="Y87" s="11"/>
       <c r="Z87" s="12"/>
-      <c r="AA87" s="13"/>
-    </row>
-    <row r="88" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="13"/>
+    </row>
+    <row r="88" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="12"/>
@@ -3507,9 +3603,10 @@
       <c r="X88" s="13"/>
       <c r="Y88" s="11"/>
       <c r="Z88" s="12"/>
-      <c r="AA88" s="13"/>
-    </row>
-    <row r="89" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="13"/>
+    </row>
+    <row r="89" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -3536,9 +3633,10 @@
       <c r="X89" s="13"/>
       <c r="Y89" s="11"/>
       <c r="Z89" s="12"/>
-      <c r="AA89" s="13"/>
-    </row>
-    <row r="90" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="13"/>
+    </row>
+    <row r="90" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="12"/>
@@ -3565,9 +3663,10 @@
       <c r="X90" s="13"/>
       <c r="Y90" s="11"/>
       <c r="Z90" s="12"/>
-      <c r="AA90" s="13"/>
-    </row>
-    <row r="91" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="13"/>
+    </row>
+    <row r="91" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="12"/>
@@ -3594,9 +3693,10 @@
       <c r="X91" s="13"/>
       <c r="Y91" s="11"/>
       <c r="Z91" s="12"/>
-      <c r="AA91" s="13"/>
-    </row>
-    <row r="92" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="13"/>
+    </row>
+    <row r="92" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
       <c r="C92" s="12"/>
@@ -3623,9 +3723,10 @@
       <c r="X92" s="13"/>
       <c r="Y92" s="11"/>
       <c r="Z92" s="12"/>
-      <c r="AA92" s="13"/>
-    </row>
-    <row r="93" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="13"/>
+    </row>
+    <row r="93" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
       <c r="C93" s="12"/>
@@ -3652,9 +3753,10 @@
       <c r="X93" s="13"/>
       <c r="Y93" s="11"/>
       <c r="Z93" s="12"/>
-      <c r="AA93" s="13"/>
-    </row>
-    <row r="94" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="13"/>
+    </row>
+    <row r="94" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="11"/>
       <c r="B94" s="12"/>
       <c r="C94" s="12"/>
@@ -3681,9 +3783,10 @@
       <c r="X94" s="13"/>
       <c r="Y94" s="11"/>
       <c r="Z94" s="12"/>
-      <c r="AA94" s="13"/>
-    </row>
-    <row r="95" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="13"/>
+    </row>
+    <row r="95" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="11"/>
       <c r="B95" s="12"/>
       <c r="C95" s="12"/>
@@ -3710,9 +3813,10 @@
       <c r="X95" s="13"/>
       <c r="Y95" s="11"/>
       <c r="Z95" s="12"/>
-      <c r="AA95" s="13"/>
-    </row>
-    <row r="96" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="13"/>
+    </row>
+    <row r="96" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="11"/>
       <c r="B96" s="12"/>
       <c r="C96" s="12"/>
@@ -3739,9 +3843,10 @@
       <c r="X96" s="13"/>
       <c r="Y96" s="11"/>
       <c r="Z96" s="12"/>
-      <c r="AA96" s="13"/>
-    </row>
-    <row r="97" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="13"/>
+    </row>
+    <row r="97" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="11"/>
       <c r="B97" s="12"/>
       <c r="C97" s="12"/>
@@ -3768,9 +3873,10 @@
       <c r="X97" s="13"/>
       <c r="Y97" s="11"/>
       <c r="Z97" s="12"/>
-      <c r="AA97" s="13"/>
-    </row>
-    <row r="98" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="13"/>
+    </row>
+    <row r="98" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="11"/>
       <c r="B98" s="12"/>
       <c r="C98" s="12"/>
@@ -3797,9 +3903,10 @@
       <c r="X98" s="13"/>
       <c r="Y98" s="11"/>
       <c r="Z98" s="12"/>
-      <c r="AA98" s="13"/>
-    </row>
-    <row r="99" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="13"/>
+    </row>
+    <row r="99" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="11"/>
       <c r="B99" s="12"/>
       <c r="C99" s="12"/>
@@ -3826,9 +3933,10 @@
       <c r="X99" s="13"/>
       <c r="Y99" s="11"/>
       <c r="Z99" s="12"/>
-      <c r="AA99" s="13"/>
-    </row>
-    <row r="100" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="13"/>
+    </row>
+    <row r="100" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="11"/>
       <c r="B100" s="12"/>
       <c r="C100" s="12"/>
@@ -3855,9 +3963,10 @@
       <c r="X100" s="13"/>
       <c r="Y100" s="11"/>
       <c r="Z100" s="12"/>
-      <c r="AA100" s="13"/>
-    </row>
-    <row r="101" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="13"/>
+    </row>
+    <row r="101" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="11"/>
       <c r="B101" s="12"/>
       <c r="C101" s="12"/>
@@ -3884,9 +3993,10 @@
       <c r="X101" s="13"/>
       <c r="Y101" s="11"/>
       <c r="Z101" s="12"/>
-      <c r="AA101" s="13"/>
-    </row>
-    <row r="102" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="13"/>
+    </row>
+    <row r="102" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="11"/>
       <c r="B102" s="12"/>
       <c r="C102" s="12"/>
@@ -3913,9 +4023,10 @@
       <c r="X102" s="13"/>
       <c r="Y102" s="11"/>
       <c r="Z102" s="12"/>
-      <c r="AA102" s="13"/>
-    </row>
-    <row r="103" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="13"/>
+    </row>
+    <row r="103" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="11"/>
       <c r="B103" s="12"/>
       <c r="C103" s="12"/>
@@ -3942,9 +4053,10 @@
       <c r="X103" s="13"/>
       <c r="Y103" s="11"/>
       <c r="Z103" s="12"/>
-      <c r="AA103" s="13"/>
-    </row>
-    <row r="104" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="13"/>
+    </row>
+    <row r="104" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="11"/>
       <c r="B104" s="12"/>
       <c r="C104" s="12"/>
@@ -3971,9 +4083,10 @@
       <c r="X104" s="13"/>
       <c r="Y104" s="11"/>
       <c r="Z104" s="12"/>
-      <c r="AA104" s="13"/>
-    </row>
-    <row r="105" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="13"/>
+    </row>
+    <row r="105" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="11"/>
       <c r="B105" s="12"/>
       <c r="C105" s="12"/>
@@ -4000,9 +4113,10 @@
       <c r="X105" s="13"/>
       <c r="Y105" s="11"/>
       <c r="Z105" s="12"/>
-      <c r="AA105" s="13"/>
-    </row>
-    <row r="106" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="13"/>
+    </row>
+    <row r="106" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="11"/>
       <c r="B106" s="12"/>
       <c r="C106" s="12"/>
@@ -4029,9 +4143,10 @@
       <c r="X106" s="13"/>
       <c r="Y106" s="11"/>
       <c r="Z106" s="12"/>
-      <c r="AA106" s="13"/>
-    </row>
-    <row r="107" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="13"/>
+    </row>
+    <row r="107" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="11"/>
       <c r="B107" s="12"/>
       <c r="C107" s="12"/>
@@ -4058,9 +4173,10 @@
       <c r="X107" s="13"/>
       <c r="Y107" s="11"/>
       <c r="Z107" s="12"/>
-      <c r="AA107" s="13"/>
-    </row>
-    <row r="108" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="13"/>
+    </row>
+    <row r="108" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="11"/>
       <c r="B108" s="12"/>
       <c r="C108" s="12"/>
@@ -4087,9 +4203,10 @@
       <c r="X108" s="13"/>
       <c r="Y108" s="11"/>
       <c r="Z108" s="12"/>
-      <c r="AA108" s="13"/>
-    </row>
-    <row r="109" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="13"/>
+    </row>
+    <row r="109" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="11"/>
       <c r="B109" s="12"/>
       <c r="C109" s="12"/>
@@ -4116,9 +4233,10 @@
       <c r="X109" s="13"/>
       <c r="Y109" s="11"/>
       <c r="Z109" s="12"/>
-      <c r="AA109" s="13"/>
-    </row>
-    <row r="110" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="13"/>
+    </row>
+    <row r="110" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
       <c r="B110" s="12"/>
       <c r="C110" s="12"/>
@@ -4145,9 +4263,10 @@
       <c r="X110" s="13"/>
       <c r="Y110" s="11"/>
       <c r="Z110" s="12"/>
-      <c r="AA110" s="13"/>
-    </row>
-    <row r="111" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="13"/>
+    </row>
+    <row r="111" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="11"/>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
@@ -4174,9 +4293,10 @@
       <c r="X111" s="13"/>
       <c r="Y111" s="11"/>
       <c r="Z111" s="12"/>
-      <c r="AA111" s="13"/>
-    </row>
-    <row r="112" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="13"/>
+    </row>
+    <row r="112" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="11"/>
       <c r="B112" s="12"/>
       <c r="C112" s="12"/>
@@ -4203,9 +4323,10 @@
       <c r="X112" s="13"/>
       <c r="Y112" s="11"/>
       <c r="Z112" s="12"/>
-      <c r="AA112" s="13"/>
-    </row>
-    <row r="113" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="13"/>
+    </row>
+    <row r="113" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
       <c r="B113" s="12"/>
       <c r="C113" s="12"/>
@@ -4232,9 +4353,10 @@
       <c r="X113" s="13"/>
       <c r="Y113" s="11"/>
       <c r="Z113" s="12"/>
-      <c r="AA113" s="13"/>
-    </row>
-    <row r="114" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="13"/>
+    </row>
+    <row r="114" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
       <c r="B114" s="12"/>
       <c r="C114" s="12"/>
@@ -4261,9 +4383,10 @@
       <c r="X114" s="13"/>
       <c r="Y114" s="11"/>
       <c r="Z114" s="12"/>
-      <c r="AA114" s="13"/>
-    </row>
-    <row r="115" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="13"/>
+    </row>
+    <row r="115" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="11"/>
       <c r="B115" s="12"/>
       <c r="C115" s="12"/>
@@ -4290,9 +4413,10 @@
       <c r="X115" s="13"/>
       <c r="Y115" s="11"/>
       <c r="Z115" s="12"/>
-      <c r="AA115" s="13"/>
-    </row>
-    <row r="116" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="13"/>
+    </row>
+    <row r="116" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="11"/>
       <c r="B116" s="12"/>
       <c r="C116" s="12"/>
@@ -4319,9 +4443,10 @@
       <c r="X116" s="13"/>
       <c r="Y116" s="11"/>
       <c r="Z116" s="12"/>
-      <c r="AA116" s="13"/>
-    </row>
-    <row r="117" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="13"/>
+    </row>
+    <row r="117" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="11"/>
       <c r="B117" s="12"/>
       <c r="C117" s="12"/>
@@ -4348,9 +4473,10 @@
       <c r="X117" s="13"/>
       <c r="Y117" s="11"/>
       <c r="Z117" s="12"/>
-      <c r="AA117" s="13"/>
-    </row>
-    <row r="118" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA117" s="12"/>
+      <c r="AB117" s="13"/>
+    </row>
+    <row r="118" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="11"/>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
@@ -4377,9 +4503,10 @@
       <c r="X118" s="13"/>
       <c r="Y118" s="11"/>
       <c r="Z118" s="12"/>
-      <c r="AA118" s="13"/>
-    </row>
-    <row r="119" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="13"/>
+    </row>
+    <row r="119" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="11"/>
       <c r="B119" s="12"/>
       <c r="C119" s="12"/>
@@ -4406,9 +4533,10 @@
       <c r="X119" s="13"/>
       <c r="Y119" s="11"/>
       <c r="Z119" s="12"/>
-      <c r="AA119" s="13"/>
-    </row>
-    <row r="120" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA119" s="12"/>
+      <c r="AB119" s="13"/>
+    </row>
+    <row r="120" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="11"/>
       <c r="B120" s="12"/>
       <c r="C120" s="12"/>
@@ -4435,9 +4563,10 @@
       <c r="X120" s="13"/>
       <c r="Y120" s="11"/>
       <c r="Z120" s="12"/>
-      <c r="AA120" s="13"/>
-    </row>
-    <row r="121" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="13"/>
+    </row>
+    <row r="121" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="11"/>
       <c r="B121" s="12"/>
       <c r="C121" s="12"/>
@@ -4464,9 +4593,10 @@
       <c r="X121" s="13"/>
       <c r="Y121" s="11"/>
       <c r="Z121" s="12"/>
-      <c r="AA121" s="13"/>
-    </row>
-    <row r="122" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA121" s="12"/>
+      <c r="AB121" s="13"/>
+    </row>
+    <row r="122" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="11"/>
       <c r="B122" s="12"/>
       <c r="C122" s="12"/>
@@ -4493,9 +4623,10 @@
       <c r="X122" s="13"/>
       <c r="Y122" s="11"/>
       <c r="Z122" s="12"/>
-      <c r="AA122" s="13"/>
-    </row>
-    <row r="123" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA122" s="12"/>
+      <c r="AB122" s="13"/>
+    </row>
+    <row r="123" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="11"/>
       <c r="B123" s="12"/>
       <c r="C123" s="12"/>
@@ -4522,9 +4653,10 @@
       <c r="X123" s="13"/>
       <c r="Y123" s="11"/>
       <c r="Z123" s="12"/>
-      <c r="AA123" s="13"/>
-    </row>
-    <row r="124" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA123" s="12"/>
+      <c r="AB123" s="13"/>
+    </row>
+    <row r="124" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="11"/>
       <c r="B124" s="12"/>
       <c r="C124" s="12"/>
@@ -4551,9 +4683,10 @@
       <c r="X124" s="13"/>
       <c r="Y124" s="11"/>
       <c r="Z124" s="12"/>
-      <c r="AA124" s="13"/>
-    </row>
-    <row r="125" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="13"/>
+    </row>
+    <row r="125" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="11"/>
       <c r="B125" s="12"/>
       <c r="C125" s="12"/>
@@ -4580,9 +4713,10 @@
       <c r="X125" s="13"/>
       <c r="Y125" s="11"/>
       <c r="Z125" s="12"/>
-      <c r="AA125" s="13"/>
-    </row>
-    <row r="126" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA125" s="12"/>
+      <c r="AB125" s="13"/>
+    </row>
+    <row r="126" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="11"/>
       <c r="B126" s="12"/>
       <c r="C126" s="12"/>
@@ -4609,9 +4743,10 @@
       <c r="X126" s="13"/>
       <c r="Y126" s="11"/>
       <c r="Z126" s="12"/>
-      <c r="AA126" s="13"/>
-    </row>
-    <row r="127" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA126" s="12"/>
+      <c r="AB126" s="13"/>
+    </row>
+    <row r="127" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="11"/>
       <c r="B127" s="12"/>
       <c r="C127" s="12"/>
@@ -4638,9 +4773,10 @@
       <c r="X127" s="13"/>
       <c r="Y127" s="11"/>
       <c r="Z127" s="12"/>
-      <c r="AA127" s="13"/>
-    </row>
-    <row r="128" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA127" s="12"/>
+      <c r="AB127" s="13"/>
+    </row>
+    <row r="128" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="11"/>
       <c r="B128" s="12"/>
       <c r="C128" s="12"/>
@@ -4667,9 +4803,10 @@
       <c r="X128" s="13"/>
       <c r="Y128" s="11"/>
       <c r="Z128" s="12"/>
-      <c r="AA128" s="13"/>
-    </row>
-    <row r="129" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA128" s="12"/>
+      <c r="AB128" s="13"/>
+    </row>
+    <row r="129" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="11"/>
       <c r="B129" s="12"/>
       <c r="C129" s="12"/>
@@ -4696,9 +4833,10 @@
       <c r="X129" s="13"/>
       <c r="Y129" s="11"/>
       <c r="Z129" s="12"/>
-      <c r="AA129" s="13"/>
-    </row>
-    <row r="130" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA129" s="12"/>
+      <c r="AB129" s="13"/>
+    </row>
+    <row r="130" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="11"/>
       <c r="B130" s="12"/>
       <c r="C130" s="12"/>
@@ -4725,9 +4863,10 @@
       <c r="X130" s="13"/>
       <c r="Y130" s="11"/>
       <c r="Z130" s="12"/>
-      <c r="AA130" s="13"/>
-    </row>
-    <row r="131" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA130" s="12"/>
+      <c r="AB130" s="13"/>
+    </row>
+    <row r="131" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="11"/>
       <c r="B131" s="12"/>
       <c r="C131" s="12"/>
@@ -4754,9 +4893,10 @@
       <c r="X131" s="13"/>
       <c r="Y131" s="11"/>
       <c r="Z131" s="12"/>
-      <c r="AA131" s="13"/>
-    </row>
-    <row r="132" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA131" s="12"/>
+      <c r="AB131" s="13"/>
+    </row>
+    <row r="132" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="11"/>
       <c r="B132" s="12"/>
       <c r="C132" s="12"/>
@@ -4783,9 +4923,10 @@
       <c r="X132" s="13"/>
       <c r="Y132" s="11"/>
       <c r="Z132" s="12"/>
-      <c r="AA132" s="13"/>
-    </row>
-    <row r="133" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA132" s="12"/>
+      <c r="AB132" s="13"/>
+    </row>
+    <row r="133" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="11"/>
       <c r="B133" s="12"/>
       <c r="C133" s="12"/>
@@ -4812,9 +4953,10 @@
       <c r="X133" s="13"/>
       <c r="Y133" s="11"/>
       <c r="Z133" s="12"/>
-      <c r="AA133" s="13"/>
-    </row>
-    <row r="134" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA133" s="12"/>
+      <c r="AB133" s="13"/>
+    </row>
+    <row r="134" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="11"/>
       <c r="B134" s="12"/>
       <c r="C134" s="12"/>
@@ -4841,9 +4983,10 @@
       <c r="X134" s="13"/>
       <c r="Y134" s="11"/>
       <c r="Z134" s="12"/>
-      <c r="AA134" s="13"/>
-    </row>
-    <row r="135" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA134" s="12"/>
+      <c r="AB134" s="13"/>
+    </row>
+    <row r="135" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="11"/>
       <c r="B135" s="12"/>
       <c r="C135" s="12"/>
@@ -4870,9 +5013,10 @@
       <c r="X135" s="13"/>
       <c r="Y135" s="11"/>
       <c r="Z135" s="12"/>
-      <c r="AA135" s="13"/>
-    </row>
-    <row r="136" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA135" s="12"/>
+      <c r="AB135" s="13"/>
+    </row>
+    <row r="136" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="11"/>
       <c r="B136" s="12"/>
       <c r="C136" s="12"/>
@@ -4899,9 +5043,10 @@
       <c r="X136" s="13"/>
       <c r="Y136" s="11"/>
       <c r="Z136" s="12"/>
-      <c r="AA136" s="13"/>
-    </row>
-    <row r="137" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA136" s="12"/>
+      <c r="AB136" s="13"/>
+    </row>
+    <row r="137" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A137" s="11"/>
       <c r="B137" s="12"/>
       <c r="C137" s="12"/>
@@ -4928,9 +5073,10 @@
       <c r="X137" s="13"/>
       <c r="Y137" s="11"/>
       <c r="Z137" s="12"/>
-      <c r="AA137" s="13"/>
-    </row>
-    <row r="138" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA137" s="12"/>
+      <c r="AB137" s="13"/>
+    </row>
+    <row r="138" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A138" s="11"/>
       <c r="B138" s="12"/>
       <c r="C138" s="12"/>
@@ -4957,9 +5103,10 @@
       <c r="X138" s="13"/>
       <c r="Y138" s="11"/>
       <c r="Z138" s="12"/>
-      <c r="AA138" s="13"/>
-    </row>
-    <row r="139" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA138" s="12"/>
+      <c r="AB138" s="13"/>
+    </row>
+    <row r="139" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A139" s="11"/>
       <c r="B139" s="12"/>
       <c r="C139" s="12"/>
@@ -4986,9 +5133,10 @@
       <c r="X139" s="13"/>
       <c r="Y139" s="11"/>
       <c r="Z139" s="12"/>
-      <c r="AA139" s="13"/>
-    </row>
-    <row r="140" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA139" s="12"/>
+      <c r="AB139" s="13"/>
+    </row>
+    <row r="140" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
       <c r="B140" s="12"/>
       <c r="C140" s="12"/>
@@ -5015,9 +5163,10 @@
       <c r="X140" s="13"/>
       <c r="Y140" s="11"/>
       <c r="Z140" s="12"/>
-      <c r="AA140" s="13"/>
-    </row>
-    <row r="141" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA140" s="12"/>
+      <c r="AB140" s="13"/>
+    </row>
+    <row r="141" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
       <c r="B141" s="12"/>
       <c r="C141" s="12"/>
@@ -5044,9 +5193,10 @@
       <c r="X141" s="13"/>
       <c r="Y141" s="11"/>
       <c r="Z141" s="12"/>
-      <c r="AA141" s="13"/>
-    </row>
-    <row r="142" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA141" s="12"/>
+      <c r="AB141" s="13"/>
+    </row>
+    <row r="142" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="11"/>
       <c r="B142" s="12"/>
       <c r="C142" s="12"/>
@@ -5073,9 +5223,10 @@
       <c r="X142" s="13"/>
       <c r="Y142" s="11"/>
       <c r="Z142" s="12"/>
-      <c r="AA142" s="13"/>
-    </row>
-    <row r="143" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA142" s="12"/>
+      <c r="AB142" s="13"/>
+    </row>
+    <row r="143" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A143" s="11"/>
       <c r="B143" s="12"/>
       <c r="C143" s="12"/>
@@ -5102,9 +5253,10 @@
       <c r="X143" s="13"/>
       <c r="Y143" s="11"/>
       <c r="Z143" s="12"/>
-      <c r="AA143" s="13"/>
-    </row>
-    <row r="144" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA143" s="12"/>
+      <c r="AB143" s="13"/>
+    </row>
+    <row r="144" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="11"/>
       <c r="B144" s="12"/>
       <c r="C144" s="12"/>
@@ -5131,9 +5283,10 @@
       <c r="X144" s="13"/>
       <c r="Y144" s="11"/>
       <c r="Z144" s="12"/>
-      <c r="AA144" s="13"/>
-    </row>
-    <row r="145" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA144" s="12"/>
+      <c r="AB144" s="13"/>
+    </row>
+    <row r="145" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A145" s="11"/>
       <c r="B145" s="12"/>
       <c r="C145" s="12"/>
@@ -5160,9 +5313,10 @@
       <c r="X145" s="13"/>
       <c r="Y145" s="11"/>
       <c r="Z145" s="12"/>
-      <c r="AA145" s="13"/>
-    </row>
-    <row r="146" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA145" s="12"/>
+      <c r="AB145" s="13"/>
+    </row>
+    <row r="146" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="11"/>
       <c r="B146" s="12"/>
       <c r="C146" s="12"/>
@@ -5189,9 +5343,10 @@
       <c r="X146" s="13"/>
       <c r="Y146" s="11"/>
       <c r="Z146" s="12"/>
-      <c r="AA146" s="13"/>
-    </row>
-    <row r="147" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA146" s="12"/>
+      <c r="AB146" s="13"/>
+    </row>
+    <row r="147" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="11"/>
       <c r="B147" s="12"/>
       <c r="C147" s="12"/>
@@ -5218,9 +5373,10 @@
       <c r="X147" s="13"/>
       <c r="Y147" s="11"/>
       <c r="Z147" s="12"/>
-      <c r="AA147" s="13"/>
-    </row>
-    <row r="148" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA147" s="12"/>
+      <c r="AB147" s="13"/>
+    </row>
+    <row r="148" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A148" s="11"/>
       <c r="B148" s="12"/>
       <c r="C148" s="12"/>
@@ -5247,9 +5403,10 @@
       <c r="X148" s="13"/>
       <c r="Y148" s="11"/>
       <c r="Z148" s="12"/>
-      <c r="AA148" s="13"/>
-    </row>
-    <row r="149" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA148" s="12"/>
+      <c r="AB148" s="13"/>
+    </row>
+    <row r="149" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="11"/>
       <c r="B149" s="12"/>
       <c r="C149" s="12"/>
@@ -5276,9 +5433,10 @@
       <c r="X149" s="13"/>
       <c r="Y149" s="11"/>
       <c r="Z149" s="12"/>
-      <c r="AA149" s="13"/>
-    </row>
-    <row r="150" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA149" s="12"/>
+      <c r="AB149" s="13"/>
+    </row>
+    <row r="150" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A150" s="11"/>
       <c r="B150" s="12"/>
       <c r="C150" s="12"/>
@@ -5305,9 +5463,10 @@
       <c r="X150" s="13"/>
       <c r="Y150" s="11"/>
       <c r="Z150" s="12"/>
-      <c r="AA150" s="13"/>
-    </row>
-    <row r="151" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA150" s="12"/>
+      <c r="AB150" s="13"/>
+    </row>
+    <row r="151" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A151" s="11"/>
       <c r="B151" s="12"/>
       <c r="C151" s="12"/>
@@ -5334,9 +5493,10 @@
       <c r="X151" s="13"/>
       <c r="Y151" s="11"/>
       <c r="Z151" s="12"/>
-      <c r="AA151" s="13"/>
-    </row>
-    <row r="152" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA151" s="12"/>
+      <c r="AB151" s="13"/>
+    </row>
+    <row r="152" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A152" s="11"/>
       <c r="B152" s="12"/>
       <c r="C152" s="12"/>
@@ -5363,9 +5523,10 @@
       <c r="X152" s="13"/>
       <c r="Y152" s="11"/>
       <c r="Z152" s="12"/>
-      <c r="AA152" s="13"/>
-    </row>
-    <row r="153" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA152" s="12"/>
+      <c r="AB152" s="13"/>
+    </row>
+    <row r="153" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A153" s="11"/>
       <c r="B153" s="12"/>
       <c r="C153" s="12"/>
@@ -5392,9 +5553,10 @@
       <c r="X153" s="13"/>
       <c r="Y153" s="11"/>
       <c r="Z153" s="12"/>
-      <c r="AA153" s="13"/>
-    </row>
-    <row r="154" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA153" s="12"/>
+      <c r="AB153" s="13"/>
+    </row>
+    <row r="154" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="11"/>
       <c r="B154" s="12"/>
       <c r="C154" s="12"/>
@@ -5421,9 +5583,10 @@
       <c r="X154" s="13"/>
       <c r="Y154" s="11"/>
       <c r="Z154" s="12"/>
-      <c r="AA154" s="13"/>
-    </row>
-    <row r="155" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA154" s="12"/>
+      <c r="AB154" s="13"/>
+    </row>
+    <row r="155" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="11"/>
       <c r="B155" s="12"/>
       <c r="C155" s="12"/>
@@ -5450,9 +5613,10 @@
       <c r="X155" s="13"/>
       <c r="Y155" s="11"/>
       <c r="Z155" s="12"/>
-      <c r="AA155" s="13"/>
-    </row>
-    <row r="156" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA155" s="12"/>
+      <c r="AB155" s="13"/>
+    </row>
+    <row r="156" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="11"/>
       <c r="B156" s="12"/>
       <c r="C156" s="12"/>
@@ -5479,9 +5643,10 @@
       <c r="X156" s="13"/>
       <c r="Y156" s="11"/>
       <c r="Z156" s="12"/>
-      <c r="AA156" s="13"/>
-    </row>
-    <row r="157" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA156" s="12"/>
+      <c r="AB156" s="13"/>
+    </row>
+    <row r="157" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="11"/>
       <c r="B157" s="12"/>
       <c r="C157" s="12"/>
@@ -5508,9 +5673,10 @@
       <c r="X157" s="13"/>
       <c r="Y157" s="11"/>
       <c r="Z157" s="12"/>
-      <c r="AA157" s="13"/>
-    </row>
-    <row r="158" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA157" s="12"/>
+      <c r="AB157" s="13"/>
+    </row>
+    <row r="158" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="11"/>
       <c r="B158" s="12"/>
       <c r="C158" s="12"/>
@@ -5537,9 +5703,10 @@
       <c r="X158" s="13"/>
       <c r="Y158" s="11"/>
       <c r="Z158" s="12"/>
-      <c r="AA158" s="13"/>
-    </row>
-    <row r="159" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA158" s="12"/>
+      <c r="AB158" s="13"/>
+    </row>
+    <row r="159" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="11"/>
       <c r="B159" s="12"/>
       <c r="C159" s="12"/>
@@ -5566,9 +5733,10 @@
       <c r="X159" s="13"/>
       <c r="Y159" s="11"/>
       <c r="Z159" s="12"/>
-      <c r="AA159" s="13"/>
-    </row>
-    <row r="160" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA159" s="12"/>
+      <c r="AB159" s="13"/>
+    </row>
+    <row r="160" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="11"/>
       <c r="B160" s="12"/>
       <c r="C160" s="12"/>
@@ -5595,9 +5763,10 @@
       <c r="X160" s="13"/>
       <c r="Y160" s="11"/>
       <c r="Z160" s="12"/>
-      <c r="AA160" s="13"/>
-    </row>
-    <row r="161" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA160" s="12"/>
+      <c r="AB160" s="13"/>
+    </row>
+    <row r="161" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="11"/>
       <c r="B161" s="12"/>
       <c r="C161" s="12"/>
@@ -5624,9 +5793,10 @@
       <c r="X161" s="13"/>
       <c r="Y161" s="11"/>
       <c r="Z161" s="12"/>
-      <c r="AA161" s="13"/>
-    </row>
-    <row r="162" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA161" s="12"/>
+      <c r="AB161" s="13"/>
+    </row>
+    <row r="162" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="11"/>
       <c r="B162" s="12"/>
       <c r="C162" s="12"/>
@@ -5653,9 +5823,10 @@
       <c r="X162" s="13"/>
       <c r="Y162" s="11"/>
       <c r="Z162" s="12"/>
-      <c r="AA162" s="13"/>
-    </row>
-    <row r="163" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA162" s="12"/>
+      <c r="AB162" s="13"/>
+    </row>
+    <row r="163" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="11"/>
       <c r="B163" s="12"/>
       <c r="C163" s="12"/>
@@ -5682,9 +5853,10 @@
       <c r="X163" s="13"/>
       <c r="Y163" s="11"/>
       <c r="Z163" s="12"/>
-      <c r="AA163" s="13"/>
-    </row>
-    <row r="164" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA163" s="12"/>
+      <c r="AB163" s="13"/>
+    </row>
+    <row r="164" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="11"/>
       <c r="B164" s="12"/>
       <c r="C164" s="12"/>
@@ -5711,9 +5883,10 @@
       <c r="X164" s="13"/>
       <c r="Y164" s="11"/>
       <c r="Z164" s="12"/>
-      <c r="AA164" s="13"/>
-    </row>
-    <row r="165" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA164" s="12"/>
+      <c r="AB164" s="13"/>
+    </row>
+    <row r="165" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="11"/>
       <c r="B165" s="12"/>
       <c r="C165" s="12"/>
@@ -5740,9 +5913,10 @@
       <c r="X165" s="13"/>
       <c r="Y165" s="11"/>
       <c r="Z165" s="12"/>
-      <c r="AA165" s="13"/>
-    </row>
-    <row r="166" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA165" s="12"/>
+      <c r="AB165" s="13"/>
+    </row>
+    <row r="166" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="11"/>
       <c r="B166" s="12"/>
       <c r="C166" s="12"/>
@@ -5769,9 +5943,10 @@
       <c r="X166" s="13"/>
       <c r="Y166" s="11"/>
       <c r="Z166" s="12"/>
-      <c r="AA166" s="13"/>
-    </row>
-    <row r="167" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA166" s="12"/>
+      <c r="AB166" s="13"/>
+    </row>
+    <row r="167" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="11"/>
       <c r="B167" s="12"/>
       <c r="C167" s="12"/>
@@ -5798,9 +5973,10 @@
       <c r="X167" s="13"/>
       <c r="Y167" s="11"/>
       <c r="Z167" s="12"/>
-      <c r="AA167" s="13"/>
-    </row>
-    <row r="168" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA167" s="12"/>
+      <c r="AB167" s="13"/>
+    </row>
+    <row r="168" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="11"/>
       <c r="B168" s="12"/>
       <c r="C168" s="12"/>
@@ -5827,9 +6003,10 @@
       <c r="X168" s="13"/>
       <c r="Y168" s="11"/>
       <c r="Z168" s="12"/>
-      <c r="AA168" s="13"/>
-    </row>
-    <row r="169" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA168" s="12"/>
+      <c r="AB168" s="13"/>
+    </row>
+    <row r="169" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="11"/>
       <c r="B169" s="12"/>
       <c r="C169" s="12"/>
@@ -5856,9 +6033,10 @@
       <c r="X169" s="13"/>
       <c r="Y169" s="11"/>
       <c r="Z169" s="12"/>
-      <c r="AA169" s="13"/>
-    </row>
-    <row r="170" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA169" s="12"/>
+      <c r="AB169" s="13"/>
+    </row>
+    <row r="170" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="11"/>
       <c r="B170" s="12"/>
       <c r="C170" s="12"/>
@@ -5885,9 +6063,10 @@
       <c r="X170" s="13"/>
       <c r="Y170" s="11"/>
       <c r="Z170" s="12"/>
-      <c r="AA170" s="13"/>
-    </row>
-    <row r="171" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA170" s="12"/>
+      <c r="AB170" s="13"/>
+    </row>
+    <row r="171" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="11"/>
       <c r="B171" s="12"/>
       <c r="C171" s="12"/>
@@ -5914,9 +6093,10 @@
       <c r="X171" s="13"/>
       <c r="Y171" s="11"/>
       <c r="Z171" s="12"/>
-      <c r="AA171" s="13"/>
-    </row>
-    <row r="172" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA171" s="12"/>
+      <c r="AB171" s="13"/>
+    </row>
+    <row r="172" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="11"/>
       <c r="B172" s="12"/>
       <c r="C172" s="12"/>
@@ -5943,9 +6123,10 @@
       <c r="X172" s="13"/>
       <c r="Y172" s="11"/>
       <c r="Z172" s="12"/>
-      <c r="AA172" s="13"/>
-    </row>
-    <row r="173" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA172" s="12"/>
+      <c r="AB172" s="13"/>
+    </row>
+    <row r="173" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="11"/>
       <c r="B173" s="12"/>
       <c r="C173" s="12"/>
@@ -5972,9 +6153,10 @@
       <c r="X173" s="13"/>
       <c r="Y173" s="11"/>
       <c r="Z173" s="12"/>
-      <c r="AA173" s="13"/>
-    </row>
-    <row r="174" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA173" s="12"/>
+      <c r="AB173" s="13"/>
+    </row>
+    <row r="174" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="11"/>
       <c r="B174" s="12"/>
       <c r="C174" s="12"/>
@@ -6001,9 +6183,10 @@
       <c r="X174" s="13"/>
       <c r="Y174" s="11"/>
       <c r="Z174" s="12"/>
-      <c r="AA174" s="13"/>
-    </row>
-    <row r="175" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA174" s="12"/>
+      <c r="AB174" s="13"/>
+    </row>
+    <row r="175" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="11"/>
       <c r="B175" s="12"/>
       <c r="C175" s="12"/>
@@ -6030,9 +6213,10 @@
       <c r="X175" s="13"/>
       <c r="Y175" s="11"/>
       <c r="Z175" s="12"/>
-      <c r="AA175" s="13"/>
-    </row>
-    <row r="176" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA175" s="12"/>
+      <c r="AB175" s="13"/>
+    </row>
+    <row r="176" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="11"/>
       <c r="B176" s="12"/>
       <c r="C176" s="12"/>
@@ -6059,9 +6243,10 @@
       <c r="X176" s="13"/>
       <c r="Y176" s="11"/>
       <c r="Z176" s="12"/>
-      <c r="AA176" s="13"/>
-    </row>
-    <row r="177" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA176" s="12"/>
+      <c r="AB176" s="13"/>
+    </row>
+    <row r="177" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="11"/>
       <c r="B177" s="12"/>
       <c r="C177" s="12"/>
@@ -6088,9 +6273,10 @@
       <c r="X177" s="13"/>
       <c r="Y177" s="11"/>
       <c r="Z177" s="12"/>
-      <c r="AA177" s="13"/>
-    </row>
-    <row r="178" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA177" s="12"/>
+      <c r="AB177" s="13"/>
+    </row>
+    <row r="178" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="12"/>
       <c r="C178" s="12"/>
@@ -6117,9 +6303,10 @@
       <c r="X178" s="13"/>
       <c r="Y178" s="11"/>
       <c r="Z178" s="12"/>
-      <c r="AA178" s="13"/>
-    </row>
-    <row r="179" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA178" s="12"/>
+      <c r="AB178" s="13"/>
+    </row>
+    <row r="179" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="11"/>
       <c r="B179" s="12"/>
       <c r="C179" s="12"/>
@@ -6146,9 +6333,10 @@
       <c r="X179" s="13"/>
       <c r="Y179" s="11"/>
       <c r="Z179" s="12"/>
-      <c r="AA179" s="13"/>
-    </row>
-    <row r="180" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA179" s="12"/>
+      <c r="AB179" s="13"/>
+    </row>
+    <row r="180" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="11"/>
       <c r="B180" s="12"/>
       <c r="C180" s="12"/>
@@ -6175,9 +6363,10 @@
       <c r="X180" s="13"/>
       <c r="Y180" s="11"/>
       <c r="Z180" s="12"/>
-      <c r="AA180" s="13"/>
-    </row>
-    <row r="181" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA180" s="12"/>
+      <c r="AB180" s="13"/>
+    </row>
+    <row r="181" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="12"/>
       <c r="C181" s="12"/>
@@ -6204,9 +6393,10 @@
       <c r="X181" s="13"/>
       <c r="Y181" s="11"/>
       <c r="Z181" s="12"/>
-      <c r="AA181" s="13"/>
-    </row>
-    <row r="182" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA181" s="12"/>
+      <c r="AB181" s="13"/>
+    </row>
+    <row r="182" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="11"/>
       <c r="B182" s="12"/>
       <c r="C182" s="12"/>
@@ -6233,9 +6423,10 @@
       <c r="X182" s="13"/>
       <c r="Y182" s="11"/>
       <c r="Z182" s="12"/>
-      <c r="AA182" s="13"/>
-    </row>
-    <row r="183" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA182" s="12"/>
+      <c r="AB182" s="13"/>
+    </row>
+    <row r="183" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="11"/>
       <c r="B183" s="12"/>
       <c r="C183" s="12"/>
@@ -6262,9 +6453,10 @@
       <c r="X183" s="13"/>
       <c r="Y183" s="11"/>
       <c r="Z183" s="12"/>
-      <c r="AA183" s="13"/>
-    </row>
-    <row r="184" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA183" s="12"/>
+      <c r="AB183" s="13"/>
+    </row>
+    <row r="184" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="11"/>
       <c r="B184" s="12"/>
       <c r="C184" s="12"/>
@@ -6291,9 +6483,10 @@
       <c r="X184" s="13"/>
       <c r="Y184" s="11"/>
       <c r="Z184" s="12"/>
-      <c r="AA184" s="13"/>
-    </row>
-    <row r="185" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA184" s="12"/>
+      <c r="AB184" s="13"/>
+    </row>
+    <row r="185" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="11"/>
       <c r="B185" s="12"/>
       <c r="C185" s="12"/>
@@ -6320,9 +6513,10 @@
       <c r="X185" s="13"/>
       <c r="Y185" s="11"/>
       <c r="Z185" s="12"/>
-      <c r="AA185" s="13"/>
-    </row>
-    <row r="186" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA185" s="12"/>
+      <c r="AB185" s="13"/>
+    </row>
+    <row r="186" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="11"/>
       <c r="B186" s="12"/>
       <c r="C186" s="12"/>
@@ -6349,9 +6543,10 @@
       <c r="X186" s="13"/>
       <c r="Y186" s="11"/>
       <c r="Z186" s="12"/>
-      <c r="AA186" s="13"/>
-    </row>
-    <row r="187" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA186" s="12"/>
+      <c r="AB186" s="13"/>
+    </row>
+    <row r="187" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="11"/>
       <c r="B187" s="12"/>
       <c r="C187" s="12"/>
@@ -6378,9 +6573,10 @@
       <c r="X187" s="13"/>
       <c r="Y187" s="11"/>
       <c r="Z187" s="12"/>
-      <c r="AA187" s="13"/>
-    </row>
-    <row r="188" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA187" s="12"/>
+      <c r="AB187" s="13"/>
+    </row>
+    <row r="188" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="11"/>
       <c r="B188" s="12"/>
       <c r="C188" s="12"/>
@@ -6407,9 +6603,10 @@
       <c r="X188" s="13"/>
       <c r="Y188" s="11"/>
       <c r="Z188" s="12"/>
-      <c r="AA188" s="13"/>
-    </row>
-    <row r="189" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA188" s="12"/>
+      <c r="AB188" s="13"/>
+    </row>
+    <row r="189" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="11"/>
       <c r="B189" s="12"/>
       <c r="C189" s="12"/>
@@ -6436,9 +6633,10 @@
       <c r="X189" s="13"/>
       <c r="Y189" s="11"/>
       <c r="Z189" s="12"/>
-      <c r="AA189" s="13"/>
-    </row>
-    <row r="190" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA189" s="12"/>
+      <c r="AB189" s="13"/>
+    </row>
+    <row r="190" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="11"/>
       <c r="B190" s="12"/>
       <c r="C190" s="12"/>
@@ -6465,9 +6663,10 @@
       <c r="X190" s="13"/>
       <c r="Y190" s="11"/>
       <c r="Z190" s="12"/>
-      <c r="AA190" s="13"/>
-    </row>
-    <row r="191" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA190" s="12"/>
+      <c r="AB190" s="13"/>
+    </row>
+    <row r="191" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="11"/>
       <c r="B191" s="12"/>
       <c r="C191" s="12"/>
@@ -6494,9 +6693,10 @@
       <c r="X191" s="13"/>
       <c r="Y191" s="11"/>
       <c r="Z191" s="12"/>
-      <c r="AA191" s="13"/>
-    </row>
-    <row r="192" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA191" s="12"/>
+      <c r="AB191" s="13"/>
+    </row>
+    <row r="192" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="11"/>
       <c r="B192" s="12"/>
       <c r="C192" s="12"/>
@@ -6523,9 +6723,10 @@
       <c r="X192" s="13"/>
       <c r="Y192" s="11"/>
       <c r="Z192" s="12"/>
-      <c r="AA192" s="13"/>
-    </row>
-    <row r="193" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA192" s="12"/>
+      <c r="AB192" s="13"/>
+    </row>
+    <row r="193" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="11"/>
       <c r="B193" s="12"/>
       <c r="C193" s="12"/>
@@ -6552,9 +6753,10 @@
       <c r="X193" s="13"/>
       <c r="Y193" s="11"/>
       <c r="Z193" s="12"/>
-      <c r="AA193" s="13"/>
-    </row>
-    <row r="194" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA193" s="12"/>
+      <c r="AB193" s="13"/>
+    </row>
+    <row r="194" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="11"/>
       <c r="B194" s="12"/>
       <c r="C194" s="12"/>
@@ -6581,9 +6783,10 @@
       <c r="X194" s="13"/>
       <c r="Y194" s="11"/>
       <c r="Z194" s="12"/>
-      <c r="AA194" s="13"/>
-    </row>
-    <row r="195" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA194" s="12"/>
+      <c r="AB194" s="13"/>
+    </row>
+    <row r="195" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="11"/>
       <c r="B195" s="12"/>
       <c r="C195" s="12"/>
@@ -6610,9 +6813,10 @@
       <c r="X195" s="13"/>
       <c r="Y195" s="11"/>
       <c r="Z195" s="12"/>
-      <c r="AA195" s="13"/>
-    </row>
-    <row r="196" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA195" s="12"/>
+      <c r="AB195" s="13"/>
+    </row>
+    <row r="196" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="11"/>
       <c r="B196" s="12"/>
       <c r="C196" s="12"/>
@@ -6639,9 +6843,10 @@
       <c r="X196" s="13"/>
       <c r="Y196" s="11"/>
       <c r="Z196" s="12"/>
-      <c r="AA196" s="13"/>
-    </row>
-    <row r="197" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA196" s="12"/>
+      <c r="AB196" s="13"/>
+    </row>
+    <row r="197" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="11"/>
       <c r="B197" s="12"/>
       <c r="C197" s="12"/>
@@ -6668,9 +6873,10 @@
       <c r="X197" s="13"/>
       <c r="Y197" s="11"/>
       <c r="Z197" s="12"/>
-      <c r="AA197" s="13"/>
-    </row>
-    <row r="198" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA197" s="12"/>
+      <c r="AB197" s="13"/>
+    </row>
+    <row r="198" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="11"/>
       <c r="B198" s="12"/>
       <c r="C198" s="12"/>
@@ -6697,9 +6903,10 @@
       <c r="X198" s="13"/>
       <c r="Y198" s="11"/>
       <c r="Z198" s="12"/>
-      <c r="AA198" s="13"/>
-    </row>
-    <row r="199" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA198" s="12"/>
+      <c r="AB198" s="13"/>
+    </row>
+    <row r="199" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
       <c r="B199" s="12"/>
       <c r="C199" s="12"/>
@@ -6726,9 +6933,10 @@
       <c r="X199" s="13"/>
       <c r="Y199" s="11"/>
       <c r="Z199" s="12"/>
-      <c r="AA199" s="13"/>
-    </row>
-    <row r="200" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA199" s="12"/>
+      <c r="AB199" s="13"/>
+    </row>
+    <row r="200" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="11"/>
       <c r="B200" s="12"/>
       <c r="C200" s="12"/>
@@ -6755,9 +6963,10 @@
       <c r="X200" s="13"/>
       <c r="Y200" s="11"/>
       <c r="Z200" s="12"/>
-      <c r="AA200" s="13"/>
-    </row>
-    <row r="201" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA200" s="12"/>
+      <c r="AB200" s="13"/>
+    </row>
+    <row r="201" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A201" s="11"/>
       <c r="B201" s="12"/>
       <c r="C201" s="12"/>
@@ -6784,9 +6993,10 @@
       <c r="X201" s="13"/>
       <c r="Y201" s="11"/>
       <c r="Z201" s="12"/>
-      <c r="AA201" s="13"/>
-    </row>
-    <row r="202" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA201" s="12"/>
+      <c r="AB201" s="13"/>
+    </row>
+    <row r="202" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
       <c r="B202" s="12"/>
       <c r="C202" s="12"/>
@@ -6813,9 +7023,10 @@
       <c r="X202" s="13"/>
       <c r="Y202" s="11"/>
       <c r="Z202" s="12"/>
-      <c r="AA202" s="13"/>
-    </row>
-    <row r="203" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA202" s="12"/>
+      <c r="AB202" s="13"/>
+    </row>
+    <row r="203" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
       <c r="B203" s="12"/>
       <c r="C203" s="12"/>
@@ -6842,9 +7053,10 @@
       <c r="X203" s="13"/>
       <c r="Y203" s="11"/>
       <c r="Z203" s="12"/>
-      <c r="AA203" s="13"/>
-    </row>
-    <row r="204" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA203" s="12"/>
+      <c r="AB203" s="13"/>
+    </row>
+    <row r="204" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A204" s="11"/>
       <c r="B204" s="12"/>
       <c r="C204" s="12"/>
@@ -6871,9 +7083,10 @@
       <c r="X204" s="13"/>
       <c r="Y204" s="11"/>
       <c r="Z204" s="12"/>
-      <c r="AA204" s="13"/>
-    </row>
-    <row r="205" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA204" s="12"/>
+      <c r="AB204" s="13"/>
+    </row>
+    <row r="205" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A205" s="11"/>
       <c r="B205" s="12"/>
       <c r="C205" s="12"/>
@@ -6900,9 +7113,10 @@
       <c r="X205" s="13"/>
       <c r="Y205" s="11"/>
       <c r="Z205" s="12"/>
-      <c r="AA205" s="13"/>
-    </row>
-    <row r="206" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA205" s="12"/>
+      <c r="AB205" s="13"/>
+    </row>
+    <row r="206" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A206" s="11"/>
       <c r="B206" s="12"/>
       <c r="C206" s="12"/>
@@ -6929,9 +7143,10 @@
       <c r="X206" s="13"/>
       <c r="Y206" s="11"/>
       <c r="Z206" s="12"/>
-      <c r="AA206" s="13"/>
-    </row>
-    <row r="207" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA206" s="12"/>
+      <c r="AB206" s="13"/>
+    </row>
+    <row r="207" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A207" s="11"/>
       <c r="B207" s="12"/>
       <c r="C207" s="12"/>
@@ -6958,9 +7173,10 @@
       <c r="X207" s="13"/>
       <c r="Y207" s="11"/>
       <c r="Z207" s="12"/>
-      <c r="AA207" s="13"/>
-    </row>
-    <row r="208" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA207" s="12"/>
+      <c r="AB207" s="13"/>
+    </row>
+    <row r="208" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A208" s="11"/>
       <c r="B208" s="12"/>
       <c r="C208" s="12"/>
@@ -6987,9 +7203,10 @@
       <c r="X208" s="13"/>
       <c r="Y208" s="11"/>
       <c r="Z208" s="12"/>
-      <c r="AA208" s="13"/>
-    </row>
-    <row r="209" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA208" s="12"/>
+      <c r="AB208" s="13"/>
+    </row>
+    <row r="209" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A209" s="11"/>
       <c r="B209" s="12"/>
       <c r="C209" s="12"/>
@@ -7016,9 +7233,10 @@
       <c r="X209" s="13"/>
       <c r="Y209" s="11"/>
       <c r="Z209" s="12"/>
-      <c r="AA209" s="13"/>
-    </row>
-    <row r="210" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA209" s="12"/>
+      <c r="AB209" s="13"/>
+    </row>
+    <row r="210" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A210" s="11"/>
       <c r="B210" s="12"/>
       <c r="C210" s="12"/>
@@ -7045,9 +7263,10 @@
       <c r="X210" s="13"/>
       <c r="Y210" s="11"/>
       <c r="Z210" s="12"/>
-      <c r="AA210" s="13"/>
-    </row>
-    <row r="211" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA210" s="12"/>
+      <c r="AB210" s="13"/>
+    </row>
+    <row r="211" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A211" s="11"/>
       <c r="B211" s="12"/>
       <c r="C211" s="12"/>
@@ -7074,9 +7293,10 @@
       <c r="X211" s="13"/>
       <c r="Y211" s="11"/>
       <c r="Z211" s="12"/>
-      <c r="AA211" s="13"/>
-    </row>
-    <row r="212" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA211" s="12"/>
+      <c r="AB211" s="13"/>
+    </row>
+    <row r="212" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A212" s="11"/>
       <c r="B212" s="12"/>
       <c r="C212" s="12"/>
@@ -7103,9 +7323,10 @@
       <c r="X212" s="13"/>
       <c r="Y212" s="11"/>
       <c r="Z212" s="12"/>
-      <c r="AA212" s="13"/>
-    </row>
-    <row r="213" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA212" s="12"/>
+      <c r="AB212" s="13"/>
+    </row>
+    <row r="213" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A213" s="11"/>
       <c r="B213" s="12"/>
       <c r="C213" s="12"/>
@@ -7132,9 +7353,10 @@
       <c r="X213" s="13"/>
       <c r="Y213" s="11"/>
       <c r="Z213" s="12"/>
-      <c r="AA213" s="13"/>
-    </row>
-    <row r="214" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA213" s="12"/>
+      <c r="AB213" s="13"/>
+    </row>
+    <row r="214" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A214" s="11"/>
       <c r="B214" s="12"/>
       <c r="C214" s="12"/>
@@ -7161,9 +7383,10 @@
       <c r="X214" s="13"/>
       <c r="Y214" s="11"/>
       <c r="Z214" s="12"/>
-      <c r="AA214" s="13"/>
-    </row>
-    <row r="215" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA214" s="12"/>
+      <c r="AB214" s="13"/>
+    </row>
+    <row r="215" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A215" s="11"/>
       <c r="B215" s="12"/>
       <c r="C215" s="12"/>
@@ -7190,9 +7413,10 @@
       <c r="X215" s="13"/>
       <c r="Y215" s="11"/>
       <c r="Z215" s="12"/>
-      <c r="AA215" s="13"/>
-    </row>
-    <row r="216" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA215" s="12"/>
+      <c r="AB215" s="13"/>
+    </row>
+    <row r="216" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A216" s="11"/>
       <c r="B216" s="12"/>
       <c r="C216" s="12"/>
@@ -7219,9 +7443,10 @@
       <c r="X216" s="13"/>
       <c r="Y216" s="11"/>
       <c r="Z216" s="12"/>
-      <c r="AA216" s="13"/>
-    </row>
-    <row r="217" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA216" s="12"/>
+      <c r="AB216" s="13"/>
+    </row>
+    <row r="217" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A217" s="11"/>
       <c r="B217" s="12"/>
       <c r="C217" s="12"/>
@@ -7248,9 +7473,10 @@
       <c r="X217" s="13"/>
       <c r="Y217" s="11"/>
       <c r="Z217" s="12"/>
-      <c r="AA217" s="13"/>
-    </row>
-    <row r="218" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA217" s="12"/>
+      <c r="AB217" s="13"/>
+    </row>
+    <row r="218" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A218" s="11"/>
       <c r="B218" s="12"/>
       <c r="C218" s="12"/>
@@ -7277,9 +7503,10 @@
       <c r="X218" s="13"/>
       <c r="Y218" s="11"/>
       <c r="Z218" s="12"/>
-      <c r="AA218" s="13"/>
-    </row>
-    <row r="219" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA218" s="12"/>
+      <c r="AB218" s="13"/>
+    </row>
+    <row r="219" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A219" s="11"/>
       <c r="B219" s="12"/>
       <c r="C219" s="12"/>
@@ -7306,9 +7533,10 @@
       <c r="X219" s="13"/>
       <c r="Y219" s="11"/>
       <c r="Z219" s="12"/>
-      <c r="AA219" s="13"/>
-    </row>
-    <row r="220" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA219" s="12"/>
+      <c r="AB219" s="13"/>
+    </row>
+    <row r="220" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A220" s="11"/>
       <c r="B220" s="12"/>
       <c r="C220" s="12"/>
@@ -7335,9 +7563,10 @@
       <c r="X220" s="13"/>
       <c r="Y220" s="11"/>
       <c r="Z220" s="12"/>
-      <c r="AA220" s="13"/>
-    </row>
-    <row r="221" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA220" s="12"/>
+      <c r="AB220" s="13"/>
+    </row>
+    <row r="221" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A221" s="11"/>
       <c r="B221" s="12"/>
       <c r="C221" s="12"/>
@@ -7364,9 +7593,10 @@
       <c r="X221" s="13"/>
       <c r="Y221" s="11"/>
       <c r="Z221" s="12"/>
-      <c r="AA221" s="13"/>
-    </row>
-    <row r="222" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA221" s="12"/>
+      <c r="AB221" s="13"/>
+    </row>
+    <row r="222" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A222" s="11"/>
       <c r="B222" s="12"/>
       <c r="C222" s="12"/>
@@ -7393,9 +7623,10 @@
       <c r="X222" s="13"/>
       <c r="Y222" s="11"/>
       <c r="Z222" s="12"/>
-      <c r="AA222" s="13"/>
-    </row>
-    <row r="223" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA222" s="12"/>
+      <c r="AB222" s="13"/>
+    </row>
+    <row r="223" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="11"/>
       <c r="B223" s="12"/>
       <c r="C223" s="12"/>
@@ -7422,9 +7653,10 @@
       <c r="X223" s="13"/>
       <c r="Y223" s="11"/>
       <c r="Z223" s="12"/>
-      <c r="AA223" s="13"/>
-    </row>
-    <row r="224" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA223" s="12"/>
+      <c r="AB223" s="13"/>
+    </row>
+    <row r="224" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="11"/>
       <c r="B224" s="12"/>
       <c r="C224" s="12"/>
@@ -7451,9 +7683,10 @@
       <c r="X224" s="13"/>
       <c r="Y224" s="11"/>
       <c r="Z224" s="12"/>
-      <c r="AA224" s="13"/>
-    </row>
-    <row r="225" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA224" s="12"/>
+      <c r="AB224" s="13"/>
+    </row>
+    <row r="225" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="11"/>
       <c r="B225" s="12"/>
       <c r="C225" s="12"/>
@@ -7480,9 +7713,10 @@
       <c r="X225" s="13"/>
       <c r="Y225" s="11"/>
       <c r="Z225" s="12"/>
-      <c r="AA225" s="13"/>
-    </row>
-    <row r="226" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA225" s="12"/>
+      <c r="AB225" s="13"/>
+    </row>
+    <row r="226" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="11"/>
       <c r="B226" s="12"/>
       <c r="C226" s="12"/>
@@ -7509,9 +7743,10 @@
       <c r="X226" s="13"/>
       <c r="Y226" s="11"/>
       <c r="Z226" s="12"/>
-      <c r="AA226" s="13"/>
-    </row>
-    <row r="227" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA226" s="12"/>
+      <c r="AB226" s="13"/>
+    </row>
+    <row r="227" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="11"/>
       <c r="B227" s="12"/>
       <c r="C227" s="12"/>
@@ -7538,9 +7773,10 @@
       <c r="X227" s="13"/>
       <c r="Y227" s="11"/>
       <c r="Z227" s="12"/>
-      <c r="AA227" s="13"/>
-    </row>
-    <row r="228" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA227" s="12"/>
+      <c r="AB227" s="13"/>
+    </row>
+    <row r="228" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="11"/>
       <c r="B228" s="12"/>
       <c r="C228" s="12"/>
@@ -7567,9 +7803,10 @@
       <c r="X228" s="13"/>
       <c r="Y228" s="11"/>
       <c r="Z228" s="12"/>
-      <c r="AA228" s="13"/>
-    </row>
-    <row r="229" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA228" s="12"/>
+      <c r="AB228" s="13"/>
+    </row>
+    <row r="229" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="11"/>
       <c r="B229" s="12"/>
       <c r="C229" s="12"/>
@@ -7596,9 +7833,10 @@
       <c r="X229" s="13"/>
       <c r="Y229" s="11"/>
       <c r="Z229" s="12"/>
-      <c r="AA229" s="13"/>
-    </row>
-    <row r="230" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA229" s="12"/>
+      <c r="AB229" s="13"/>
+    </row>
+    <row r="230" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="11"/>
       <c r="B230" s="12"/>
       <c r="C230" s="12"/>
@@ -7625,9 +7863,10 @@
       <c r="X230" s="13"/>
       <c r="Y230" s="11"/>
       <c r="Z230" s="12"/>
-      <c r="AA230" s="13"/>
-    </row>
-    <row r="231" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA230" s="12"/>
+      <c r="AB230" s="13"/>
+    </row>
+    <row r="231" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="11"/>
       <c r="B231" s="12"/>
       <c r="C231" s="12"/>
@@ -7654,9 +7893,10 @@
       <c r="X231" s="13"/>
       <c r="Y231" s="11"/>
       <c r="Z231" s="12"/>
-      <c r="AA231" s="13"/>
-    </row>
-    <row r="232" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA231" s="12"/>
+      <c r="AB231" s="13"/>
+    </row>
+    <row r="232" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="11"/>
       <c r="B232" s="12"/>
       <c r="C232" s="12"/>
@@ -7683,9 +7923,10 @@
       <c r="X232" s="13"/>
       <c r="Y232" s="11"/>
       <c r="Z232" s="12"/>
-      <c r="AA232" s="13"/>
-    </row>
-    <row r="233" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA232" s="12"/>
+      <c r="AB232" s="13"/>
+    </row>
+    <row r="233" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="11"/>
       <c r="B233" s="12"/>
       <c r="C233" s="12"/>
@@ -7712,9 +7953,10 @@
       <c r="X233" s="13"/>
       <c r="Y233" s="11"/>
       <c r="Z233" s="12"/>
-      <c r="AA233" s="13"/>
-    </row>
-    <row r="234" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA233" s="12"/>
+      <c r="AB233" s="13"/>
+    </row>
+    <row r="234" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="11"/>
       <c r="B234" s="12"/>
       <c r="C234" s="12"/>
@@ -7741,9 +7983,10 @@
       <c r="X234" s="13"/>
       <c r="Y234" s="11"/>
       <c r="Z234" s="12"/>
-      <c r="AA234" s="13"/>
-    </row>
-    <row r="235" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA234" s="12"/>
+      <c r="AB234" s="13"/>
+    </row>
+    <row r="235" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="11"/>
       <c r="B235" s="12"/>
       <c r="C235" s="12"/>
@@ -7770,9 +8013,10 @@
       <c r="X235" s="13"/>
       <c r="Y235" s="11"/>
       <c r="Z235" s="12"/>
-      <c r="AA235" s="13"/>
-    </row>
-    <row r="236" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA235" s="12"/>
+      <c r="AB235" s="13"/>
+    </row>
+    <row r="236" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="11"/>
       <c r="B236" s="12"/>
       <c r="C236" s="12"/>
@@ -7799,9 +8043,10 @@
       <c r="X236" s="13"/>
       <c r="Y236" s="11"/>
       <c r="Z236" s="12"/>
-      <c r="AA236" s="13"/>
-    </row>
-    <row r="237" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA236" s="12"/>
+      <c r="AB236" s="13"/>
+    </row>
+    <row r="237" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="11"/>
       <c r="B237" s="12"/>
       <c r="C237" s="12"/>
@@ -7828,9 +8073,10 @@
       <c r="X237" s="13"/>
       <c r="Y237" s="11"/>
       <c r="Z237" s="12"/>
-      <c r="AA237" s="13"/>
-    </row>
-    <row r="238" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA237" s="12"/>
+      <c r="AB237" s="13"/>
+    </row>
+    <row r="238" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="11"/>
       <c r="B238" s="12"/>
       <c r="C238" s="12"/>
@@ -7857,9 +8103,10 @@
       <c r="X238" s="13"/>
       <c r="Y238" s="11"/>
       <c r="Z238" s="12"/>
-      <c r="AA238" s="13"/>
-    </row>
-    <row r="239" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA238" s="12"/>
+      <c r="AB238" s="13"/>
+    </row>
+    <row r="239" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="11"/>
       <c r="B239" s="12"/>
       <c r="C239" s="12"/>
@@ -7886,9 +8133,10 @@
       <c r="X239" s="13"/>
       <c r="Y239" s="11"/>
       <c r="Z239" s="12"/>
-      <c r="AA239" s="13"/>
-    </row>
-    <row r="240" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA239" s="12"/>
+      <c r="AB239" s="13"/>
+    </row>
+    <row r="240" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="11"/>
       <c r="B240" s="12"/>
       <c r="C240" s="12"/>
@@ -7915,9 +8163,10 @@
       <c r="X240" s="13"/>
       <c r="Y240" s="11"/>
       <c r="Z240" s="12"/>
-      <c r="AA240" s="13"/>
-    </row>
-    <row r="241" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA240" s="12"/>
+      <c r="AB240" s="13"/>
+    </row>
+    <row r="241" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A241" s="11"/>
       <c r="B241" s="12"/>
       <c r="C241" s="12"/>
@@ -7944,9 +8193,10 @@
       <c r="X241" s="13"/>
       <c r="Y241" s="11"/>
       <c r="Z241" s="12"/>
-      <c r="AA241" s="13"/>
-    </row>
-    <row r="242" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA241" s="12"/>
+      <c r="AB241" s="13"/>
+    </row>
+    <row r="242" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A242" s="11"/>
       <c r="B242" s="12"/>
       <c r="C242" s="12"/>
@@ -7973,9 +8223,10 @@
       <c r="X242" s="13"/>
       <c r="Y242" s="11"/>
       <c r="Z242" s="12"/>
-      <c r="AA242" s="13"/>
-    </row>
-    <row r="243" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA242" s="12"/>
+      <c r="AB242" s="13"/>
+    </row>
+    <row r="243" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A243" s="11"/>
       <c r="B243" s="12"/>
       <c r="C243" s="12"/>
@@ -8002,9 +8253,10 @@
       <c r="X243" s="13"/>
       <c r="Y243" s="11"/>
       <c r="Z243" s="12"/>
-      <c r="AA243" s="13"/>
-    </row>
-    <row r="244" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA243" s="12"/>
+      <c r="AB243" s="13"/>
+    </row>
+    <row r="244" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A244" s="11"/>
       <c r="B244" s="12"/>
       <c r="C244" s="12"/>
@@ -8031,9 +8283,10 @@
       <c r="X244" s="13"/>
       <c r="Y244" s="11"/>
       <c r="Z244" s="12"/>
-      <c r="AA244" s="13"/>
-    </row>
-    <row r="245" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA244" s="12"/>
+      <c r="AB244" s="13"/>
+    </row>
+    <row r="245" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A245" s="11"/>
       <c r="B245" s="12"/>
       <c r="C245" s="12"/>
@@ -8060,9 +8313,10 @@
       <c r="X245" s="13"/>
       <c r="Y245" s="11"/>
       <c r="Z245" s="12"/>
-      <c r="AA245" s="13"/>
-    </row>
-    <row r="246" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA245" s="12"/>
+      <c r="AB245" s="13"/>
+    </row>
+    <row r="246" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A246" s="11"/>
       <c r="B246" s="12"/>
       <c r="C246" s="12"/>
@@ -8089,9 +8343,10 @@
       <c r="X246" s="13"/>
       <c r="Y246" s="11"/>
       <c r="Z246" s="12"/>
-      <c r="AA246" s="13"/>
-    </row>
-    <row r="247" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA246" s="12"/>
+      <c r="AB246" s="13"/>
+    </row>
+    <row r="247" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A247" s="11"/>
       <c r="B247" s="12"/>
       <c r="C247" s="12"/>
@@ -8118,9 +8373,10 @@
       <c r="X247" s="13"/>
       <c r="Y247" s="11"/>
       <c r="Z247" s="12"/>
-      <c r="AA247" s="13"/>
-    </row>
-    <row r="248" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA247" s="12"/>
+      <c r="AB247" s="13"/>
+    </row>
+    <row r="248" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A248" s="11"/>
       <c r="B248" s="12"/>
       <c r="C248" s="12"/>
@@ -8147,9 +8403,10 @@
       <c r="X248" s="13"/>
       <c r="Y248" s="11"/>
       <c r="Z248" s="12"/>
-      <c r="AA248" s="13"/>
-    </row>
-    <row r="249" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA248" s="12"/>
+      <c r="AB248" s="13"/>
+    </row>
+    <row r="249" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A249" s="11"/>
       <c r="B249" s="12"/>
       <c r="C249" s="12"/>
@@ -8176,9 +8433,10 @@
       <c r="X249" s="13"/>
       <c r="Y249" s="11"/>
       <c r="Z249" s="12"/>
-      <c r="AA249" s="13"/>
-    </row>
-    <row r="250" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA249" s="12"/>
+      <c r="AB249" s="13"/>
+    </row>
+    <row r="250" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A250" s="11"/>
       <c r="B250" s="12"/>
       <c r="C250" s="12"/>
@@ -8205,9 +8463,10 @@
       <c r="X250" s="13"/>
       <c r="Y250" s="11"/>
       <c r="Z250" s="12"/>
-      <c r="AA250" s="13"/>
-    </row>
-    <row r="251" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA250" s="12"/>
+      <c r="AB250" s="13"/>
+    </row>
+    <row r="251" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A251" s="11"/>
       <c r="B251" s="12"/>
       <c r="C251" s="12"/>
@@ -8234,9 +8493,10 @@
       <c r="X251" s="13"/>
       <c r="Y251" s="11"/>
       <c r="Z251" s="12"/>
-      <c r="AA251" s="13"/>
-    </row>
-    <row r="252" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA251" s="12"/>
+      <c r="AB251" s="13"/>
+    </row>
+    <row r="252" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A252" s="11"/>
       <c r="B252" s="12"/>
       <c r="C252" s="12"/>
@@ -8263,9 +8523,10 @@
       <c r="X252" s="13"/>
       <c r="Y252" s="11"/>
       <c r="Z252" s="12"/>
-      <c r="AA252" s="13"/>
-    </row>
-    <row r="253" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA252" s="12"/>
+      <c r="AB252" s="13"/>
+    </row>
+    <row r="253" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A253" s="11"/>
       <c r="B253" s="12"/>
       <c r="C253" s="12"/>
@@ -8292,9 +8553,10 @@
       <c r="X253" s="13"/>
       <c r="Y253" s="11"/>
       <c r="Z253" s="12"/>
-      <c r="AA253" s="13"/>
-    </row>
-    <row r="254" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA253" s="12"/>
+      <c r="AB253" s="13"/>
+    </row>
+    <row r="254" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A254" s="11"/>
       <c r="B254" s="12"/>
       <c r="C254" s="12"/>
@@ -8321,9 +8583,10 @@
       <c r="X254" s="13"/>
       <c r="Y254" s="11"/>
       <c r="Z254" s="12"/>
-      <c r="AA254" s="13"/>
-    </row>
-    <row r="255" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA254" s="12"/>
+      <c r="AB254" s="13"/>
+    </row>
+    <row r="255" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A255" s="11"/>
       <c r="B255" s="12"/>
       <c r="C255" s="12"/>
@@ -8350,9 +8613,10 @@
       <c r="X255" s="13"/>
       <c r="Y255" s="11"/>
       <c r="Z255" s="12"/>
-      <c r="AA255" s="13"/>
-    </row>
-    <row r="256" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA255" s="12"/>
+      <c r="AB255" s="13"/>
+    </row>
+    <row r="256" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A256" s="11"/>
       <c r="B256" s="12"/>
       <c r="C256" s="12"/>
@@ -8379,9 +8643,10 @@
       <c r="X256" s="13"/>
       <c r="Y256" s="11"/>
       <c r="Z256" s="12"/>
-      <c r="AA256" s="13"/>
-    </row>
-    <row r="257" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA256" s="12"/>
+      <c r="AB256" s="13"/>
+    </row>
+    <row r="257" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A257" s="11"/>
       <c r="B257" s="12"/>
       <c r="C257" s="12"/>
@@ -8408,9 +8673,10 @@
       <c r="X257" s="13"/>
       <c r="Y257" s="11"/>
       <c r="Z257" s="12"/>
-      <c r="AA257" s="13"/>
-    </row>
-    <row r="258" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA257" s="12"/>
+      <c r="AB257" s="13"/>
+    </row>
+    <row r="258" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A258" s="11"/>
       <c r="B258" s="12"/>
       <c r="C258" s="12"/>
@@ -8437,9 +8703,10 @@
       <c r="X258" s="13"/>
       <c r="Y258" s="11"/>
       <c r="Z258" s="12"/>
-      <c r="AA258" s="13"/>
-    </row>
-    <row r="259" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA258" s="12"/>
+      <c r="AB258" s="13"/>
+    </row>
+    <row r="259" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A259" s="11"/>
       <c r="B259" s="12"/>
       <c r="C259" s="12"/>
@@ -8466,9 +8733,10 @@
       <c r="X259" s="13"/>
       <c r="Y259" s="11"/>
       <c r="Z259" s="12"/>
-      <c r="AA259" s="13"/>
-    </row>
-    <row r="260" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA259" s="12"/>
+      <c r="AB259" s="13"/>
+    </row>
+    <row r="260" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A260" s="11"/>
       <c r="B260" s="12"/>
       <c r="C260" s="12"/>
@@ -8495,9 +8763,10 @@
       <c r="X260" s="13"/>
       <c r="Y260" s="11"/>
       <c r="Z260" s="12"/>
-      <c r="AA260" s="13"/>
-    </row>
-    <row r="261" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA260" s="12"/>
+      <c r="AB260" s="13"/>
+    </row>
+    <row r="261" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A261" s="11"/>
       <c r="B261" s="12"/>
       <c r="C261" s="12"/>
@@ -8524,9 +8793,10 @@
       <c r="X261" s="13"/>
       <c r="Y261" s="11"/>
       <c r="Z261" s="12"/>
-      <c r="AA261" s="13"/>
-    </row>
-    <row r="262" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA261" s="12"/>
+      <c r="AB261" s="13"/>
+    </row>
+    <row r="262" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A262" s="11"/>
       <c r="B262" s="12"/>
       <c r="C262" s="12"/>
@@ -8553,9 +8823,10 @@
       <c r="X262" s="13"/>
       <c r="Y262" s="11"/>
       <c r="Z262" s="12"/>
-      <c r="AA262" s="13"/>
-    </row>
-    <row r="263" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA262" s="12"/>
+      <c r="AB262" s="13"/>
+    </row>
+    <row r="263" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A263" s="11"/>
       <c r="B263" s="12"/>
       <c r="C263" s="12"/>
@@ -8582,9 +8853,10 @@
       <c r="X263" s="13"/>
       <c r="Y263" s="11"/>
       <c r="Z263" s="12"/>
-      <c r="AA263" s="13"/>
-    </row>
-    <row r="264" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA263" s="12"/>
+      <c r="AB263" s="13"/>
+    </row>
+    <row r="264" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A264" s="11"/>
       <c r="B264" s="12"/>
       <c r="C264" s="12"/>
@@ -8611,9 +8883,10 @@
       <c r="X264" s="13"/>
       <c r="Y264" s="11"/>
       <c r="Z264" s="12"/>
-      <c r="AA264" s="13"/>
-    </row>
-    <row r="265" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA264" s="12"/>
+      <c r="AB264" s="13"/>
+    </row>
+    <row r="265" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A265" s="11"/>
       <c r="B265" s="12"/>
       <c r="C265" s="12"/>
@@ -8640,9 +8913,10 @@
       <c r="X265" s="13"/>
       <c r="Y265" s="11"/>
       <c r="Z265" s="12"/>
-      <c r="AA265" s="13"/>
-    </row>
-    <row r="266" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA265" s="12"/>
+      <c r="AB265" s="13"/>
+    </row>
+    <row r="266" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A266" s="11"/>
       <c r="B266" s="12"/>
       <c r="C266" s="12"/>
@@ -8669,9 +8943,10 @@
       <c r="X266" s="13"/>
       <c r="Y266" s="11"/>
       <c r="Z266" s="12"/>
-      <c r="AA266" s="13"/>
-    </row>
-    <row r="267" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA266" s="12"/>
+      <c r="AB266" s="13"/>
+    </row>
+    <row r="267" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A267" s="11"/>
       <c r="B267" s="12"/>
       <c r="C267" s="12"/>
@@ -8698,9 +8973,10 @@
       <c r="X267" s="13"/>
       <c r="Y267" s="11"/>
       <c r="Z267" s="12"/>
-      <c r="AA267" s="13"/>
-    </row>
-    <row r="268" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA267" s="12"/>
+      <c r="AB267" s="13"/>
+    </row>
+    <row r="268" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A268" s="11"/>
       <c r="B268" s="12"/>
       <c r="C268" s="12"/>
@@ -8727,9 +9003,10 @@
       <c r="X268" s="13"/>
       <c r="Y268" s="11"/>
       <c r="Z268" s="12"/>
-      <c r="AA268" s="13"/>
-    </row>
-    <row r="269" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA268" s="12"/>
+      <c r="AB268" s="13"/>
+    </row>
+    <row r="269" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
       <c r="B269" s="12"/>
       <c r="C269" s="12"/>
@@ -8756,9 +9033,10 @@
       <c r="X269" s="13"/>
       <c r="Y269" s="11"/>
       <c r="Z269" s="12"/>
-      <c r="AA269" s="13"/>
-    </row>
-    <row r="270" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA269" s="12"/>
+      <c r="AB269" s="13"/>
+    </row>
+    <row r="270" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A270" s="11"/>
       <c r="B270" s="12"/>
       <c r="C270" s="12"/>
@@ -8785,9 +9063,10 @@
       <c r="X270" s="13"/>
       <c r="Y270" s="11"/>
       <c r="Z270" s="12"/>
-      <c r="AA270" s="13"/>
-    </row>
-    <row r="271" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA270" s="12"/>
+      <c r="AB270" s="13"/>
+    </row>
+    <row r="271" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A271" s="11"/>
       <c r="B271" s="12"/>
       <c r="C271" s="12"/>
@@ -8814,9 +9093,10 @@
       <c r="X271" s="13"/>
       <c r="Y271" s="11"/>
       <c r="Z271" s="12"/>
-      <c r="AA271" s="13"/>
-    </row>
-    <row r="272" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA271" s="12"/>
+      <c r="AB271" s="13"/>
+    </row>
+    <row r="272" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A272" s="11"/>
       <c r="B272" s="12"/>
       <c r="C272" s="12"/>
@@ -8843,9 +9123,10 @@
       <c r="X272" s="13"/>
       <c r="Y272" s="11"/>
       <c r="Z272" s="12"/>
-      <c r="AA272" s="13"/>
-    </row>
-    <row r="273" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA272" s="12"/>
+      <c r="AB272" s="13"/>
+    </row>
+    <row r="273" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A273" s="11"/>
       <c r="B273" s="12"/>
       <c r="C273" s="12"/>
@@ -8872,9 +9153,10 @@
       <c r="X273" s="13"/>
       <c r="Y273" s="11"/>
       <c r="Z273" s="12"/>
-      <c r="AA273" s="13"/>
-    </row>
-    <row r="274" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA273" s="12"/>
+      <c r="AB273" s="13"/>
+    </row>
+    <row r="274" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A274" s="11"/>
       <c r="B274" s="12"/>
       <c r="C274" s="12"/>
@@ -8901,9 +9183,10 @@
       <c r="X274" s="13"/>
       <c r="Y274" s="11"/>
       <c r="Z274" s="12"/>
-      <c r="AA274" s="13"/>
-    </row>
-    <row r="275" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA274" s="12"/>
+      <c r="AB274" s="13"/>
+    </row>
+    <row r="275" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A275" s="11"/>
       <c r="B275" s="12"/>
       <c r="C275" s="12"/>
@@ -8930,9 +9213,10 @@
       <c r="X275" s="13"/>
       <c r="Y275" s="11"/>
       <c r="Z275" s="12"/>
-      <c r="AA275" s="13"/>
-    </row>
-    <row r="276" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA275" s="12"/>
+      <c r="AB275" s="13"/>
+    </row>
+    <row r="276" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A276" s="11"/>
       <c r="B276" s="12"/>
       <c r="C276" s="12"/>
@@ -8959,9 +9243,10 @@
       <c r="X276" s="13"/>
       <c r="Y276" s="11"/>
       <c r="Z276" s="12"/>
-      <c r="AA276" s="13"/>
-    </row>
-    <row r="277" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA276" s="12"/>
+      <c r="AB276" s="13"/>
+    </row>
+    <row r="277" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A277" s="11"/>
       <c r="B277" s="12"/>
       <c r="C277" s="12"/>
@@ -8988,9 +9273,10 @@
       <c r="X277" s="13"/>
       <c r="Y277" s="11"/>
       <c r="Z277" s="12"/>
-      <c r="AA277" s="13"/>
-    </row>
-    <row r="278" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA277" s="12"/>
+      <c r="AB277" s="13"/>
+    </row>
+    <row r="278" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A278" s="11"/>
       <c r="B278" s="12"/>
       <c r="C278" s="12"/>
@@ -9017,9 +9303,10 @@
       <c r="X278" s="13"/>
       <c r="Y278" s="11"/>
       <c r="Z278" s="12"/>
-      <c r="AA278" s="13"/>
-    </row>
-    <row r="279" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA278" s="12"/>
+      <c r="AB278" s="13"/>
+    </row>
+    <row r="279" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A279" s="11"/>
       <c r="B279" s="12"/>
       <c r="C279" s="12"/>
@@ -9046,9 +9333,10 @@
       <c r="X279" s="13"/>
       <c r="Y279" s="11"/>
       <c r="Z279" s="12"/>
-      <c r="AA279" s="13"/>
-    </row>
-    <row r="280" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA279" s="12"/>
+      <c r="AB279" s="13"/>
+    </row>
+    <row r="280" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A280" s="11"/>
       <c r="B280" s="12"/>
       <c r="C280" s="12"/>
@@ -9075,9 +9363,10 @@
       <c r="X280" s="13"/>
       <c r="Y280" s="11"/>
       <c r="Z280" s="12"/>
-      <c r="AA280" s="13"/>
-    </row>
-    <row r="281" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA280" s="12"/>
+      <c r="AB280" s="13"/>
+    </row>
+    <row r="281" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A281" s="11"/>
       <c r="B281" s="12"/>
       <c r="C281" s="12"/>
@@ -9104,9 +9393,10 @@
       <c r="X281" s="13"/>
       <c r="Y281" s="11"/>
       <c r="Z281" s="12"/>
-      <c r="AA281" s="13"/>
-    </row>
-    <row r="282" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA281" s="12"/>
+      <c r="AB281" s="13"/>
+    </row>
+    <row r="282" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A282" s="11"/>
       <c r="B282" s="12"/>
       <c r="C282" s="12"/>
@@ -9133,9 +9423,10 @@
       <c r="X282" s="13"/>
       <c r="Y282" s="11"/>
       <c r="Z282" s="12"/>
-      <c r="AA282" s="13"/>
-    </row>
-    <row r="283" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA282" s="12"/>
+      <c r="AB282" s="13"/>
+    </row>
+    <row r="283" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A283" s="11"/>
       <c r="B283" s="12"/>
       <c r="C283" s="12"/>
@@ -9162,9 +9453,10 @@
       <c r="X283" s="13"/>
       <c r="Y283" s="11"/>
       <c r="Z283" s="12"/>
-      <c r="AA283" s="13"/>
-    </row>
-    <row r="284" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA283" s="12"/>
+      <c r="AB283" s="13"/>
+    </row>
+    <row r="284" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A284" s="11"/>
       <c r="B284" s="12"/>
       <c r="C284" s="12"/>
@@ -9191,9 +9483,10 @@
       <c r="X284" s="13"/>
       <c r="Y284" s="11"/>
       <c r="Z284" s="12"/>
-      <c r="AA284" s="13"/>
-    </row>
-    <row r="285" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA284" s="12"/>
+      <c r="AB284" s="13"/>
+    </row>
+    <row r="285" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A285" s="11"/>
       <c r="B285" s="12"/>
       <c r="C285" s="12"/>
@@ -9220,9 +9513,10 @@
       <c r="X285" s="13"/>
       <c r="Y285" s="11"/>
       <c r="Z285" s="12"/>
-      <c r="AA285" s="13"/>
-    </row>
-    <row r="286" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA285" s="12"/>
+      <c r="AB285" s="13"/>
+    </row>
+    <row r="286" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A286" s="11"/>
       <c r="B286" s="12"/>
       <c r="C286" s="12"/>
@@ -9249,9 +9543,10 @@
       <c r="X286" s="13"/>
       <c r="Y286" s="11"/>
       <c r="Z286" s="12"/>
-      <c r="AA286" s="13"/>
-    </row>
-    <row r="287" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA286" s="12"/>
+      <c r="AB286" s="13"/>
+    </row>
+    <row r="287" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A287" s="11"/>
       <c r="B287" s="12"/>
       <c r="C287" s="12"/>
@@ -9278,9 +9573,10 @@
       <c r="X287" s="13"/>
       <c r="Y287" s="11"/>
       <c r="Z287" s="12"/>
-      <c r="AA287" s="13"/>
-    </row>
-    <row r="288" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA287" s="12"/>
+      <c r="AB287" s="13"/>
+    </row>
+    <row r="288" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A288" s="11"/>
       <c r="B288" s="12"/>
       <c r="C288" s="12"/>
@@ -9307,9 +9603,10 @@
       <c r="X288" s="13"/>
       <c r="Y288" s="11"/>
       <c r="Z288" s="12"/>
-      <c r="AA288" s="13"/>
-    </row>
-    <row r="289" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA288" s="12"/>
+      <c r="AB288" s="13"/>
+    </row>
+    <row r="289" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A289" s="11"/>
       <c r="B289" s="12"/>
       <c r="C289" s="12"/>
@@ -9336,9 +9633,10 @@
       <c r="X289" s="13"/>
       <c r="Y289" s="11"/>
       <c r="Z289" s="12"/>
-      <c r="AA289" s="13"/>
-    </row>
-    <row r="290" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA289" s="12"/>
+      <c r="AB289" s="13"/>
+    </row>
+    <row r="290" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A290" s="11"/>
       <c r="B290" s="12"/>
       <c r="C290" s="12"/>
@@ -9365,9 +9663,10 @@
       <c r="X290" s="13"/>
       <c r="Y290" s="11"/>
       <c r="Z290" s="12"/>
-      <c r="AA290" s="13"/>
-    </row>
-    <row r="291" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA290" s="12"/>
+      <c r="AB290" s="13"/>
+    </row>
+    <row r="291" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A291" s="11"/>
       <c r="B291" s="12"/>
       <c r="C291" s="12"/>
@@ -9394,9 +9693,10 @@
       <c r="X291" s="13"/>
       <c r="Y291" s="11"/>
       <c r="Z291" s="12"/>
-      <c r="AA291" s="13"/>
-    </row>
-    <row r="292" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA291" s="12"/>
+      <c r="AB291" s="13"/>
+    </row>
+    <row r="292" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A292" s="11"/>
       <c r="B292" s="12"/>
       <c r="C292" s="12"/>
@@ -9423,9 +9723,10 @@
       <c r="X292" s="13"/>
       <c r="Y292" s="11"/>
       <c r="Z292" s="12"/>
-      <c r="AA292" s="13"/>
-    </row>
-    <row r="293" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA292" s="12"/>
+      <c r="AB292" s="13"/>
+    </row>
+    <row r="293" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A293" s="11"/>
       <c r="B293" s="12"/>
       <c r="C293" s="12"/>
@@ -9452,9 +9753,10 @@
       <c r="X293" s="13"/>
       <c r="Y293" s="11"/>
       <c r="Z293" s="12"/>
-      <c r="AA293" s="13"/>
-    </row>
-    <row r="294" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA293" s="12"/>
+      <c r="AB293" s="13"/>
+    </row>
+    <row r="294" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A294" s="11"/>
       <c r="B294" s="12"/>
       <c r="C294" s="12"/>
@@ -9481,9 +9783,10 @@
       <c r="X294" s="13"/>
       <c r="Y294" s="11"/>
       <c r="Z294" s="12"/>
-      <c r="AA294" s="13"/>
-    </row>
-    <row r="295" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA294" s="12"/>
+      <c r="AB294" s="13"/>
+    </row>
+    <row r="295" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A295" s="11"/>
       <c r="B295" s="12"/>
       <c r="C295" s="12"/>
@@ -9510,9 +9813,10 @@
       <c r="X295" s="13"/>
       <c r="Y295" s="11"/>
       <c r="Z295" s="12"/>
-      <c r="AA295" s="13"/>
-    </row>
-    <row r="296" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA295" s="12"/>
+      <c r="AB295" s="13"/>
+    </row>
+    <row r="296" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A296" s="11"/>
       <c r="B296" s="12"/>
       <c r="C296" s="12"/>
@@ -9539,9 +9843,10 @@
       <c r="X296" s="13"/>
       <c r="Y296" s="11"/>
       <c r="Z296" s="12"/>
-      <c r="AA296" s="13"/>
-    </row>
-    <row r="297" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA296" s="12"/>
+      <c r="AB296" s="13"/>
+    </row>
+    <row r="297" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A297" s="11"/>
       <c r="B297" s="12"/>
       <c r="C297" s="12"/>
@@ -9568,9 +9873,10 @@
       <c r="X297" s="13"/>
       <c r="Y297" s="11"/>
       <c r="Z297" s="12"/>
-      <c r="AA297" s="13"/>
-    </row>
-    <row r="298" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA297" s="12"/>
+      <c r="AB297" s="13"/>
+    </row>
+    <row r="298" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A298" s="11"/>
       <c r="B298" s="12"/>
       <c r="C298" s="12"/>
@@ -9597,9 +9903,10 @@
       <c r="X298" s="13"/>
       <c r="Y298" s="11"/>
       <c r="Z298" s="12"/>
-      <c r="AA298" s="13"/>
-    </row>
-    <row r="299" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA298" s="12"/>
+      <c r="AB298" s="13"/>
+    </row>
+    <row r="299" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A299" s="11"/>
       <c r="B299" s="12"/>
       <c r="C299" s="12"/>
@@ -9626,9 +9933,10 @@
       <c r="X299" s="13"/>
       <c r="Y299" s="11"/>
       <c r="Z299" s="12"/>
-      <c r="AA299" s="13"/>
-    </row>
-    <row r="300" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA299" s="12"/>
+      <c r="AB299" s="13"/>
+    </row>
+    <row r="300" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A300" s="11"/>
       <c r="B300" s="12"/>
       <c r="C300" s="12"/>
@@ -9655,9 +9963,10 @@
       <c r="X300" s="13"/>
       <c r="Y300" s="11"/>
       <c r="Z300" s="12"/>
-      <c r="AA300" s="13"/>
-    </row>
-    <row r="301" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA300" s="12"/>
+      <c r="AB300" s="13"/>
+    </row>
+    <row r="301" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A301" s="11"/>
       <c r="B301" s="12"/>
       <c r="C301" s="12"/>
@@ -9684,9 +9993,10 @@
       <c r="X301" s="13"/>
       <c r="Y301" s="11"/>
       <c r="Z301" s="12"/>
-      <c r="AA301" s="13"/>
-    </row>
-    <row r="302" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA301" s="12"/>
+      <c r="AB301" s="13"/>
+    </row>
+    <row r="302" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A302" s="11"/>
       <c r="B302" s="12"/>
       <c r="C302" s="12"/>
@@ -9713,9 +10023,10 @@
       <c r="X302" s="13"/>
       <c r="Y302" s="11"/>
       <c r="Z302" s="12"/>
-      <c r="AA302" s="13"/>
-    </row>
-    <row r="303" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA302" s="12"/>
+      <c r="AB302" s="13"/>
+    </row>
+    <row r="303" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A303" s="11"/>
       <c r="B303" s="12"/>
       <c r="C303" s="12"/>
@@ -9742,9 +10053,10 @@
       <c r="X303" s="13"/>
       <c r="Y303" s="11"/>
       <c r="Z303" s="12"/>
-      <c r="AA303" s="13"/>
-    </row>
-    <row r="304" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA303" s="12"/>
+      <c r="AB303" s="13"/>
+    </row>
+    <row r="304" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A304" s="11"/>
       <c r="B304" s="12"/>
       <c r="C304" s="12"/>
@@ -9771,9 +10083,10 @@
       <c r="X304" s="13"/>
       <c r="Y304" s="11"/>
       <c r="Z304" s="12"/>
-      <c r="AA304" s="13"/>
-    </row>
-    <row r="305" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA304" s="12"/>
+      <c r="AB304" s="13"/>
+    </row>
+    <row r="305" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A305" s="11"/>
       <c r="B305" s="12"/>
       <c r="C305" s="12"/>
@@ -9800,9 +10113,10 @@
       <c r="X305" s="13"/>
       <c r="Y305" s="11"/>
       <c r="Z305" s="12"/>
-      <c r="AA305" s="13"/>
-    </row>
-    <row r="306" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA305" s="12"/>
+      <c r="AB305" s="13"/>
+    </row>
+    <row r="306" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A306" s="11"/>
       <c r="B306" s="12"/>
       <c r="C306" s="12"/>
@@ -9829,9 +10143,10 @@
       <c r="X306" s="13"/>
       <c r="Y306" s="11"/>
       <c r="Z306" s="12"/>
-      <c r="AA306" s="13"/>
-    </row>
-    <row r="307" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA306" s="12"/>
+      <c r="AB306" s="13"/>
+    </row>
+    <row r="307" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A307" s="11"/>
       <c r="B307" s="12"/>
       <c r="C307" s="12"/>
@@ -9858,9 +10173,10 @@
       <c r="X307" s="13"/>
       <c r="Y307" s="11"/>
       <c r="Z307" s="12"/>
-      <c r="AA307" s="13"/>
-    </row>
-    <row r="308" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA307" s="12"/>
+      <c r="AB307" s="13"/>
+    </row>
+    <row r="308" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A308" s="11"/>
       <c r="B308" s="12"/>
       <c r="C308" s="12"/>
@@ -9887,9 +10203,10 @@
       <c r="X308" s="13"/>
       <c r="Y308" s="11"/>
       <c r="Z308" s="12"/>
-      <c r="AA308" s="13"/>
-    </row>
-    <row r="309" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA308" s="12"/>
+      <c r="AB308" s="13"/>
+    </row>
+    <row r="309" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A309" s="11"/>
       <c r="B309" s="12"/>
       <c r="C309" s="12"/>
@@ -9916,9 +10233,10 @@
       <c r="X309" s="13"/>
       <c r="Y309" s="11"/>
       <c r="Z309" s="12"/>
-      <c r="AA309" s="13"/>
-    </row>
-    <row r="310" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA309" s="12"/>
+      <c r="AB309" s="13"/>
+    </row>
+    <row r="310" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A310" s="11"/>
       <c r="B310" s="12"/>
       <c r="C310" s="12"/>
@@ -9945,9 +10263,10 @@
       <c r="X310" s="13"/>
       <c r="Y310" s="11"/>
       <c r="Z310" s="12"/>
-      <c r="AA310" s="13"/>
-    </row>
-    <row r="311" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA310" s="12"/>
+      <c r="AB310" s="13"/>
+    </row>
+    <row r="311" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A311" s="11"/>
       <c r="B311" s="12"/>
       <c r="C311" s="12"/>
@@ -9974,9 +10293,10 @@
       <c r="X311" s="13"/>
       <c r="Y311" s="11"/>
       <c r="Z311" s="12"/>
-      <c r="AA311" s="13"/>
-    </row>
-    <row r="312" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA311" s="12"/>
+      <c r="AB311" s="13"/>
+    </row>
+    <row r="312" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A312" s="11"/>
       <c r="B312" s="12"/>
       <c r="C312" s="12"/>
@@ -10003,9 +10323,10 @@
       <c r="X312" s="13"/>
       <c r="Y312" s="11"/>
       <c r="Z312" s="12"/>
-      <c r="AA312" s="13"/>
-    </row>
-    <row r="313" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA312" s="12"/>
+      <c r="AB312" s="13"/>
+    </row>
+    <row r="313" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A313" s="11"/>
       <c r="B313" s="12"/>
       <c r="C313" s="12"/>
@@ -10032,9 +10353,10 @@
       <c r="X313" s="13"/>
       <c r="Y313" s="11"/>
       <c r="Z313" s="12"/>
-      <c r="AA313" s="13"/>
-    </row>
-    <row r="314" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA313" s="12"/>
+      <c r="AB313" s="13"/>
+    </row>
+    <row r="314" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A314" s="11"/>
       <c r="B314" s="12"/>
       <c r="C314" s="12"/>
@@ -10061,9 +10383,10 @@
       <c r="X314" s="13"/>
       <c r="Y314" s="11"/>
       <c r="Z314" s="12"/>
-      <c r="AA314" s="13"/>
-    </row>
-    <row r="315" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA314" s="12"/>
+      <c r="AB314" s="13"/>
+    </row>
+    <row r="315" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A315" s="11"/>
       <c r="B315" s="12"/>
       <c r="C315" s="12"/>
@@ -10090,9 +10413,10 @@
       <c r="X315" s="13"/>
       <c r="Y315" s="11"/>
       <c r="Z315" s="12"/>
-      <c r="AA315" s="13"/>
-    </row>
-    <row r="316" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA315" s="12"/>
+      <c r="AB315" s="13"/>
+    </row>
+    <row r="316" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A316" s="11"/>
       <c r="B316" s="12"/>
       <c r="C316" s="12"/>
@@ -10119,9 +10443,10 @@
       <c r="X316" s="13"/>
       <c r="Y316" s="11"/>
       <c r="Z316" s="12"/>
-      <c r="AA316" s="13"/>
-    </row>
-    <row r="317" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA316" s="12"/>
+      <c r="AB316" s="13"/>
+    </row>
+    <row r="317" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A317" s="11"/>
       <c r="B317" s="12"/>
       <c r="C317" s="12"/>
@@ -10148,9 +10473,10 @@
       <c r="X317" s="13"/>
       <c r="Y317" s="11"/>
       <c r="Z317" s="12"/>
-      <c r="AA317" s="13"/>
-    </row>
-    <row r="318" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA317" s="12"/>
+      <c r="AB317" s="13"/>
+    </row>
+    <row r="318" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A318" s="11"/>
       <c r="B318" s="12"/>
       <c r="C318" s="12"/>
@@ -10177,9 +10503,10 @@
       <c r="X318" s="13"/>
       <c r="Y318" s="11"/>
       <c r="Z318" s="12"/>
-      <c r="AA318" s="13"/>
-    </row>
-    <row r="319" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA318" s="12"/>
+      <c r="AB318" s="13"/>
+    </row>
+    <row r="319" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A319" s="11"/>
       <c r="B319" s="12"/>
       <c r="C319" s="12"/>
@@ -10206,9 +10533,10 @@
       <c r="X319" s="13"/>
       <c r="Y319" s="11"/>
       <c r="Z319" s="12"/>
-      <c r="AA319" s="13"/>
-    </row>
-    <row r="320" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA319" s="12"/>
+      <c r="AB319" s="13"/>
+    </row>
+    <row r="320" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A320" s="11"/>
       <c r="B320" s="12"/>
       <c r="C320" s="12"/>
@@ -10235,9 +10563,10 @@
       <c r="X320" s="13"/>
       <c r="Y320" s="11"/>
       <c r="Z320" s="12"/>
-      <c r="AA320" s="13"/>
-    </row>
-    <row r="321" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA320" s="12"/>
+      <c r="AB320" s="13"/>
+    </row>
+    <row r="321" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A321" s="11"/>
       <c r="B321" s="12"/>
       <c r="C321" s="12"/>
@@ -10264,9 +10593,10 @@
       <c r="X321" s="13"/>
       <c r="Y321" s="11"/>
       <c r="Z321" s="12"/>
-      <c r="AA321" s="13"/>
-    </row>
-    <row r="322" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA321" s="12"/>
+      <c r="AB321" s="13"/>
+    </row>
+    <row r="322" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A322" s="11"/>
       <c r="B322" s="12"/>
       <c r="C322" s="12"/>
@@ -10293,9 +10623,10 @@
       <c r="X322" s="13"/>
       <c r="Y322" s="11"/>
       <c r="Z322" s="12"/>
-      <c r="AA322" s="13"/>
-    </row>
-    <row r="323" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA322" s="12"/>
+      <c r="AB322" s="13"/>
+    </row>
+    <row r="323" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A323" s="11"/>
       <c r="B323" s="12"/>
       <c r="C323" s="12"/>
@@ -10322,9 +10653,10 @@
       <c r="X323" s="13"/>
       <c r="Y323" s="11"/>
       <c r="Z323" s="12"/>
-      <c r="AA323" s="13"/>
-    </row>
-    <row r="324" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA323" s="12"/>
+      <c r="AB323" s="13"/>
+    </row>
+    <row r="324" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A324" s="11"/>
       <c r="B324" s="12"/>
       <c r="C324" s="12"/>
@@ -10351,9 +10683,10 @@
       <c r="X324" s="13"/>
       <c r="Y324" s="11"/>
       <c r="Z324" s="12"/>
-      <c r="AA324" s="13"/>
-    </row>
-    <row r="325" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA324" s="12"/>
+      <c r="AB324" s="13"/>
+    </row>
+    <row r="325" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A325" s="11"/>
       <c r="B325" s="12"/>
       <c r="C325" s="12"/>
@@ -10380,9 +10713,10 @@
       <c r="X325" s="13"/>
       <c r="Y325" s="11"/>
       <c r="Z325" s="12"/>
-      <c r="AA325" s="13"/>
-    </row>
-    <row r="326" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA325" s="12"/>
+      <c r="AB325" s="13"/>
+    </row>
+    <row r="326" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A326" s="11"/>
       <c r="B326" s="12"/>
       <c r="C326" s="12"/>
@@ -10409,9 +10743,10 @@
       <c r="X326" s="13"/>
       <c r="Y326" s="11"/>
       <c r="Z326" s="12"/>
-      <c r="AA326" s="13"/>
-    </row>
-    <row r="327" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA326" s="12"/>
+      <c r="AB326" s="13"/>
+    </row>
+    <row r="327" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A327" s="11"/>
       <c r="B327" s="12"/>
       <c r="C327" s="12"/>
@@ -10438,9 +10773,10 @@
       <c r="X327" s="13"/>
       <c r="Y327" s="11"/>
       <c r="Z327" s="12"/>
-      <c r="AA327" s="13"/>
-    </row>
-    <row r="328" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA327" s="12"/>
+      <c r="AB327" s="13"/>
+    </row>
+    <row r="328" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A328" s="11"/>
       <c r="B328" s="12"/>
       <c r="C328" s="12"/>
@@ -10467,9 +10803,10 @@
       <c r="X328" s="13"/>
       <c r="Y328" s="11"/>
       <c r="Z328" s="12"/>
-      <c r="AA328" s="13"/>
-    </row>
-    <row r="329" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA328" s="12"/>
+      <c r="AB328" s="13"/>
+    </row>
+    <row r="329" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A329" s="11"/>
       <c r="B329" s="12"/>
       <c r="C329" s="12"/>
@@ -10496,9 +10833,10 @@
       <c r="X329" s="13"/>
       <c r="Y329" s="11"/>
       <c r="Z329" s="12"/>
-      <c r="AA329" s="13"/>
-    </row>
-    <row r="330" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA329" s="12"/>
+      <c r="AB329" s="13"/>
+    </row>
+    <row r="330" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A330" s="11"/>
       <c r="B330" s="12"/>
       <c r="C330" s="12"/>
@@ -10525,9 +10863,10 @@
       <c r="X330" s="13"/>
       <c r="Y330" s="11"/>
       <c r="Z330" s="12"/>
-      <c r="AA330" s="13"/>
-    </row>
-    <row r="331" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA330" s="12"/>
+      <c r="AB330" s="13"/>
+    </row>
+    <row r="331" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A331" s="11"/>
       <c r="B331" s="12"/>
       <c r="C331" s="12"/>
@@ -10554,9 +10893,10 @@
       <c r="X331" s="13"/>
       <c r="Y331" s="11"/>
       <c r="Z331" s="12"/>
-      <c r="AA331" s="13"/>
-    </row>
-    <row r="332" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA331" s="12"/>
+      <c r="AB331" s="13"/>
+    </row>
+    <row r="332" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A332" s="11"/>
       <c r="B332" s="12"/>
       <c r="C332" s="12"/>
@@ -10583,9 +10923,10 @@
       <c r="X332" s="13"/>
       <c r="Y332" s="11"/>
       <c r="Z332" s="12"/>
-      <c r="AA332" s="13"/>
-    </row>
-    <row r="333" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA332" s="12"/>
+      <c r="AB332" s="13"/>
+    </row>
+    <row r="333" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A333" s="11"/>
       <c r="B333" s="12"/>
       <c r="C333" s="12"/>
@@ -10612,9 +10953,10 @@
       <c r="X333" s="13"/>
       <c r="Y333" s="11"/>
       <c r="Z333" s="12"/>
-      <c r="AA333" s="13"/>
-    </row>
-    <row r="334" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA333" s="12"/>
+      <c r="AB333" s="13"/>
+    </row>
+    <row r="334" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A334" s="11"/>
       <c r="B334" s="12"/>
       <c r="C334" s="12"/>
@@ -10641,9 +10983,10 @@
       <c r="X334" s="13"/>
       <c r="Y334" s="11"/>
       <c r="Z334" s="12"/>
-      <c r="AA334" s="13"/>
-    </row>
-    <row r="335" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA334" s="12"/>
+      <c r="AB334" s="13"/>
+    </row>
+    <row r="335" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A335" s="11"/>
       <c r="B335" s="12"/>
       <c r="C335" s="12"/>
@@ -10670,9 +11013,10 @@
       <c r="X335" s="13"/>
       <c r="Y335" s="11"/>
       <c r="Z335" s="12"/>
-      <c r="AA335" s="13"/>
-    </row>
-    <row r="336" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA335" s="12"/>
+      <c r="AB335" s="13"/>
+    </row>
+    <row r="336" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A336" s="11"/>
       <c r="B336" s="12"/>
       <c r="C336" s="12"/>
@@ -10699,9 +11043,10 @@
       <c r="X336" s="13"/>
       <c r="Y336" s="11"/>
       <c r="Z336" s="12"/>
-      <c r="AA336" s="13"/>
-    </row>
-    <row r="337" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA336" s="12"/>
+      <c r="AB336" s="13"/>
+    </row>
+    <row r="337" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A337" s="11"/>
       <c r="B337" s="12"/>
       <c r="C337" s="12"/>
@@ -10728,9 +11073,10 @@
       <c r="X337" s="13"/>
       <c r="Y337" s="11"/>
       <c r="Z337" s="12"/>
-      <c r="AA337" s="13"/>
-    </row>
-    <row r="338" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA337" s="12"/>
+      <c r="AB337" s="13"/>
+    </row>
+    <row r="338" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A338" s="11"/>
       <c r="B338" s="12"/>
       <c r="C338" s="12"/>
@@ -10757,9 +11103,10 @@
       <c r="X338" s="13"/>
       <c r="Y338" s="11"/>
       <c r="Z338" s="12"/>
-      <c r="AA338" s="13"/>
-    </row>
-    <row r="339" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA338" s="12"/>
+      <c r="AB338" s="13"/>
+    </row>
+    <row r="339" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A339" s="11"/>
       <c r="B339" s="12"/>
       <c r="C339" s="12"/>
@@ -10786,9 +11133,10 @@
       <c r="X339" s="13"/>
       <c r="Y339" s="11"/>
       <c r="Z339" s="12"/>
-      <c r="AA339" s="13"/>
-    </row>
-    <row r="340" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA339" s="12"/>
+      <c r="AB339" s="13"/>
+    </row>
+    <row r="340" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A340" s="11"/>
       <c r="B340" s="12"/>
       <c r="C340" s="12"/>
@@ -10815,9 +11163,10 @@
       <c r="X340" s="13"/>
       <c r="Y340" s="11"/>
       <c r="Z340" s="12"/>
-      <c r="AA340" s="13"/>
-    </row>
-    <row r="341" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA340" s="12"/>
+      <c r="AB340" s="13"/>
+    </row>
+    <row r="341" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A341" s="11"/>
       <c r="B341" s="12"/>
       <c r="C341" s="12"/>
@@ -10844,9 +11193,10 @@
       <c r="X341" s="13"/>
       <c r="Y341" s="11"/>
       <c r="Z341" s="12"/>
-      <c r="AA341" s="13"/>
-    </row>
-    <row r="342" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA341" s="12"/>
+      <c r="AB341" s="13"/>
+    </row>
+    <row r="342" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A342" s="11"/>
       <c r="B342" s="12"/>
       <c r="C342" s="12"/>
@@ -10873,9 +11223,10 @@
       <c r="X342" s="13"/>
       <c r="Y342" s="11"/>
       <c r="Z342" s="12"/>
-      <c r="AA342" s="13"/>
-    </row>
-    <row r="343" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA342" s="12"/>
+      <c r="AB342" s="13"/>
+    </row>
+    <row r="343" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A343" s="11"/>
       <c r="B343" s="12"/>
       <c r="C343" s="12"/>
@@ -10902,9 +11253,10 @@
       <c r="X343" s="13"/>
       <c r="Y343" s="11"/>
       <c r="Z343" s="12"/>
-      <c r="AA343" s="13"/>
-    </row>
-    <row r="344" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA343" s="12"/>
+      <c r="AB343" s="13"/>
+    </row>
+    <row r="344" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A344" s="11"/>
       <c r="B344" s="12"/>
       <c r="C344" s="12"/>
@@ -10931,9 +11283,10 @@
       <c r="X344" s="13"/>
       <c r="Y344" s="11"/>
       <c r="Z344" s="12"/>
-      <c r="AA344" s="13"/>
-    </row>
-    <row r="345" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA344" s="12"/>
+      <c r="AB344" s="13"/>
+    </row>
+    <row r="345" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A345" s="11"/>
       <c r="B345" s="12"/>
       <c r="C345" s="12"/>
@@ -10960,9 +11313,10 @@
       <c r="X345" s="13"/>
       <c r="Y345" s="11"/>
       <c r="Z345" s="12"/>
-      <c r="AA345" s="13"/>
-    </row>
-    <row r="346" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA345" s="12"/>
+      <c r="AB345" s="13"/>
+    </row>
+    <row r="346" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A346" s="11"/>
       <c r="B346" s="12"/>
       <c r="C346" s="12"/>
@@ -10989,9 +11343,10 @@
       <c r="X346" s="13"/>
       <c r="Y346" s="11"/>
       <c r="Z346" s="12"/>
-      <c r="AA346" s="13"/>
-    </row>
-    <row r="347" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA346" s="12"/>
+      <c r="AB346" s="13"/>
+    </row>
+    <row r="347" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A347" s="11"/>
       <c r="B347" s="12"/>
       <c r="C347" s="12"/>
@@ -11018,9 +11373,10 @@
       <c r="X347" s="13"/>
       <c r="Y347" s="11"/>
       <c r="Z347" s="12"/>
-      <c r="AA347" s="13"/>
-    </row>
-    <row r="348" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA347" s="12"/>
+      <c r="AB347" s="13"/>
+    </row>
+    <row r="348" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A348" s="11"/>
       <c r="B348" s="12"/>
       <c r="C348" s="12"/>
@@ -11047,9 +11403,10 @@
       <c r="X348" s="13"/>
       <c r="Y348" s="11"/>
       <c r="Z348" s="12"/>
-      <c r="AA348" s="13"/>
-    </row>
-    <row r="349" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA348" s="12"/>
+      <c r="AB348" s="13"/>
+    </row>
+    <row r="349" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A349" s="11"/>
       <c r="B349" s="12"/>
       <c r="C349" s="12"/>
@@ -11076,9 +11433,10 @@
       <c r="X349" s="13"/>
       <c r="Y349" s="11"/>
       <c r="Z349" s="12"/>
-      <c r="AA349" s="13"/>
-    </row>
-    <row r="350" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA349" s="12"/>
+      <c r="AB349" s="13"/>
+    </row>
+    <row r="350" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A350" s="11"/>
       <c r="B350" s="12"/>
       <c r="C350" s="12"/>
@@ -11105,9 +11463,10 @@
       <c r="X350" s="13"/>
       <c r="Y350" s="11"/>
       <c r="Z350" s="12"/>
-      <c r="AA350" s="13"/>
-    </row>
-    <row r="351" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA350" s="12"/>
+      <c r="AB350" s="13"/>
+    </row>
+    <row r="351" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A351" s="11"/>
       <c r="B351" s="12"/>
       <c r="C351" s="12"/>
@@ -11134,9 +11493,10 @@
       <c r="X351" s="13"/>
       <c r="Y351" s="11"/>
       <c r="Z351" s="12"/>
-      <c r="AA351" s="13"/>
-    </row>
-    <row r="352" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA351" s="12"/>
+      <c r="AB351" s="13"/>
+    </row>
+    <row r="352" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A352" s="11"/>
       <c r="B352" s="12"/>
       <c r="C352" s="12"/>
@@ -11163,9 +11523,10 @@
       <c r="X352" s="13"/>
       <c r="Y352" s="11"/>
       <c r="Z352" s="12"/>
-      <c r="AA352" s="13"/>
-    </row>
-    <row r="353" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA352" s="12"/>
+      <c r="AB352" s="13"/>
+    </row>
+    <row r="353" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A353" s="11"/>
       <c r="B353" s="12"/>
       <c r="C353" s="12"/>
@@ -11192,9 +11553,10 @@
       <c r="X353" s="13"/>
       <c r="Y353" s="11"/>
       <c r="Z353" s="12"/>
-      <c r="AA353" s="13"/>
-    </row>
-    <row r="354" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA353" s="12"/>
+      <c r="AB353" s="13"/>
+    </row>
+    <row r="354" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A354" s="11"/>
       <c r="B354" s="12"/>
       <c r="C354" s="12"/>
@@ -11221,9 +11583,10 @@
       <c r="X354" s="13"/>
       <c r="Y354" s="11"/>
       <c r="Z354" s="12"/>
-      <c r="AA354" s="13"/>
-    </row>
-    <row r="355" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA354" s="12"/>
+      <c r="AB354" s="13"/>
+    </row>
+    <row r="355" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A355" s="11"/>
       <c r="B355" s="12"/>
       <c r="C355" s="12"/>
@@ -11250,9 +11613,10 @@
       <c r="X355" s="13"/>
       <c r="Y355" s="11"/>
       <c r="Z355" s="12"/>
-      <c r="AA355" s="13"/>
-    </row>
-    <row r="356" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA355" s="12"/>
+      <c r="AB355" s="13"/>
+    </row>
+    <row r="356" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A356" s="11"/>
       <c r="B356" s="12"/>
       <c r="C356" s="12"/>
@@ -11279,9 +11643,10 @@
       <c r="X356" s="13"/>
       <c r="Y356" s="11"/>
       <c r="Z356" s="12"/>
-      <c r="AA356" s="13"/>
-    </row>
-    <row r="357" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA356" s="12"/>
+      <c r="AB356" s="13"/>
+    </row>
+    <row r="357" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A357" s="11"/>
       <c r="B357" s="12"/>
       <c r="C357" s="12"/>
@@ -11308,9 +11673,10 @@
       <c r="X357" s="13"/>
       <c r="Y357" s="11"/>
       <c r="Z357" s="12"/>
-      <c r="AA357" s="13"/>
-    </row>
-    <row r="358" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA357" s="12"/>
+      <c r="AB357" s="13"/>
+    </row>
+    <row r="358" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A358" s="11"/>
       <c r="B358" s="12"/>
       <c r="C358" s="12"/>
@@ -11337,9 +11703,10 @@
       <c r="X358" s="13"/>
       <c r="Y358" s="11"/>
       <c r="Z358" s="12"/>
-      <c r="AA358" s="13"/>
-    </row>
-    <row r="359" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA358" s="12"/>
+      <c r="AB358" s="13"/>
+    </row>
+    <row r="359" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A359" s="11"/>
       <c r="B359" s="12"/>
       <c r="C359" s="12"/>
@@ -11366,9 +11733,10 @@
       <c r="X359" s="13"/>
       <c r="Y359" s="11"/>
       <c r="Z359" s="12"/>
-      <c r="AA359" s="13"/>
-    </row>
-    <row r="360" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA359" s="12"/>
+      <c r="AB359" s="13"/>
+    </row>
+    <row r="360" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A360" s="11"/>
       <c r="B360" s="12"/>
       <c r="C360" s="12"/>
@@ -11395,9 +11763,10 @@
       <c r="X360" s="13"/>
       <c r="Y360" s="11"/>
       <c r="Z360" s="12"/>
-      <c r="AA360" s="13"/>
-    </row>
-    <row r="361" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA360" s="12"/>
+      <c r="AB360" s="13"/>
+    </row>
+    <row r="361" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A361" s="11"/>
       <c r="B361" s="12"/>
       <c r="C361" s="12"/>
@@ -11424,9 +11793,10 @@
       <c r="X361" s="13"/>
       <c r="Y361" s="11"/>
       <c r="Z361" s="12"/>
-      <c r="AA361" s="13"/>
-    </row>
-    <row r="362" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA361" s="12"/>
+      <c r="AB361" s="13"/>
+    </row>
+    <row r="362" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A362" s="11"/>
       <c r="B362" s="12"/>
       <c r="C362" s="12"/>
@@ -11453,9 +11823,10 @@
       <c r="X362" s="13"/>
       <c r="Y362" s="11"/>
       <c r="Z362" s="12"/>
-      <c r="AA362" s="13"/>
-    </row>
-    <row r="363" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA362" s="12"/>
+      <c r="AB362" s="13"/>
+    </row>
+    <row r="363" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A363" s="11"/>
       <c r="B363" s="12"/>
       <c r="C363" s="12"/>
@@ -11482,9 +11853,10 @@
       <c r="X363" s="13"/>
       <c r="Y363" s="11"/>
       <c r="Z363" s="12"/>
-      <c r="AA363" s="13"/>
-    </row>
-    <row r="364" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA363" s="12"/>
+      <c r="AB363" s="13"/>
+    </row>
+    <row r="364" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A364" s="11"/>
       <c r="B364" s="12"/>
       <c r="C364" s="12"/>
@@ -11511,9 +11883,10 @@
       <c r="X364" s="13"/>
       <c r="Y364" s="11"/>
       <c r="Z364" s="12"/>
-      <c r="AA364" s="13"/>
-    </row>
-    <row r="365" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA364" s="12"/>
+      <c r="AB364" s="13"/>
+    </row>
+    <row r="365" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A365" s="11"/>
       <c r="B365" s="12"/>
       <c r="C365" s="12"/>
@@ -11540,9 +11913,10 @@
       <c r="X365" s="13"/>
       <c r="Y365" s="11"/>
       <c r="Z365" s="12"/>
-      <c r="AA365" s="13"/>
-    </row>
-    <row r="366" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA365" s="12"/>
+      <c r="AB365" s="13"/>
+    </row>
+    <row r="366" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A366" s="11"/>
       <c r="B366" s="12"/>
       <c r="C366" s="12"/>
@@ -11569,9 +11943,10 @@
       <c r="X366" s="13"/>
       <c r="Y366" s="11"/>
       <c r="Z366" s="12"/>
-      <c r="AA366" s="13"/>
-    </row>
-    <row r="367" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA366" s="12"/>
+      <c r="AB366" s="13"/>
+    </row>
+    <row r="367" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A367" s="11"/>
       <c r="B367" s="12"/>
       <c r="C367" s="12"/>
@@ -11598,9 +11973,10 @@
       <c r="X367" s="13"/>
       <c r="Y367" s="11"/>
       <c r="Z367" s="12"/>
-      <c r="AA367" s="13"/>
-    </row>
-    <row r="368" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA367" s="12"/>
+      <c r="AB367" s="13"/>
+    </row>
+    <row r="368" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A368" s="11"/>
       <c r="B368" s="12"/>
       <c r="C368" s="12"/>
@@ -11627,9 +12003,10 @@
       <c r="X368" s="13"/>
       <c r="Y368" s="11"/>
       <c r="Z368" s="12"/>
-      <c r="AA368" s="13"/>
-    </row>
-    <row r="369" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA368" s="12"/>
+      <c r="AB368" s="13"/>
+    </row>
+    <row r="369" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A369" s="11"/>
       <c r="B369" s="12"/>
       <c r="C369" s="12"/>
@@ -11656,9 +12033,10 @@
       <c r="X369" s="13"/>
       <c r="Y369" s="11"/>
       <c r="Z369" s="12"/>
-      <c r="AA369" s="13"/>
-    </row>
-    <row r="370" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA369" s="12"/>
+      <c r="AB369" s="13"/>
+    </row>
+    <row r="370" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A370" s="11"/>
       <c r="B370" s="12"/>
       <c r="C370" s="12"/>
@@ -11685,9 +12063,10 @@
       <c r="X370" s="13"/>
       <c r="Y370" s="11"/>
       <c r="Z370" s="12"/>
-      <c r="AA370" s="13"/>
-    </row>
-    <row r="371" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA370" s="12"/>
+      <c r="AB370" s="13"/>
+    </row>
+    <row r="371" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A371" s="11"/>
       <c r="B371" s="12"/>
       <c r="C371" s="12"/>
@@ -11714,9 +12093,10 @@
       <c r="X371" s="13"/>
       <c r="Y371" s="11"/>
       <c r="Z371" s="12"/>
-      <c r="AA371" s="13"/>
-    </row>
-    <row r="372" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA371" s="12"/>
+      <c r="AB371" s="13"/>
+    </row>
+    <row r="372" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A372" s="11"/>
       <c r="B372" s="12"/>
       <c r="C372" s="12"/>
@@ -11743,9 +12123,10 @@
       <c r="X372" s="13"/>
       <c r="Y372" s="11"/>
       <c r="Z372" s="12"/>
-      <c r="AA372" s="13"/>
-    </row>
-    <row r="373" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA372" s="12"/>
+      <c r="AB372" s="13"/>
+    </row>
+    <row r="373" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A373" s="11"/>
       <c r="B373" s="12"/>
       <c r="C373" s="12"/>
@@ -11772,9 +12153,10 @@
       <c r="X373" s="13"/>
       <c r="Y373" s="11"/>
       <c r="Z373" s="12"/>
-      <c r="AA373" s="13"/>
-    </row>
-    <row r="374" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA373" s="12"/>
+      <c r="AB373" s="13"/>
+    </row>
+    <row r="374" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A374" s="11"/>
       <c r="B374" s="12"/>
       <c r="C374" s="12"/>
@@ -11801,9 +12183,10 @@
       <c r="X374" s="13"/>
       <c r="Y374" s="11"/>
       <c r="Z374" s="12"/>
-      <c r="AA374" s="13"/>
-    </row>
-    <row r="375" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA374" s="12"/>
+      <c r="AB374" s="13"/>
+    </row>
+    <row r="375" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A375" s="11"/>
       <c r="B375" s="12"/>
       <c r="C375" s="12"/>
@@ -11830,9 +12213,10 @@
       <c r="X375" s="13"/>
       <c r="Y375" s="11"/>
       <c r="Z375" s="12"/>
-      <c r="AA375" s="13"/>
-    </row>
-    <row r="376" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA375" s="12"/>
+      <c r="AB375" s="13"/>
+    </row>
+    <row r="376" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A376" s="11"/>
       <c r="B376" s="12"/>
       <c r="C376" s="12"/>
@@ -11859,9 +12243,10 @@
       <c r="X376" s="13"/>
       <c r="Y376" s="11"/>
       <c r="Z376" s="12"/>
-      <c r="AA376" s="13"/>
-    </row>
-    <row r="377" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA376" s="12"/>
+      <c r="AB376" s="13"/>
+    </row>
+    <row r="377" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A377" s="11"/>
       <c r="B377" s="12"/>
       <c r="C377" s="12"/>
@@ -11888,9 +12273,10 @@
       <c r="X377" s="13"/>
       <c r="Y377" s="11"/>
       <c r="Z377" s="12"/>
-      <c r="AA377" s="13"/>
-    </row>
-    <row r="378" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA377" s="12"/>
+      <c r="AB377" s="13"/>
+    </row>
+    <row r="378" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A378" s="11"/>
       <c r="B378" s="12"/>
       <c r="C378" s="12"/>
@@ -11917,9 +12303,10 @@
       <c r="X378" s="13"/>
       <c r="Y378" s="11"/>
       <c r="Z378" s="12"/>
-      <c r="AA378" s="13"/>
-    </row>
-    <row r="379" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA378" s="12"/>
+      <c r="AB378" s="13"/>
+    </row>
+    <row r="379" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A379" s="11"/>
       <c r="B379" s="12"/>
       <c r="C379" s="12"/>
@@ -11946,9 +12333,10 @@
       <c r="X379" s="13"/>
       <c r="Y379" s="11"/>
       <c r="Z379" s="12"/>
-      <c r="AA379" s="13"/>
-    </row>
-    <row r="380" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA379" s="12"/>
+      <c r="AB379" s="13"/>
+    </row>
+    <row r="380" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A380" s="11"/>
       <c r="B380" s="12"/>
       <c r="C380" s="12"/>
@@ -11975,9 +12363,10 @@
       <c r="X380" s="13"/>
       <c r="Y380" s="11"/>
       <c r="Z380" s="12"/>
-      <c r="AA380" s="13"/>
-    </row>
-    <row r="381" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA380" s="12"/>
+      <c r="AB380" s="13"/>
+    </row>
+    <row r="381" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A381" s="11"/>
       <c r="B381" s="12"/>
       <c r="C381" s="12"/>
@@ -12004,9 +12393,10 @@
       <c r="X381" s="13"/>
       <c r="Y381" s="11"/>
       <c r="Z381" s="12"/>
-      <c r="AA381" s="13"/>
-    </row>
-    <row r="382" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA381" s="12"/>
+      <c r="AB381" s="13"/>
+    </row>
+    <row r="382" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A382" s="11"/>
       <c r="B382" s="12"/>
       <c r="C382" s="12"/>
@@ -12033,9 +12423,10 @@
       <c r="X382" s="13"/>
       <c r="Y382" s="11"/>
       <c r="Z382" s="12"/>
-      <c r="AA382" s="13"/>
-    </row>
-    <row r="383" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA382" s="12"/>
+      <c r="AB382" s="13"/>
+    </row>
+    <row r="383" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A383" s="11"/>
       <c r="B383" s="12"/>
       <c r="C383" s="12"/>
@@ -12062,9 +12453,10 @@
       <c r="X383" s="13"/>
       <c r="Y383" s="11"/>
       <c r="Z383" s="12"/>
-      <c r="AA383" s="13"/>
-    </row>
-    <row r="384" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA383" s="12"/>
+      <c r="AB383" s="13"/>
+    </row>
+    <row r="384" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A384" s="11"/>
       <c r="B384" s="12"/>
       <c r="C384" s="12"/>
@@ -12091,9 +12483,10 @@
       <c r="X384" s="13"/>
       <c r="Y384" s="11"/>
       <c r="Z384" s="12"/>
-      <c r="AA384" s="13"/>
-    </row>
-    <row r="385" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA384" s="12"/>
+      <c r="AB384" s="13"/>
+    </row>
+    <row r="385" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A385" s="11"/>
       <c r="B385" s="12"/>
       <c r="C385" s="12"/>
@@ -12120,9 +12513,10 @@
       <c r="X385" s="13"/>
       <c r="Y385" s="11"/>
       <c r="Z385" s="12"/>
-      <c r="AA385" s="13"/>
-    </row>
-    <row r="386" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA385" s="12"/>
+      <c r="AB385" s="13"/>
+    </row>
+    <row r="386" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A386" s="11"/>
       <c r="B386" s="12"/>
       <c r="C386" s="12"/>
@@ -12149,9 +12543,10 @@
       <c r="X386" s="13"/>
       <c r="Y386" s="11"/>
       <c r="Z386" s="12"/>
-      <c r="AA386" s="13"/>
-    </row>
-    <row r="387" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA386" s="12"/>
+      <c r="AB386" s="13"/>
+    </row>
+    <row r="387" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A387" s="11"/>
       <c r="B387" s="12"/>
       <c r="C387" s="12"/>
@@ -12178,9 +12573,10 @@
       <c r="X387" s="13"/>
       <c r="Y387" s="11"/>
       <c r="Z387" s="12"/>
-      <c r="AA387" s="13"/>
-    </row>
-    <row r="388" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA387" s="12"/>
+      <c r="AB387" s="13"/>
+    </row>
+    <row r="388" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A388" s="11"/>
       <c r="B388" s="12"/>
       <c r="C388" s="12"/>
@@ -12207,9 +12603,10 @@
       <c r="X388" s="13"/>
       <c r="Y388" s="11"/>
       <c r="Z388" s="12"/>
-      <c r="AA388" s="13"/>
-    </row>
-    <row r="389" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA388" s="12"/>
+      <c r="AB388" s="13"/>
+    </row>
+    <row r="389" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A389" s="11"/>
       <c r="B389" s="12"/>
       <c r="C389" s="12"/>
@@ -12236,9 +12633,10 @@
       <c r="X389" s="13"/>
       <c r="Y389" s="11"/>
       <c r="Z389" s="12"/>
-      <c r="AA389" s="13"/>
-    </row>
-    <row r="390" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA389" s="12"/>
+      <c r="AB389" s="13"/>
+    </row>
+    <row r="390" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A390" s="11"/>
       <c r="B390" s="12"/>
       <c r="C390" s="12"/>
@@ -12265,9 +12663,10 @@
       <c r="X390" s="13"/>
       <c r="Y390" s="11"/>
       <c r="Z390" s="12"/>
-      <c r="AA390" s="13"/>
-    </row>
-    <row r="391" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA390" s="12"/>
+      <c r="AB390" s="13"/>
+    </row>
+    <row r="391" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A391" s="11"/>
       <c r="B391" s="12"/>
       <c r="C391" s="12"/>
@@ -12294,9 +12693,10 @@
       <c r="X391" s="13"/>
       <c r="Y391" s="11"/>
       <c r="Z391" s="12"/>
-      <c r="AA391" s="13"/>
-    </row>
-    <row r="392" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA391" s="12"/>
+      <c r="AB391" s="13"/>
+    </row>
+    <row r="392" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A392" s="11"/>
       <c r="B392" s="12"/>
       <c r="C392" s="12"/>
@@ -12323,9 +12723,10 @@
       <c r="X392" s="13"/>
       <c r="Y392" s="11"/>
       <c r="Z392" s="12"/>
-      <c r="AA392" s="13"/>
-    </row>
-    <row r="393" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA392" s="12"/>
+      <c r="AB392" s="13"/>
+    </row>
+    <row r="393" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A393" s="11"/>
       <c r="B393" s="12"/>
       <c r="C393" s="12"/>
@@ -12352,9 +12753,10 @@
       <c r="X393" s="13"/>
       <c r="Y393" s="11"/>
       <c r="Z393" s="12"/>
-      <c r="AA393" s="13"/>
-    </row>
-    <row r="394" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA393" s="12"/>
+      <c r="AB393" s="13"/>
+    </row>
+    <row r="394" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A394" s="11"/>
       <c r="B394" s="12"/>
       <c r="C394" s="12"/>
@@ -12381,9 +12783,10 @@
       <c r="X394" s="13"/>
       <c r="Y394" s="11"/>
       <c r="Z394" s="12"/>
-      <c r="AA394" s="13"/>
-    </row>
-    <row r="395" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA394" s="12"/>
+      <c r="AB394" s="13"/>
+    </row>
+    <row r="395" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A395" s="11"/>
       <c r="B395" s="12"/>
       <c r="C395" s="12"/>
@@ -12410,9 +12813,10 @@
       <c r="X395" s="13"/>
       <c r="Y395" s="11"/>
       <c r="Z395" s="12"/>
-      <c r="AA395" s="13"/>
-    </row>
-    <row r="396" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA395" s="12"/>
+      <c r="AB395" s="13"/>
+    </row>
+    <row r="396" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A396" s="11"/>
       <c r="B396" s="12"/>
       <c r="C396" s="12"/>
@@ -12439,9 +12843,10 @@
       <c r="X396" s="13"/>
       <c r="Y396" s="11"/>
       <c r="Z396" s="12"/>
-      <c r="AA396" s="13"/>
-    </row>
-    <row r="397" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA396" s="12"/>
+      <c r="AB396" s="13"/>
+    </row>
+    <row r="397" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A397" s="11"/>
       <c r="B397" s="12"/>
       <c r="C397" s="12"/>
@@ -12468,9 +12873,10 @@
       <c r="X397" s="13"/>
       <c r="Y397" s="11"/>
       <c r="Z397" s="12"/>
-      <c r="AA397" s="13"/>
-    </row>
-    <row r="398" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA397" s="12"/>
+      <c r="AB397" s="13"/>
+    </row>
+    <row r="398" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A398" s="11"/>
       <c r="B398" s="12"/>
       <c r="C398" s="12"/>
@@ -12497,9 +12903,10 @@
       <c r="X398" s="13"/>
       <c r="Y398" s="11"/>
       <c r="Z398" s="12"/>
-      <c r="AA398" s="13"/>
-    </row>
-    <row r="399" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA398" s="12"/>
+      <c r="AB398" s="13"/>
+    </row>
+    <row r="399" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A399" s="11"/>
       <c r="B399" s="12"/>
       <c r="C399" s="12"/>
@@ -12526,9 +12933,10 @@
       <c r="X399" s="13"/>
       <c r="Y399" s="11"/>
       <c r="Z399" s="12"/>
-      <c r="AA399" s="13"/>
-    </row>
-    <row r="400" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA399" s="12"/>
+      <c r="AB399" s="13"/>
+    </row>
+    <row r="400" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A400" s="11"/>
       <c r="B400" s="12"/>
       <c r="C400" s="12"/>
@@ -12555,9 +12963,10 @@
       <c r="X400" s="13"/>
       <c r="Y400" s="11"/>
       <c r="Z400" s="12"/>
-      <c r="AA400" s="13"/>
-    </row>
-    <row r="401" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA400" s="12"/>
+      <c r="AB400" s="13"/>
+    </row>
+    <row r="401" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A401" s="11"/>
       <c r="B401" s="12"/>
       <c r="C401" s="12"/>
@@ -12584,9 +12993,10 @@
       <c r="X401" s="13"/>
       <c r="Y401" s="11"/>
       <c r="Z401" s="12"/>
-      <c r="AA401" s="13"/>
-    </row>
-    <row r="402" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA401" s="12"/>
+      <c r="AB401" s="13"/>
+    </row>
+    <row r="402" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A402" s="11"/>
       <c r="B402" s="12"/>
       <c r="C402" s="12"/>
@@ -12613,9 +13023,10 @@
       <c r="X402" s="13"/>
       <c r="Y402" s="11"/>
       <c r="Z402" s="12"/>
-      <c r="AA402" s="13"/>
-    </row>
-    <row r="403" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA402" s="12"/>
+      <c r="AB402" s="13"/>
+    </row>
+    <row r="403" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A403" s="11"/>
       <c r="B403" s="12"/>
       <c r="C403" s="12"/>
@@ -12642,9 +13053,10 @@
       <c r="X403" s="13"/>
       <c r="Y403" s="11"/>
       <c r="Z403" s="12"/>
-      <c r="AA403" s="13"/>
-    </row>
-    <row r="404" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA403" s="12"/>
+      <c r="AB403" s="13"/>
+    </row>
+    <row r="404" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A404" s="11"/>
       <c r="B404" s="12"/>
       <c r="C404" s="12"/>
@@ -12671,9 +13083,10 @@
       <c r="X404" s="13"/>
       <c r="Y404" s="11"/>
       <c r="Z404" s="12"/>
-      <c r="AA404" s="13"/>
-    </row>
-    <row r="405" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA404" s="12"/>
+      <c r="AB404" s="13"/>
+    </row>
+    <row r="405" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A405" s="11"/>
       <c r="B405" s="12"/>
       <c r="C405" s="12"/>
@@ -12700,9 +13113,10 @@
       <c r="X405" s="13"/>
       <c r="Y405" s="11"/>
       <c r="Z405" s="12"/>
-      <c r="AA405" s="13"/>
-    </row>
-    <row r="406" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA405" s="12"/>
+      <c r="AB405" s="13"/>
+    </row>
+    <row r="406" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A406" s="11"/>
       <c r="B406" s="12"/>
       <c r="C406" s="12"/>
@@ -12729,9 +13143,10 @@
       <c r="X406" s="13"/>
       <c r="Y406" s="11"/>
       <c r="Z406" s="12"/>
-      <c r="AA406" s="13"/>
-    </row>
-    <row r="407" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA406" s="12"/>
+      <c r="AB406" s="13"/>
+    </row>
+    <row r="407" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A407" s="11"/>
       <c r="B407" s="12"/>
       <c r="C407" s="12"/>
@@ -12758,9 +13173,10 @@
       <c r="X407" s="13"/>
       <c r="Y407" s="11"/>
       <c r="Z407" s="12"/>
-      <c r="AA407" s="13"/>
-    </row>
-    <row r="408" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA407" s="12"/>
+      <c r="AB407" s="13"/>
+    </row>
+    <row r="408" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A408" s="11"/>
       <c r="B408" s="12"/>
       <c r="C408" s="12"/>
@@ -12787,9 +13203,10 @@
       <c r="X408" s="13"/>
       <c r="Y408" s="11"/>
       <c r="Z408" s="12"/>
-      <c r="AA408" s="13"/>
-    </row>
-    <row r="409" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA408" s="12"/>
+      <c r="AB408" s="13"/>
+    </row>
+    <row r="409" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A409" s="11"/>
       <c r="B409" s="12"/>
       <c r="C409" s="12"/>
@@ -12816,9 +13233,10 @@
       <c r="X409" s="13"/>
       <c r="Y409" s="11"/>
       <c r="Z409" s="12"/>
-      <c r="AA409" s="13"/>
-    </row>
-    <row r="410" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA409" s="12"/>
+      <c r="AB409" s="13"/>
+    </row>
+    <row r="410" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A410" s="11"/>
       <c r="B410" s="12"/>
       <c r="C410" s="12"/>
@@ -12845,9 +13263,10 @@
       <c r="X410" s="13"/>
       <c r="Y410" s="11"/>
       <c r="Z410" s="12"/>
-      <c r="AA410" s="13"/>
-    </row>
-    <row r="411" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA410" s="12"/>
+      <c r="AB410" s="13"/>
+    </row>
+    <row r="411" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A411" s="11"/>
       <c r="B411" s="12"/>
       <c r="C411" s="12"/>
@@ -12874,9 +13293,10 @@
       <c r="X411" s="13"/>
       <c r="Y411" s="11"/>
       <c r="Z411" s="12"/>
-      <c r="AA411" s="13"/>
-    </row>
-    <row r="412" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA411" s="12"/>
+      <c r="AB411" s="13"/>
+    </row>
+    <row r="412" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A412" s="11"/>
       <c r="B412" s="12"/>
       <c r="C412" s="12"/>
@@ -12903,9 +13323,10 @@
       <c r="X412" s="13"/>
       <c r="Y412" s="11"/>
       <c r="Z412" s="12"/>
-      <c r="AA412" s="13"/>
-    </row>
-    <row r="413" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA412" s="12"/>
+      <c r="AB412" s="13"/>
+    </row>
+    <row r="413" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A413" s="11"/>
       <c r="B413" s="12"/>
       <c r="C413" s="12"/>
@@ -12932,9 +13353,10 @@
       <c r="X413" s="13"/>
       <c r="Y413" s="11"/>
       <c r="Z413" s="12"/>
-      <c r="AA413" s="13"/>
-    </row>
-    <row r="414" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA413" s="12"/>
+      <c r="AB413" s="13"/>
+    </row>
+    <row r="414" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A414" s="11"/>
       <c r="B414" s="12"/>
       <c r="C414" s="12"/>
@@ -12961,9 +13383,10 @@
       <c r="X414" s="13"/>
       <c r="Y414" s="11"/>
       <c r="Z414" s="12"/>
-      <c r="AA414" s="13"/>
-    </row>
-    <row r="415" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA414" s="12"/>
+      <c r="AB414" s="13"/>
+    </row>
+    <row r="415" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A415" s="11"/>
       <c r="B415" s="12"/>
       <c r="C415" s="12"/>
@@ -12990,9 +13413,10 @@
       <c r="X415" s="13"/>
       <c r="Y415" s="11"/>
       <c r="Z415" s="12"/>
-      <c r="AA415" s="13"/>
-    </row>
-    <row r="416" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA415" s="12"/>
+      <c r="AB415" s="13"/>
+    </row>
+    <row r="416" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A416" s="11"/>
       <c r="B416" s="12"/>
       <c r="C416" s="12"/>
@@ -13019,9 +13443,10 @@
       <c r="X416" s="13"/>
       <c r="Y416" s="11"/>
       <c r="Z416" s="12"/>
-      <c r="AA416" s="13"/>
-    </row>
-    <row r="417" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA416" s="12"/>
+      <c r="AB416" s="13"/>
+    </row>
+    <row r="417" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A417" s="11"/>
       <c r="B417" s="12"/>
       <c r="C417" s="12"/>
@@ -13048,9 +13473,10 @@
       <c r="X417" s="13"/>
       <c r="Y417" s="11"/>
       <c r="Z417" s="12"/>
-      <c r="AA417" s="13"/>
-    </row>
-    <row r="418" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA417" s="12"/>
+      <c r="AB417" s="13"/>
+    </row>
+    <row r="418" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A418" s="11"/>
       <c r="B418" s="12"/>
       <c r="C418" s="12"/>
@@ -13077,9 +13503,10 @@
       <c r="X418" s="13"/>
       <c r="Y418" s="11"/>
       <c r="Z418" s="12"/>
-      <c r="AA418" s="13"/>
-    </row>
-    <row r="419" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA418" s="12"/>
+      <c r="AB418" s="13"/>
+    </row>
+    <row r="419" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A419" s="11"/>
       <c r="B419" s="12"/>
       <c r="C419" s="12"/>
@@ -13106,9 +13533,10 @@
       <c r="X419" s="13"/>
       <c r="Y419" s="11"/>
       <c r="Z419" s="12"/>
-      <c r="AA419" s="13"/>
-    </row>
-    <row r="420" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA419" s="12"/>
+      <c r="AB419" s="13"/>
+    </row>
+    <row r="420" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A420" s="11"/>
       <c r="B420" s="12"/>
       <c r="C420" s="12"/>
@@ -13135,9 +13563,10 @@
       <c r="X420" s="13"/>
       <c r="Y420" s="11"/>
       <c r="Z420" s="12"/>
-      <c r="AA420" s="13"/>
-    </row>
-    <row r="421" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA420" s="12"/>
+      <c r="AB420" s="13"/>
+    </row>
+    <row r="421" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A421" s="11"/>
       <c r="B421" s="12"/>
       <c r="C421" s="12"/>
@@ -13164,9 +13593,10 @@
       <c r="X421" s="13"/>
       <c r="Y421" s="11"/>
       <c r="Z421" s="12"/>
-      <c r="AA421" s="13"/>
-    </row>
-    <row r="422" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA421" s="12"/>
+      <c r="AB421" s="13"/>
+    </row>
+    <row r="422" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A422" s="11"/>
       <c r="B422" s="12"/>
       <c r="C422" s="12"/>
@@ -13193,9 +13623,10 @@
       <c r="X422" s="13"/>
       <c r="Y422" s="11"/>
       <c r="Z422" s="12"/>
-      <c r="AA422" s="13"/>
-    </row>
-    <row r="423" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA422" s="12"/>
+      <c r="AB422" s="13"/>
+    </row>
+    <row r="423" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A423" s="11"/>
       <c r="B423" s="12"/>
       <c r="C423" s="12"/>
@@ -13222,9 +13653,10 @@
       <c r="X423" s="13"/>
       <c r="Y423" s="11"/>
       <c r="Z423" s="12"/>
-      <c r="AA423" s="13"/>
-    </row>
-    <row r="424" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA423" s="12"/>
+      <c r="AB423" s="13"/>
+    </row>
+    <row r="424" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A424" s="11"/>
       <c r="B424" s="12"/>
       <c r="C424" s="12"/>
@@ -13251,9 +13683,10 @@
       <c r="X424" s="13"/>
       <c r="Y424" s="11"/>
       <c r="Z424" s="12"/>
-      <c r="AA424" s="13"/>
-    </row>
-    <row r="425" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA424" s="12"/>
+      <c r="AB424" s="13"/>
+    </row>
+    <row r="425" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A425" s="11"/>
       <c r="B425" s="12"/>
       <c r="C425" s="12"/>
@@ -13280,9 +13713,10 @@
       <c r="X425" s="13"/>
       <c r="Y425" s="11"/>
       <c r="Z425" s="12"/>
-      <c r="AA425" s="13"/>
-    </row>
-    <row r="426" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA425" s="12"/>
+      <c r="AB425" s="13"/>
+    </row>
+    <row r="426" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A426" s="11"/>
       <c r="B426" s="12"/>
       <c r="C426" s="12"/>
@@ -13309,9 +13743,10 @@
       <c r="X426" s="13"/>
       <c r="Y426" s="11"/>
       <c r="Z426" s="12"/>
-      <c r="AA426" s="13"/>
-    </row>
-    <row r="427" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA426" s="12"/>
+      <c r="AB426" s="13"/>
+    </row>
+    <row r="427" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A427" s="11"/>
       <c r="B427" s="12"/>
       <c r="C427" s="12"/>
@@ -13338,9 +13773,10 @@
       <c r="X427" s="13"/>
       <c r="Y427" s="11"/>
       <c r="Z427" s="12"/>
-      <c r="AA427" s="13"/>
-    </row>
-    <row r="428" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA427" s="12"/>
+      <c r="AB427" s="13"/>
+    </row>
+    <row r="428" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A428" s="11"/>
       <c r="B428" s="12"/>
       <c r="C428" s="12"/>
@@ -13367,9 +13803,10 @@
       <c r="X428" s="13"/>
       <c r="Y428" s="11"/>
       <c r="Z428" s="12"/>
-      <c r="AA428" s="13"/>
-    </row>
-    <row r="429" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA428" s="12"/>
+      <c r="AB428" s="13"/>
+    </row>
+    <row r="429" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A429" s="11"/>
       <c r="B429" s="12"/>
       <c r="C429" s="12"/>
@@ -13396,9 +13833,10 @@
       <c r="X429" s="13"/>
       <c r="Y429" s="11"/>
       <c r="Z429" s="12"/>
-      <c r="AA429" s="13"/>
-    </row>
-    <row r="430" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA429" s="12"/>
+      <c r="AB429" s="13"/>
+    </row>
+    <row r="430" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A430" s="11"/>
       <c r="B430" s="12"/>
       <c r="C430" s="12"/>
@@ -13425,9 +13863,10 @@
       <c r="X430" s="13"/>
       <c r="Y430" s="11"/>
       <c r="Z430" s="12"/>
-      <c r="AA430" s="13"/>
-    </row>
-    <row r="431" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA430" s="12"/>
+      <c r="AB430" s="13"/>
+    </row>
+    <row r="431" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A431" s="11"/>
       <c r="B431" s="12"/>
       <c r="C431" s="12"/>
@@ -13454,9 +13893,10 @@
       <c r="X431" s="13"/>
       <c r="Y431" s="11"/>
       <c r="Z431" s="12"/>
-      <c r="AA431" s="13"/>
-    </row>
-    <row r="432" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA431" s="12"/>
+      <c r="AB431" s="13"/>
+    </row>
+    <row r="432" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A432" s="11"/>
       <c r="B432" s="12"/>
       <c r="C432" s="12"/>
@@ -13483,9 +13923,10 @@
       <c r="X432" s="13"/>
       <c r="Y432" s="11"/>
       <c r="Z432" s="12"/>
-      <c r="AA432" s="13"/>
-    </row>
-    <row r="433" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA432" s="12"/>
+      <c r="AB432" s="13"/>
+    </row>
+    <row r="433" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A433" s="11"/>
       <c r="B433" s="12"/>
       <c r="C433" s="12"/>
@@ -13512,9 +13953,10 @@
       <c r="X433" s="13"/>
       <c r="Y433" s="11"/>
       <c r="Z433" s="12"/>
-      <c r="AA433" s="13"/>
-    </row>
-    <row r="434" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA433" s="12"/>
+      <c r="AB433" s="13"/>
+    </row>
+    <row r="434" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A434" s="11"/>
       <c r="B434" s="12"/>
       <c r="C434" s="12"/>
@@ -13541,9 +13983,10 @@
       <c r="X434" s="13"/>
       <c r="Y434" s="11"/>
       <c r="Z434" s="12"/>
-      <c r="AA434" s="13"/>
-    </row>
-    <row r="435" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA434" s="12"/>
+      <c r="AB434" s="13"/>
+    </row>
+    <row r="435" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A435" s="11"/>
       <c r="B435" s="12"/>
       <c r="C435" s="12"/>
@@ -13570,9 +14013,10 @@
       <c r="X435" s="13"/>
       <c r="Y435" s="11"/>
       <c r="Z435" s="12"/>
-      <c r="AA435" s="13"/>
-    </row>
-    <row r="436" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA435" s="12"/>
+      <c r="AB435" s="13"/>
+    </row>
+    <row r="436" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A436" s="11"/>
       <c r="B436" s="12"/>
       <c r="C436" s="12"/>
@@ -13599,9 +14043,10 @@
       <c r="X436" s="13"/>
       <c r="Y436" s="11"/>
       <c r="Z436" s="12"/>
-      <c r="AA436" s="13"/>
-    </row>
-    <row r="437" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA436" s="12"/>
+      <c r="AB436" s="13"/>
+    </row>
+    <row r="437" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A437" s="11"/>
       <c r="B437" s="12"/>
       <c r="C437" s="12"/>
@@ -13628,9 +14073,10 @@
       <c r="X437" s="13"/>
       <c r="Y437" s="11"/>
       <c r="Z437" s="12"/>
-      <c r="AA437" s="13"/>
-    </row>
-    <row r="438" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA437" s="12"/>
+      <c r="AB437" s="13"/>
+    </row>
+    <row r="438" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A438" s="11"/>
       <c r="B438" s="12"/>
       <c r="C438" s="12"/>
@@ -13657,9 +14103,10 @@
       <c r="X438" s="13"/>
       <c r="Y438" s="11"/>
       <c r="Z438" s="12"/>
-      <c r="AA438" s="13"/>
-    </row>
-    <row r="439" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA438" s="12"/>
+      <c r="AB438" s="13"/>
+    </row>
+    <row r="439" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A439" s="11"/>
       <c r="B439" s="12"/>
       <c r="C439" s="12"/>
@@ -13686,9 +14133,10 @@
       <c r="X439" s="13"/>
       <c r="Y439" s="11"/>
       <c r="Z439" s="12"/>
-      <c r="AA439" s="13"/>
-    </row>
-    <row r="440" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA439" s="12"/>
+      <c r="AB439" s="13"/>
+    </row>
+    <row r="440" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A440" s="11"/>
       <c r="B440" s="12"/>
       <c r="C440" s="12"/>
@@ -13715,9 +14163,10 @@
       <c r="X440" s="13"/>
       <c r="Y440" s="11"/>
       <c r="Z440" s="12"/>
-      <c r="AA440" s="13"/>
-    </row>
-    <row r="441" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA440" s="12"/>
+      <c r="AB440" s="13"/>
+    </row>
+    <row r="441" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A441" s="11"/>
       <c r="B441" s="12"/>
       <c r="C441" s="12"/>
@@ -13744,9 +14193,10 @@
       <c r="X441" s="13"/>
       <c r="Y441" s="11"/>
       <c r="Z441" s="12"/>
-      <c r="AA441" s="13"/>
-    </row>
-    <row r="442" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA441" s="12"/>
+      <c r="AB441" s="13"/>
+    </row>
+    <row r="442" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A442" s="11"/>
       <c r="B442" s="12"/>
       <c r="C442" s="12"/>
@@ -13773,9 +14223,10 @@
       <c r="X442" s="13"/>
       <c r="Y442" s="11"/>
       <c r="Z442" s="12"/>
-      <c r="AA442" s="13"/>
-    </row>
-    <row r="443" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA442" s="12"/>
+      <c r="AB442" s="13"/>
+    </row>
+    <row r="443" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A443" s="11"/>
       <c r="B443" s="12"/>
       <c r="C443" s="12"/>
@@ -13802,9 +14253,10 @@
       <c r="X443" s="13"/>
       <c r="Y443" s="11"/>
       <c r="Z443" s="12"/>
-      <c r="AA443" s="13"/>
-    </row>
-    <row r="444" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA443" s="12"/>
+      <c r="AB443" s="13"/>
+    </row>
+    <row r="444" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A444" s="11"/>
       <c r="B444" s="12"/>
       <c r="C444" s="12"/>
@@ -13831,9 +14283,10 @@
       <c r="X444" s="13"/>
       <c r="Y444" s="11"/>
       <c r="Z444" s="12"/>
-      <c r="AA444" s="13"/>
-    </row>
-    <row r="445" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA444" s="12"/>
+      <c r="AB444" s="13"/>
+    </row>
+    <row r="445" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A445" s="11"/>
       <c r="B445" s="12"/>
       <c r="C445" s="12"/>
@@ -13860,9 +14313,10 @@
       <c r="X445" s="13"/>
       <c r="Y445" s="11"/>
       <c r="Z445" s="12"/>
-      <c r="AA445" s="13"/>
-    </row>
-    <row r="446" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA445" s="12"/>
+      <c r="AB445" s="13"/>
+    </row>
+    <row r="446" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A446" s="11"/>
       <c r="B446" s="12"/>
       <c r="C446" s="12"/>
@@ -13889,9 +14343,10 @@
       <c r="X446" s="13"/>
       <c r="Y446" s="11"/>
       <c r="Z446" s="12"/>
-      <c r="AA446" s="13"/>
-    </row>
-    <row r="447" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA446" s="12"/>
+      <c r="AB446" s="13"/>
+    </row>
+    <row r="447" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A447" s="11"/>
       <c r="B447" s="12"/>
       <c r="C447" s="12"/>
@@ -13918,9 +14373,10 @@
       <c r="X447" s="13"/>
       <c r="Y447" s="11"/>
       <c r="Z447" s="12"/>
-      <c r="AA447" s="13"/>
-    </row>
-    <row r="448" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA447" s="12"/>
+      <c r="AB447" s="13"/>
+    </row>
+    <row r="448" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A448" s="11"/>
       <c r="B448" s="12"/>
       <c r="C448" s="12"/>
@@ -13947,9 +14403,10 @@
       <c r="X448" s="13"/>
       <c r="Y448" s="11"/>
       <c r="Z448" s="12"/>
-      <c r="AA448" s="13"/>
-    </row>
-    <row r="449" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA448" s="12"/>
+      <c r="AB448" s="13"/>
+    </row>
+    <row r="449" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A449" s="11"/>
       <c r="B449" s="12"/>
       <c r="C449" s="12"/>
@@ -13976,9 +14433,10 @@
       <c r="X449" s="13"/>
       <c r="Y449" s="11"/>
       <c r="Z449" s="12"/>
-      <c r="AA449" s="13"/>
-    </row>
-    <row r="450" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA449" s="12"/>
+      <c r="AB449" s="13"/>
+    </row>
+    <row r="450" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A450" s="11"/>
       <c r="B450" s="12"/>
       <c r="C450" s="12"/>
@@ -14005,9 +14463,10 @@
       <c r="X450" s="13"/>
       <c r="Y450" s="11"/>
       <c r="Z450" s="12"/>
-      <c r="AA450" s="13"/>
-    </row>
-    <row r="451" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA450" s="12"/>
+      <c r="AB450" s="13"/>
+    </row>
+    <row r="451" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A451" s="11"/>
       <c r="B451" s="12"/>
       <c r="C451" s="12"/>
@@ -14034,9 +14493,10 @@
       <c r="X451" s="13"/>
       <c r="Y451" s="11"/>
       <c r="Z451" s="12"/>
-      <c r="AA451" s="13"/>
-    </row>
-    <row r="452" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA451" s="12"/>
+      <c r="AB451" s="13"/>
+    </row>
+    <row r="452" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A452" s="11"/>
       <c r="B452" s="12"/>
       <c r="C452" s="12"/>
@@ -14063,9 +14523,10 @@
       <c r="X452" s="13"/>
       <c r="Y452" s="11"/>
       <c r="Z452" s="12"/>
-      <c r="AA452" s="13"/>
-    </row>
-    <row r="453" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA452" s="12"/>
+      <c r="AB452" s="13"/>
+    </row>
+    <row r="453" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A453" s="11"/>
       <c r="B453" s="12"/>
       <c r="C453" s="12"/>
@@ -14092,9 +14553,10 @@
       <c r="X453" s="13"/>
       <c r="Y453" s="11"/>
       <c r="Z453" s="12"/>
-      <c r="AA453" s="13"/>
-    </row>
-    <row r="454" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA453" s="12"/>
+      <c r="AB453" s="13"/>
+    </row>
+    <row r="454" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A454" s="11"/>
       <c r="B454" s="12"/>
       <c r="C454" s="12"/>
@@ -14121,9 +14583,10 @@
       <c r="X454" s="13"/>
       <c r="Y454" s="11"/>
       <c r="Z454" s="12"/>
-      <c r="AA454" s="13"/>
-    </row>
-    <row r="455" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA454" s="12"/>
+      <c r="AB454" s="13"/>
+    </row>
+    <row r="455" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A455" s="11"/>
       <c r="B455" s="12"/>
       <c r="C455" s="12"/>
@@ -14150,9 +14613,10 @@
       <c r="X455" s="13"/>
       <c r="Y455" s="11"/>
       <c r="Z455" s="12"/>
-      <c r="AA455" s="13"/>
-    </row>
-    <row r="456" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA455" s="12"/>
+      <c r="AB455" s="13"/>
+    </row>
+    <row r="456" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A456" s="11"/>
       <c r="B456" s="12"/>
       <c r="C456" s="12"/>
@@ -14179,9 +14643,10 @@
       <c r="X456" s="13"/>
       <c r="Y456" s="11"/>
       <c r="Z456" s="12"/>
-      <c r="AA456" s="13"/>
-    </row>
-    <row r="457" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA456" s="12"/>
+      <c r="AB456" s="13"/>
+    </row>
+    <row r="457" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A457" s="11"/>
       <c r="B457" s="12"/>
       <c r="C457" s="12"/>
@@ -14208,9 +14673,10 @@
       <c r="X457" s="13"/>
       <c r="Y457" s="11"/>
       <c r="Z457" s="12"/>
-      <c r="AA457" s="13"/>
-    </row>
-    <row r="458" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA457" s="12"/>
+      <c r="AB457" s="13"/>
+    </row>
+    <row r="458" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A458" s="11"/>
       <c r="B458" s="12"/>
       <c r="C458" s="12"/>
@@ -14237,9 +14703,10 @@
       <c r="X458" s="13"/>
       <c r="Y458" s="11"/>
       <c r="Z458" s="12"/>
-      <c r="AA458" s="13"/>
-    </row>
-    <row r="459" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA458" s="12"/>
+      <c r="AB458" s="13"/>
+    </row>
+    <row r="459" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A459" s="11"/>
       <c r="B459" s="12"/>
       <c r="C459" s="12"/>
@@ -14266,9 +14733,10 @@
       <c r="X459" s="13"/>
       <c r="Y459" s="11"/>
       <c r="Z459" s="12"/>
-      <c r="AA459" s="13"/>
-    </row>
-    <row r="460" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA459" s="12"/>
+      <c r="AB459" s="13"/>
+    </row>
+    <row r="460" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A460" s="11"/>
       <c r="B460" s="12"/>
       <c r="C460" s="12"/>
@@ -14295,9 +14763,10 @@
       <c r="X460" s="13"/>
       <c r="Y460" s="11"/>
       <c r="Z460" s="12"/>
-      <c r="AA460" s="13"/>
-    </row>
-    <row r="461" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA460" s="12"/>
+      <c r="AB460" s="13"/>
+    </row>
+    <row r="461" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A461" s="11"/>
       <c r="B461" s="12"/>
       <c r="C461" s="12"/>
@@ -14324,9 +14793,10 @@
       <c r="X461" s="13"/>
       <c r="Y461" s="11"/>
       <c r="Z461" s="12"/>
-      <c r="AA461" s="13"/>
-    </row>
-    <row r="462" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA461" s="12"/>
+      <c r="AB461" s="13"/>
+    </row>
+    <row r="462" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A462" s="11"/>
       <c r="B462" s="12"/>
       <c r="C462" s="12"/>
@@ -14353,9 +14823,10 @@
       <c r="X462" s="13"/>
       <c r="Y462" s="11"/>
       <c r="Z462" s="12"/>
-      <c r="AA462" s="13"/>
-    </row>
-    <row r="463" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA462" s="12"/>
+      <c r="AB462" s="13"/>
+    </row>
+    <row r="463" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A463" s="11"/>
       <c r="B463" s="12"/>
       <c r="C463" s="12"/>
@@ -14382,9 +14853,10 @@
       <c r="X463" s="13"/>
       <c r="Y463" s="11"/>
       <c r="Z463" s="12"/>
-      <c r="AA463" s="13"/>
-    </row>
-    <row r="464" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA463" s="12"/>
+      <c r="AB463" s="13"/>
+    </row>
+    <row r="464" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A464" s="11"/>
       <c r="B464" s="12"/>
       <c r="C464" s="12"/>
@@ -14411,9 +14883,10 @@
       <c r="X464" s="13"/>
       <c r="Y464" s="11"/>
       <c r="Z464" s="12"/>
-      <c r="AA464" s="13"/>
-    </row>
-    <row r="465" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA464" s="12"/>
+      <c r="AB464" s="13"/>
+    </row>
+    <row r="465" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A465" s="11"/>
       <c r="B465" s="12"/>
       <c r="C465" s="12"/>
@@ -14440,9 +14913,10 @@
       <c r="X465" s="13"/>
       <c r="Y465" s="11"/>
       <c r="Z465" s="12"/>
-      <c r="AA465" s="13"/>
-    </row>
-    <row r="466" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA465" s="12"/>
+      <c r="AB465" s="13"/>
+    </row>
+    <row r="466" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A466" s="11"/>
       <c r="B466" s="12"/>
       <c r="C466" s="12"/>
@@ -14469,9 +14943,10 @@
       <c r="X466" s="13"/>
       <c r="Y466" s="11"/>
       <c r="Z466" s="12"/>
-      <c r="AA466" s="13"/>
-    </row>
-    <row r="467" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA466" s="12"/>
+      <c r="AB466" s="13"/>
+    </row>
+    <row r="467" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A467" s="11"/>
       <c r="B467" s="12"/>
       <c r="C467" s="12"/>
@@ -14498,9 +14973,10 @@
       <c r="X467" s="13"/>
       <c r="Y467" s="11"/>
       <c r="Z467" s="12"/>
-      <c r="AA467" s="13"/>
-    </row>
-    <row r="468" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA467" s="12"/>
+      <c r="AB467" s="13"/>
+    </row>
+    <row r="468" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A468" s="11"/>
       <c r="B468" s="12"/>
       <c r="C468" s="12"/>
@@ -14527,9 +15003,10 @@
       <c r="X468" s="13"/>
       <c r="Y468" s="11"/>
       <c r="Z468" s="12"/>
-      <c r="AA468" s="13"/>
-    </row>
-    <row r="469" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA468" s="12"/>
+      <c r="AB468" s="13"/>
+    </row>
+    <row r="469" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A469" s="11"/>
       <c r="B469" s="12"/>
       <c r="C469" s="12"/>
@@ -14556,9 +15033,10 @@
       <c r="X469" s="13"/>
       <c r="Y469" s="11"/>
       <c r="Z469" s="12"/>
-      <c r="AA469" s="13"/>
-    </row>
-    <row r="470" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA469" s="12"/>
+      <c r="AB469" s="13"/>
+    </row>
+    <row r="470" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A470" s="11"/>
       <c r="B470" s="12"/>
       <c r="C470" s="12"/>
@@ -14585,9 +15063,10 @@
       <c r="X470" s="13"/>
       <c r="Y470" s="11"/>
       <c r="Z470" s="12"/>
-      <c r="AA470" s="13"/>
-    </row>
-    <row r="471" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA470" s="12"/>
+      <c r="AB470" s="13"/>
+    </row>
+    <row r="471" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A471" s="11"/>
       <c r="B471" s="12"/>
       <c r="C471" s="12"/>
@@ -14614,9 +15093,10 @@
       <c r="X471" s="13"/>
       <c r="Y471" s="11"/>
       <c r="Z471" s="12"/>
-      <c r="AA471" s="13"/>
-    </row>
-    <row r="472" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA471" s="12"/>
+      <c r="AB471" s="13"/>
+    </row>
+    <row r="472" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A472" s="11"/>
       <c r="B472" s="12"/>
       <c r="C472" s="12"/>
@@ -14643,9 +15123,10 @@
       <c r="X472" s="13"/>
       <c r="Y472" s="11"/>
       <c r="Z472" s="12"/>
-      <c r="AA472" s="13"/>
-    </row>
-    <row r="473" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA472" s="12"/>
+      <c r="AB472" s="13"/>
+    </row>
+    <row r="473" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A473" s="11"/>
       <c r="B473" s="12"/>
       <c r="C473" s="12"/>
@@ -14672,9 +15153,10 @@
       <c r="X473" s="13"/>
       <c r="Y473" s="11"/>
       <c r="Z473" s="12"/>
-      <c r="AA473" s="13"/>
-    </row>
-    <row r="474" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA473" s="12"/>
+      <c r="AB473" s="13"/>
+    </row>
+    <row r="474" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A474" s="11"/>
       <c r="B474" s="12"/>
       <c r="C474" s="12"/>
@@ -14701,9 +15183,10 @@
       <c r="X474" s="13"/>
       <c r="Y474" s="11"/>
       <c r="Z474" s="12"/>
-      <c r="AA474" s="13"/>
-    </row>
-    <row r="475" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA474" s="12"/>
+      <c r="AB474" s="13"/>
+    </row>
+    <row r="475" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A475" s="11"/>
       <c r="B475" s="12"/>
       <c r="C475" s="12"/>
@@ -14730,9 +15213,10 @@
       <c r="X475" s="13"/>
       <c r="Y475" s="11"/>
       <c r="Z475" s="12"/>
-      <c r="AA475" s="13"/>
-    </row>
-    <row r="476" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA475" s="12"/>
+      <c r="AB475" s="13"/>
+    </row>
+    <row r="476" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A476" s="11"/>
       <c r="B476" s="12"/>
       <c r="C476" s="12"/>
@@ -14759,9 +15243,10 @@
       <c r="X476" s="13"/>
       <c r="Y476" s="11"/>
       <c r="Z476" s="12"/>
-      <c r="AA476" s="13"/>
-    </row>
-    <row r="477" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA476" s="12"/>
+      <c r="AB476" s="13"/>
+    </row>
+    <row r="477" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A477" s="11"/>
       <c r="B477" s="12"/>
       <c r="C477" s="12"/>
@@ -14788,9 +15273,10 @@
       <c r="X477" s="13"/>
       <c r="Y477" s="11"/>
       <c r="Z477" s="12"/>
-      <c r="AA477" s="13"/>
-    </row>
-    <row r="478" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA477" s="12"/>
+      <c r="AB477" s="13"/>
+    </row>
+    <row r="478" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A478" s="11"/>
       <c r="B478" s="12"/>
       <c r="C478" s="12"/>
@@ -14817,9 +15303,10 @@
       <c r="X478" s="13"/>
       <c r="Y478" s="11"/>
       <c r="Z478" s="12"/>
-      <c r="AA478" s="13"/>
-    </row>
-    <row r="479" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA478" s="12"/>
+      <c r="AB478" s="13"/>
+    </row>
+    <row r="479" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A479" s="11"/>
       <c r="B479" s="12"/>
       <c r="C479" s="12"/>
@@ -14846,9 +15333,10 @@
       <c r="X479" s="13"/>
       <c r="Y479" s="11"/>
       <c r="Z479" s="12"/>
-      <c r="AA479" s="13"/>
-    </row>
-    <row r="480" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA479" s="12"/>
+      <c r="AB479" s="13"/>
+    </row>
+    <row r="480" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A480" s="11"/>
       <c r="B480" s="12"/>
       <c r="C480" s="12"/>
@@ -14875,9 +15363,10 @@
       <c r="X480" s="13"/>
       <c r="Y480" s="11"/>
       <c r="Z480" s="12"/>
-      <c r="AA480" s="13"/>
-    </row>
-    <row r="481" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA480" s="12"/>
+      <c r="AB480" s="13"/>
+    </row>
+    <row r="481" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A481" s="11"/>
       <c r="B481" s="12"/>
       <c r="C481" s="12"/>
@@ -14904,9 +15393,10 @@
       <c r="X481" s="13"/>
       <c r="Y481" s="11"/>
       <c r="Z481" s="12"/>
-      <c r="AA481" s="13"/>
-    </row>
-    <row r="482" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA481" s="12"/>
+      <c r="AB481" s="13"/>
+    </row>
+    <row r="482" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A482" s="11"/>
       <c r="B482" s="12"/>
       <c r="C482" s="12"/>
@@ -14933,9 +15423,10 @@
       <c r="X482" s="13"/>
       <c r="Y482" s="11"/>
       <c r="Z482" s="12"/>
-      <c r="AA482" s="13"/>
-    </row>
-    <row r="483" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA482" s="12"/>
+      <c r="AB482" s="13"/>
+    </row>
+    <row r="483" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A483" s="11"/>
       <c r="B483" s="12"/>
       <c r="C483" s="12"/>
@@ -14962,9 +15453,10 @@
       <c r="X483" s="13"/>
       <c r="Y483" s="11"/>
       <c r="Z483" s="12"/>
-      <c r="AA483" s="13"/>
-    </row>
-    <row r="484" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA483" s="12"/>
+      <c r="AB483" s="13"/>
+    </row>
+    <row r="484" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A484" s="11"/>
       <c r="B484" s="12"/>
       <c r="C484" s="12"/>
@@ -14991,9 +15483,10 @@
       <c r="X484" s="13"/>
       <c r="Y484" s="11"/>
       <c r="Z484" s="12"/>
-      <c r="AA484" s="13"/>
-    </row>
-    <row r="485" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA484" s="12"/>
+      <c r="AB484" s="13"/>
+    </row>
+    <row r="485" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A485" s="11"/>
       <c r="B485" s="12"/>
       <c r="C485" s="12"/>
@@ -15020,9 +15513,10 @@
       <c r="X485" s="13"/>
       <c r="Y485" s="11"/>
       <c r="Z485" s="12"/>
-      <c r="AA485" s="13"/>
-    </row>
-    <row r="486" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA485" s="12"/>
+      <c r="AB485" s="13"/>
+    </row>
+    <row r="486" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A486" s="11"/>
       <c r="B486" s="12"/>
       <c r="C486" s="12"/>
@@ -15049,9 +15543,10 @@
       <c r="X486" s="13"/>
       <c r="Y486" s="11"/>
       <c r="Z486" s="12"/>
-      <c r="AA486" s="13"/>
-    </row>
-    <row r="487" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA486" s="12"/>
+      <c r="AB486" s="13"/>
+    </row>
+    <row r="487" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A487" s="11"/>
       <c r="B487" s="12"/>
       <c r="C487" s="12"/>
@@ -15078,9 +15573,10 @@
       <c r="X487" s="13"/>
       <c r="Y487" s="11"/>
       <c r="Z487" s="12"/>
-      <c r="AA487" s="13"/>
-    </row>
-    <row r="488" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA487" s="12"/>
+      <c r="AB487" s="13"/>
+    </row>
+    <row r="488" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A488" s="11"/>
       <c r="B488" s="12"/>
       <c r="C488" s="12"/>
@@ -15107,9 +15603,10 @@
       <c r="X488" s="13"/>
       <c r="Y488" s="11"/>
       <c r="Z488" s="12"/>
-      <c r="AA488" s="13"/>
-    </row>
-    <row r="489" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA488" s="12"/>
+      <c r="AB488" s="13"/>
+    </row>
+    <row r="489" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A489" s="11"/>
       <c r="B489" s="12"/>
       <c r="C489" s="12"/>
@@ -15136,9 +15633,10 @@
       <c r="X489" s="13"/>
       <c r="Y489" s="11"/>
       <c r="Z489" s="12"/>
-      <c r="AA489" s="13"/>
-    </row>
-    <row r="490" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA489" s="12"/>
+      <c r="AB489" s="13"/>
+    </row>
+    <row r="490" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A490" s="11"/>
       <c r="B490" s="12"/>
       <c r="C490" s="12"/>
@@ -15165,9 +15663,10 @@
       <c r="X490" s="13"/>
       <c r="Y490" s="11"/>
       <c r="Z490" s="12"/>
-      <c r="AA490" s="13"/>
-    </row>
-    <row r="491" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA490" s="12"/>
+      <c r="AB490" s="13"/>
+    </row>
+    <row r="491" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A491" s="11"/>
       <c r="B491" s="12"/>
       <c r="C491" s="12"/>
@@ -15194,9 +15693,10 @@
       <c r="X491" s="13"/>
       <c r="Y491" s="11"/>
       <c r="Z491" s="12"/>
-      <c r="AA491" s="13"/>
-    </row>
-    <row r="492" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA491" s="12"/>
+      <c r="AB491" s="13"/>
+    </row>
+    <row r="492" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A492" s="11"/>
       <c r="B492" s="12"/>
       <c r="C492" s="12"/>
@@ -15223,9 +15723,10 @@
       <c r="X492" s="13"/>
       <c r="Y492" s="11"/>
       <c r="Z492" s="12"/>
-      <c r="AA492" s="13"/>
-    </row>
-    <row r="493" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA492" s="12"/>
+      <c r="AB492" s="13"/>
+    </row>
+    <row r="493" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A493" s="11"/>
       <c r="B493" s="12"/>
       <c r="C493" s="12"/>
@@ -15252,9 +15753,10 @@
       <c r="X493" s="13"/>
       <c r="Y493" s="11"/>
       <c r="Z493" s="12"/>
-      <c r="AA493" s="13"/>
-    </row>
-    <row r="494" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA493" s="12"/>
+      <c r="AB493" s="13"/>
+    </row>
+    <row r="494" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A494" s="11"/>
       <c r="B494" s="12"/>
       <c r="C494" s="12"/>
@@ -15281,9 +15783,10 @@
       <c r="X494" s="13"/>
       <c r="Y494" s="11"/>
       <c r="Z494" s="12"/>
-      <c r="AA494" s="13"/>
-    </row>
-    <row r="495" spans="1:27" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="AA494" s="12"/>
+      <c r="AB494" s="13"/>
+    </row>
+    <row r="495" spans="1:28" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A495" s="11"/>
       <c r="B495" s="12"/>
       <c r="C495" s="12"/>
@@ -15310,9 +15813,10 @@
       <c r="X495" s="13"/>
       <c r="Y495" s="11"/>
       <c r="Z495" s="12"/>
-      <c r="AA495" s="13"/>
-    </row>
-    <row r="496" spans="1:27" ht="14.4" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="AA495" s="12"/>
+      <c r="AB495" s="13"/>
+    </row>
+    <row r="496" spans="1:28" ht="14.45" hidden="1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A496" s="1"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -15339,9 +15843,10 @@
       <c r="X496" s="3"/>
       <c r="Y496" s="1"/>
       <c r="Z496" s="2"/>
-      <c r="AA496" s="3"/>
-    </row>
-    <row r="497" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA496" s="2"/>
+      <c r="AB496" s="3"/>
+    </row>
+    <row r="497" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="1"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -15368,9 +15873,10 @@
       <c r="X497" s="3"/>
       <c r="Y497" s="1"/>
       <c r="Z497" s="2"/>
-      <c r="AA497" s="3"/>
-    </row>
-    <row r="498" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA497" s="2"/>
+      <c r="AB497" s="3"/>
+    </row>
+    <row r="498" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="1"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -15397,9 +15903,10 @@
       <c r="X498" s="3"/>
       <c r="Y498" s="1"/>
       <c r="Z498" s="2"/>
-      <c r="AA498" s="3"/>
-    </row>
-    <row r="499" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA498" s="2"/>
+      <c r="AB498" s="3"/>
+    </row>
+    <row r="499" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="1"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -15426,9 +15933,10 @@
       <c r="X499" s="3"/>
       <c r="Y499" s="1"/>
       <c r="Z499" s="2"/>
-      <c r="AA499" s="3"/>
-    </row>
-    <row r="500" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA499" s="2"/>
+      <c r="AB499" s="3"/>
+    </row>
+    <row r="500" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="1"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -15455,9 +15963,10 @@
       <c r="X500" s="3"/>
       <c r="Y500" s="1"/>
       <c r="Z500" s="2"/>
-      <c r="AA500" s="3"/>
-    </row>
-    <row r="501" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA500" s="2"/>
+      <c r="AB500" s="3"/>
+    </row>
+    <row r="501" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="1"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -15484,9 +15993,10 @@
       <c r="X501" s="3"/>
       <c r="Y501" s="1"/>
       <c r="Z501" s="2"/>
-      <c r="AA501" s="3"/>
-    </row>
-    <row r="502" spans="1:27" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AA501" s="2"/>
+      <c r="AB501" s="3"/>
+    </row>
+    <row r="502" spans="1:28" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -15513,9 +16023,10 @@
       <c r="X502" s="3"/>
       <c r="Y502" s="1"/>
       <c r="Z502" s="2"/>
-      <c r="AA502" s="3"/>
-    </row>
-    <row r="503" spans="1:27" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AA502" s="2"/>
+      <c r="AB502" s="3"/>
+    </row>
+    <row r="503" spans="1:28" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4"/>
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
@@ -15542,14 +16053,15 @@
       <c r="X503" s="6"/>
       <c r="Y503" s="4"/>
       <c r="Z503" s="5"/>
-      <c r="AA503" s="6"/>
+      <c r="AA503" s="5"/>
+      <c r="AB503" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:R1"/>
-    <mergeCell ref="Y1:AA1"/>
     <mergeCell ref="S1:X1"/>
+    <mergeCell ref="Y1:AB1"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D495">
